--- a/TVV.xlsx
+++ b/TVV.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JCBRITO\OneDrive\PMNO\pmno-tvv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcbrito\OneDrive\PMNO\pmno-tvv\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -323,6 +323,7 @@
       <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1032,8 +1033,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A1:AQ40" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
-  <autoFilter ref="A1:AQ40"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A1:AQ41" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+  <autoFilter ref="A1:AQ41"/>
   <tableColumns count="43">
     <tableColumn id="1" name="Ano" dataDxfId="42"/>
     <tableColumn id="2" name="Decreto" dataDxfId="41"/>
@@ -1346,10 +1347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ40"/>
+  <dimension ref="A1:AQ41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z19" workbookViewId="0">
-      <selection activeCell="AP38" sqref="AP38"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1371,7 +1372,7 @@
     <col min="43" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="2" customFormat="1" ht="87.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" s="2" customFormat="1" ht="88.5" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
@@ -6080,6 +6081,134 @@
         <v>2.72</v>
       </c>
     </row>
+    <row r="41" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A41" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C41" s="5">
+        <v>294.45</v>
+      </c>
+      <c r="D41" s="5">
+        <v>235.59</v>
+      </c>
+      <c r="E41" s="5">
+        <v>176.64</v>
+      </c>
+      <c r="F41" s="5">
+        <v>141.21</v>
+      </c>
+      <c r="G41" s="5">
+        <v>117.74</v>
+      </c>
+      <c r="H41" s="5">
+        <v>94.22</v>
+      </c>
+      <c r="I41" s="5">
+        <v>82.31</v>
+      </c>
+      <c r="J41" s="5">
+        <v>70.56</v>
+      </c>
+      <c r="K41" s="5">
+        <v>58.8</v>
+      </c>
+      <c r="L41" s="5">
+        <v>0</v>
+      </c>
+      <c r="M41" s="5">
+        <v>56.91</v>
+      </c>
+      <c r="N41" s="5">
+        <v>0</v>
+      </c>
+      <c r="O41" s="5">
+        <v>0</v>
+      </c>
+      <c r="P41" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="5">
+        <v>0</v>
+      </c>
+      <c r="R41" s="5">
+        <v>0</v>
+      </c>
+      <c r="S41" s="5">
+        <v>0</v>
+      </c>
+      <c r="T41" s="5">
+        <v>0</v>
+      </c>
+      <c r="U41" s="5">
+        <v>0</v>
+      </c>
+      <c r="V41" s="5">
+        <v>0</v>
+      </c>
+      <c r="W41" s="5">
+        <v>131.88</v>
+      </c>
+      <c r="X41" s="5">
+        <v>293.06</v>
+      </c>
+      <c r="Y41" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="5">
+        <v>527.51</v>
+      </c>
+      <c r="AA41" s="5">
+        <v>732.64</v>
+      </c>
+      <c r="AB41" s="5">
+        <v>1025.72</v>
+      </c>
+      <c r="AC41" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="5">
+        <v>219.8</v>
+      </c>
+      <c r="AE41" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="5">
+        <v>483.54</v>
+      </c>
+      <c r="AG41" s="5">
+        <v>674.02</v>
+      </c>
+      <c r="AH41" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI41" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ41" s="5">
+        <v>197.8</v>
+      </c>
+      <c r="AK41" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL41" s="5">
+        <v>424.93</v>
+      </c>
+      <c r="AM41" s="5">
+        <v>556.80999999999995</v>
+      </c>
+      <c r="AN41" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO41" s="5">
+        <v>2.59</v>
+      </c>
+      <c r="AP41" s="5">
+        <v>116.95</v>
+      </c>
+      <c r="AQ41" s="5">
+        <v>2.72</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/TVV.xlsx
+++ b/TVV.xlsx
@@ -1033,8 +1033,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A1:AQ41" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
-  <autoFilter ref="A1:AQ41"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A1:AQ40" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+  <autoFilter ref="A1:AQ40"/>
   <tableColumns count="43">
     <tableColumn id="1" name="Ano" dataDxfId="42"/>
     <tableColumn id="2" name="Decreto" dataDxfId="41"/>
@@ -1347,10 +1347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ41"/>
+  <dimension ref="A1:AQ40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -6081,134 +6081,6 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="41" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A41" s="6">
-        <v>2022</v>
-      </c>
-      <c r="C41" s="5">
-        <v>294.45</v>
-      </c>
-      <c r="D41" s="5">
-        <v>235.59</v>
-      </c>
-      <c r="E41" s="5">
-        <v>176.64</v>
-      </c>
-      <c r="F41" s="5">
-        <v>141.21</v>
-      </c>
-      <c r="G41" s="5">
-        <v>117.74</v>
-      </c>
-      <c r="H41" s="5">
-        <v>94.22</v>
-      </c>
-      <c r="I41" s="5">
-        <v>82.31</v>
-      </c>
-      <c r="J41" s="5">
-        <v>70.56</v>
-      </c>
-      <c r="K41" s="5">
-        <v>58.8</v>
-      </c>
-      <c r="L41" s="5">
-        <v>0</v>
-      </c>
-      <c r="M41" s="5">
-        <v>56.91</v>
-      </c>
-      <c r="N41" s="5">
-        <v>0</v>
-      </c>
-      <c r="O41" s="5">
-        <v>0</v>
-      </c>
-      <c r="P41" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="5">
-        <v>0</v>
-      </c>
-      <c r="R41" s="5">
-        <v>0</v>
-      </c>
-      <c r="S41" s="5">
-        <v>0</v>
-      </c>
-      <c r="T41" s="5">
-        <v>0</v>
-      </c>
-      <c r="U41" s="5">
-        <v>0</v>
-      </c>
-      <c r="V41" s="5">
-        <v>0</v>
-      </c>
-      <c r="W41" s="5">
-        <v>131.88</v>
-      </c>
-      <c r="X41" s="5">
-        <v>293.06</v>
-      </c>
-      <c r="Y41" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="5">
-        <v>527.51</v>
-      </c>
-      <c r="AA41" s="5">
-        <v>732.64</v>
-      </c>
-      <c r="AB41" s="5">
-        <v>1025.72</v>
-      </c>
-      <c r="AC41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD41" s="5">
-        <v>219.8</v>
-      </c>
-      <c r="AE41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF41" s="5">
-        <v>483.54</v>
-      </c>
-      <c r="AG41" s="5">
-        <v>674.02</v>
-      </c>
-      <c r="AH41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ41" s="5">
-        <v>197.8</v>
-      </c>
-      <c r="AK41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AL41" s="5">
-        <v>424.93</v>
-      </c>
-      <c r="AM41" s="5">
-        <v>556.80999999999995</v>
-      </c>
-      <c r="AN41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AO41" s="5">
-        <v>2.59</v>
-      </c>
-      <c r="AP41" s="5">
-        <v>116.95</v>
-      </c>
-      <c r="AQ41" s="5">
-        <v>2.72</v>
-      </c>
-    </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/TVV.xlsx
+++ b/TVV.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="78">
   <si>
     <t>3607/2016</t>
   </si>
@@ -262,6 +262,9 @@
   </si>
   <si>
     <t>Rural</t>
+  </si>
+  <si>
+    <t>4357/2021</t>
   </si>
 </sst>
 </file>
@@ -364,7 +367,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -403,7 +406,6 @@
       <alignment horizontal="left" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1033,8 +1035,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A1:AQ40" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
-  <autoFilter ref="A1:AQ40"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A1:AQ41" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+  <autoFilter ref="A1:AQ41"/>
   <tableColumns count="43">
     <tableColumn id="1" name="Ano" dataDxfId="42"/>
     <tableColumn id="2" name="Decreto" dataDxfId="41"/>
@@ -1347,10 +1349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ40"/>
+  <dimension ref="A1:AQ41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -5956,7 +5958,9 @@
       <c r="A40" s="21">
         <v>2021</v>
       </c>
-      <c r="B40" s="22"/>
+      <c r="B40" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="C40" s="19">
         <v>294.45</v>
       </c>
@@ -6078,6 +6082,134 @@
         <v>116.95</v>
       </c>
       <c r="AQ40" s="19">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A41" s="21">
+        <v>2022</v>
+      </c>
+      <c r="C41" s="19">
+        <v>294.45</v>
+      </c>
+      <c r="D41" s="19">
+        <v>235.59</v>
+      </c>
+      <c r="E41" s="19">
+        <v>176.64</v>
+      </c>
+      <c r="F41" s="19">
+        <v>141.21</v>
+      </c>
+      <c r="G41" s="19">
+        <v>117.74</v>
+      </c>
+      <c r="H41" s="19">
+        <v>94.22</v>
+      </c>
+      <c r="I41" s="19">
+        <v>82.31</v>
+      </c>
+      <c r="J41" s="19">
+        <v>70.56</v>
+      </c>
+      <c r="K41" s="19">
+        <v>58.8</v>
+      </c>
+      <c r="L41" s="19">
+        <v>0</v>
+      </c>
+      <c r="M41" s="19">
+        <v>56.91</v>
+      </c>
+      <c r="N41" s="19">
+        <v>0</v>
+      </c>
+      <c r="O41" s="19">
+        <v>0</v>
+      </c>
+      <c r="P41" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="19">
+        <v>0</v>
+      </c>
+      <c r="R41" s="19">
+        <v>0</v>
+      </c>
+      <c r="S41" s="19">
+        <v>0</v>
+      </c>
+      <c r="T41" s="19">
+        <v>0</v>
+      </c>
+      <c r="U41" s="19">
+        <v>0</v>
+      </c>
+      <c r="V41" s="19">
+        <v>0</v>
+      </c>
+      <c r="W41" s="19">
+        <v>131.88</v>
+      </c>
+      <c r="X41" s="19">
+        <v>293.06</v>
+      </c>
+      <c r="Y41" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="19">
+        <v>527.51</v>
+      </c>
+      <c r="AA41" s="19">
+        <v>732.64</v>
+      </c>
+      <c r="AB41" s="19">
+        <v>1025.72</v>
+      </c>
+      <c r="AC41" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="19">
+        <v>219.8</v>
+      </c>
+      <c r="AE41" s="19">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="19">
+        <v>483.54</v>
+      </c>
+      <c r="AG41" s="19">
+        <v>674.02</v>
+      </c>
+      <c r="AH41" s="19">
+        <v>0</v>
+      </c>
+      <c r="AI41" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ41" s="19">
+        <v>197.8</v>
+      </c>
+      <c r="AK41" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL41" s="19">
+        <v>424.93</v>
+      </c>
+      <c r="AM41" s="19">
+        <v>556.80999999999995</v>
+      </c>
+      <c r="AN41" s="19">
+        <v>0</v>
+      </c>
+      <c r="AO41" s="19">
+        <v>2.59</v>
+      </c>
+      <c r="AP41" s="19">
+        <v>116.95</v>
+      </c>
+      <c r="AQ41" s="19">
         <v>2.72</v>
       </c>
     </row>
@@ -6102,17 +6234,17 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
@@ -6126,17 +6258,17 @@
       <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ACGy3z8IZwpZ1jC9viRieBHK/uLdUlJNK7zG41vXss+0Lnoe1GsnCDTRsJebZjmoA0CVYCFh0AgPjolGpZrw3A==" saltValue="kTV5D2t9zeu7OX2nnRMOAA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
@@ -6162,20 +6294,20 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="24"/>
       <c r="C1" s="8"/>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="25"/>
+      <c r="E1" s="24"/>
       <c r="F1" s="8"/>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="25"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="9">

--- a/TVV.xlsx
+++ b/TVV.xlsx
@@ -1352,7 +1352,7 @@
   <dimension ref="A1:AQ41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="AM50" sqref="AM50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -6025,7 +6025,7 @@
         <v>131.88</v>
       </c>
       <c r="X40" s="19">
-        <v>293.06</v>
+        <v>293.07</v>
       </c>
       <c r="Y40" s="19">
         <v>0</v>
@@ -6037,7 +6037,7 @@
         <v>732.64</v>
       </c>
       <c r="AB40" s="19">
-        <v>1025.72</v>
+        <v>1025.74</v>
       </c>
       <c r="AC40" s="19">
         <v>0</v>
@@ -6049,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="AF40" s="19">
-        <v>483.54</v>
+        <v>483.55</v>
       </c>
       <c r="AG40" s="19">
         <v>674.02</v>
@@ -6070,7 +6070,7 @@
         <v>424.93</v>
       </c>
       <c r="AM40" s="19">
-        <v>556.80999999999995</v>
+        <v>556.79999999999995</v>
       </c>
       <c r="AN40" s="19">
         <v>0</v>
@@ -6153,7 +6153,7 @@
         <v>131.88</v>
       </c>
       <c r="X41" s="19">
-        <v>293.06</v>
+        <v>293.07</v>
       </c>
       <c r="Y41" s="19">
         <v>0</v>
@@ -6165,7 +6165,7 @@
         <v>732.64</v>
       </c>
       <c r="AB41" s="19">
-        <v>1025.72</v>
+        <v>1025.74</v>
       </c>
       <c r="AC41" s="19">
         <v>0</v>
@@ -6177,7 +6177,7 @@
         <v>0</v>
       </c>
       <c r="AF41" s="19">
-        <v>483.54</v>
+        <v>483.55</v>
       </c>
       <c r="AG41" s="19">
         <v>674.02</v>
@@ -6198,19 +6198,19 @@
         <v>424.93</v>
       </c>
       <c r="AM41" s="19">
-        <v>556.80999999999995</v>
+        <v>556.79999999999995</v>
       </c>
       <c r="AN41" s="19">
         <v>0</v>
       </c>
       <c r="AO41" s="19">
-        <v>2.59</v>
+        <v>2.85</v>
       </c>
       <c r="AP41" s="19">
-        <v>116.95</v>
+        <v>128.72</v>
       </c>
       <c r="AQ41" s="19">
-        <v>2.72</v>
+        <v>2.99</v>
       </c>
     </row>
   </sheetData>

--- a/TVV.xlsx
+++ b/TVV.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="79">
   <si>
     <t>3607/2016</t>
   </si>
@@ -265,6 +265,9 @@
   </si>
   <si>
     <t>4357/2021</t>
+  </si>
+  <si>
+    <t>4516/2022</t>
   </si>
 </sst>
 </file>
@@ -1351,8 +1354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="AM50" sqref="AM50"/>
+    <sheetView tabSelected="1" topLeftCell="AF19" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -6089,6 +6092,9 @@
       <c r="A41" s="21">
         <v>2022</v>
       </c>
+      <c r="B41" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="C41" s="19">
         <v>294.45</v>
       </c>

--- a/TVV.xlsx
+++ b/TVV.xlsx
@@ -252,9 +252,6 @@
     <t>3949/2019</t>
   </si>
   <si>
-    <t>http://www.fee.rs.gov.br/servicos/atualizacao-valores/</t>
-  </si>
-  <si>
     <t>Valores muito antigos - IGP-DI</t>
   </si>
   <si>
@@ -268,6 +265,9 @@
   </si>
   <si>
     <t>4516/2022</t>
+  </si>
+  <si>
+    <t>https://arquivofee.rs.gov.br/servicos/atualizacao-valores/</t>
   </si>
 </sst>
 </file>
@@ -277,7 +277,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,6 +332,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -370,7 +376,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -417,6 +423,13 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1038,8 +1051,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A1:AQ41" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
-  <autoFilter ref="A1:AQ41"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A1:AQ42" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+  <autoFilter ref="A1:AQ42"/>
   <tableColumns count="43">
     <tableColumn id="1" name="Ano" dataDxfId="42"/>
     <tableColumn id="2" name="Decreto" dataDxfId="41"/>
@@ -1352,10 +1365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ41"/>
+  <dimension ref="A1:AQ42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF19" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:AQ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1374,7 +1387,8 @@
     <col min="36" max="40" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="16384" width="9.140625" style="1"/>
+    <col min="43" max="43" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" s="2" customFormat="1" ht="88.5" x14ac:dyDescent="0.25">
@@ -1505,7 +1519,7 @@
         <v>56</v>
       </c>
       <c r="AQ1" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2102,158 +2116,191 @@
       <c r="AP7" s="13">
         <v>61119.199999999997</v>
       </c>
-      <c r="AQ7" s="18"/>
+      <c r="AQ7" s="18">
+        <v>1420.06</v>
+      </c>
     </row>
     <row r="8" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
-        <v>1989</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1351</v>
-      </c>
-      <c r="D8" s="4">
-        <v>1049</v>
-      </c>
-      <c r="E8" s="4">
-        <v>755</v>
-      </c>
-      <c r="F8" s="4">
-        <v>604</v>
-      </c>
-      <c r="G8" s="4">
-        <v>453</v>
-      </c>
-      <c r="H8" s="4">
-        <v>373</v>
-      </c>
-      <c r="I8" s="4">
-        <v>302</v>
-      </c>
-      <c r="J8" s="4">
-        <v>222</v>
-      </c>
-      <c r="K8" s="4">
-        <v>177</v>
-      </c>
-      <c r="L8" s="4">
-        <v>0</v>
-      </c>
-      <c r="M8" s="4">
-        <v>151</v>
-      </c>
-      <c r="N8" s="4">
-        <v>133</v>
-      </c>
-      <c r="O8" s="4">
-        <v>0</v>
-      </c>
-      <c r="P8" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="4">
-        <v>106</v>
-      </c>
-      <c r="R8" s="4">
-        <v>71</v>
-      </c>
-      <c r="S8" s="4">
-        <v>0</v>
-      </c>
-      <c r="T8" s="4">
-        <v>0</v>
-      </c>
-      <c r="U8" s="4">
-        <v>0</v>
-      </c>
-      <c r="V8" s="4">
-        <v>0</v>
-      </c>
-      <c r="W8" s="4">
-        <v>1511</v>
-      </c>
-      <c r="X8" s="4">
-        <v>2107</v>
-      </c>
-      <c r="Y8" s="4">
-        <v>3014</v>
-      </c>
-      <c r="Z8" s="4">
-        <v>4524</v>
-      </c>
-      <c r="AA8" s="4">
-        <v>6037</v>
-      </c>
-      <c r="AB8" s="4">
-        <v>8296</v>
-      </c>
-      <c r="AC8" s="4">
-        <v>1813</v>
-      </c>
-      <c r="AD8" s="4">
-        <v>2258</v>
-      </c>
-      <c r="AE8" s="4">
-        <v>3770</v>
-      </c>
-      <c r="AF8" s="4">
-        <v>5281</v>
-      </c>
-      <c r="AG8" s="4">
-        <v>6793</v>
-      </c>
-      <c r="AH8" s="4">
-        <v>9051</v>
-      </c>
-      <c r="AI8" s="4">
-        <v>1613</v>
-      </c>
-      <c r="AJ8" s="4">
-        <v>1813</v>
-      </c>
-      <c r="AK8" s="4">
-        <v>2712</v>
-      </c>
-      <c r="AL8" s="4">
-        <v>4223</v>
-      </c>
-      <c r="AM8" s="4">
-        <v>4525</v>
-      </c>
-      <c r="AN8" s="4">
-        <v>6037</v>
-      </c>
-      <c r="AO8" s="4"/>
-      <c r="AP8" s="4"/>
-      <c r="AQ8" s="18"/>
+      <c r="A8" s="25">
+        <v>1988</v>
+      </c>
+      <c r="B8" s="26"/>
+      <c r="C8" s="27">
+        <v>2100.15</v>
+      </c>
+      <c r="D8" s="27">
+        <v>1680.3</v>
+      </c>
+      <c r="E8" s="27">
+        <v>1259.8499999999999</v>
+      </c>
+      <c r="F8" s="27">
+        <v>1007.13</v>
+      </c>
+      <c r="G8" s="27">
+        <v>839.78</v>
+      </c>
+      <c r="H8" s="27">
+        <v>672.04</v>
+      </c>
+      <c r="I8" s="27">
+        <v>587.05999999999995</v>
+      </c>
+      <c r="J8" s="27">
+        <v>503.27</v>
+      </c>
+      <c r="K8" s="27">
+        <v>419.4</v>
+      </c>
+      <c r="L8" s="27">
+        <v>0</v>
+      </c>
+      <c r="M8" s="27">
+        <v>335.8</v>
+      </c>
+      <c r="N8" s="27">
+        <v>251.85</v>
+      </c>
+      <c r="O8" s="27">
+        <v>0</v>
+      </c>
+      <c r="P8" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="27">
+        <v>167.9</v>
+      </c>
+      <c r="R8" s="27">
+        <v>83.95</v>
+      </c>
+      <c r="S8" s="27">
+        <v>0</v>
+      </c>
+      <c r="T8" s="27">
+        <v>0</v>
+      </c>
+      <c r="U8" s="27">
+        <v>0</v>
+      </c>
+      <c r="V8" s="27">
+        <v>0</v>
+      </c>
+      <c r="W8" s="27">
+        <v>649.1</v>
+      </c>
+      <c r="X8" s="27">
+        <v>1372.41</v>
+      </c>
+      <c r="Y8" s="27">
+        <v>2160.86</v>
+      </c>
+      <c r="Z8" s="27">
+        <v>3012.11</v>
+      </c>
+      <c r="AA8" s="27">
+        <v>3886.86</v>
+      </c>
+      <c r="AB8" s="27">
+        <v>5172.97</v>
+      </c>
+      <c r="AC8" s="27">
+        <v>851.25</v>
+      </c>
+      <c r="AD8" s="27">
+        <v>1287.79</v>
+      </c>
+      <c r="AE8" s="27">
+        <v>2575.5700000000002</v>
+      </c>
+      <c r="AF8" s="27">
+        <v>3448.65</v>
+      </c>
+      <c r="AG8" s="27">
+        <v>4758.26</v>
+      </c>
+      <c r="AH8" s="27">
+        <v>5609.51</v>
+      </c>
+      <c r="AI8" s="27">
+        <v>649.1</v>
+      </c>
+      <c r="AJ8" s="27">
+        <v>1372.41</v>
+      </c>
+      <c r="AK8" s="27">
+        <v>2160.86</v>
+      </c>
+      <c r="AL8" s="27">
+        <v>3012.11</v>
+      </c>
+      <c r="AM8" s="27">
+        <v>3886.86</v>
+      </c>
+      <c r="AN8" s="27">
+        <v>5172.97</v>
+      </c>
+      <c r="AO8" s="27">
+        <v>18.510000000000002</v>
+      </c>
+      <c r="AP8" s="27">
+        <v>834.11</v>
+      </c>
+      <c r="AQ8" s="27">
+        <v>19.38</v>
+      </c>
     </row>
     <row r="9" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
-        <v>1990</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+        <v>1989</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1351</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1049</v>
+      </c>
+      <c r="E9" s="4">
+        <v>755</v>
+      </c>
+      <c r="F9" s="4">
+        <v>604</v>
+      </c>
+      <c r="G9" s="4">
+        <v>453</v>
+      </c>
+      <c r="H9" s="4">
+        <v>373</v>
+      </c>
+      <c r="I9" s="4">
+        <v>302</v>
+      </c>
       <c r="J9" s="4">
-        <v>111.17</v>
-      </c>
-      <c r="K9" s="4"/>
+        <v>222</v>
+      </c>
+      <c r="K9" s="4">
+        <v>177</v>
+      </c>
       <c r="L9" s="4">
         <v>0</v>
       </c>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
+      <c r="M9" s="4">
+        <v>151</v>
+      </c>
+      <c r="N9" s="4">
+        <v>133</v>
+      </c>
       <c r="O9" s="4">
         <v>0</v>
       </c>
       <c r="P9" s="4">
         <v>0</v>
       </c>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
+      <c r="Q9" s="4">
+        <v>106</v>
+      </c>
+      <c r="R9" s="4">
+        <v>71</v>
+      </c>
       <c r="S9" s="4">
         <v>0</v>
       </c>
@@ -2266,33 +2313,67 @@
       <c r="V9" s="4">
         <v>0</v>
       </c>
-      <c r="W9" s="4"/>
+      <c r="W9" s="4">
+        <v>1511</v>
+      </c>
       <c r="X9" s="4">
-        <v>461.74</v>
-      </c>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="4"/>
-      <c r="AE9" s="4"/>
-      <c r="AF9" s="4"/>
-      <c r="AG9" s="4"/>
-      <c r="AH9" s="4"/>
-      <c r="AI9" s="4"/>
-      <c r="AJ9" s="4"/>
-      <c r="AK9" s="4"/>
-      <c r="AL9" s="4"/>
-      <c r="AM9" s="4"/>
-      <c r="AN9" s="4"/>
+        <v>2107</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>3014</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>4524</v>
+      </c>
+      <c r="AA9" s="4">
+        <v>6037</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>8296</v>
+      </c>
+      <c r="AC9" s="4">
+        <v>1813</v>
+      </c>
+      <c r="AD9" s="4">
+        <v>2258</v>
+      </c>
+      <c r="AE9" s="4">
+        <v>3770</v>
+      </c>
+      <c r="AF9" s="4">
+        <v>5281</v>
+      </c>
+      <c r="AG9" s="4">
+        <v>6793</v>
+      </c>
+      <c r="AH9" s="4">
+        <v>9051</v>
+      </c>
+      <c r="AI9" s="4">
+        <v>1613</v>
+      </c>
+      <c r="AJ9" s="4">
+        <v>1813</v>
+      </c>
+      <c r="AK9" s="4">
+        <v>2712</v>
+      </c>
+      <c r="AL9" s="4">
+        <v>4223</v>
+      </c>
+      <c r="AM9" s="4">
+        <v>4525</v>
+      </c>
+      <c r="AN9" s="4">
+        <v>6037</v>
+      </c>
       <c r="AO9" s="4"/>
       <c r="AP9" s="4"/>
       <c r="AQ9" s="18"/>
     </row>
     <row r="10" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -2301,7 +2382,9 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="J10" s="4">
+        <v>111.17</v>
+      </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4">
         <v>0</v>
@@ -2329,7 +2412,9 @@
         <v>0</v>
       </c>
       <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
+      <c r="X10" s="4">
+        <v>461.74</v>
+      </c>
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
       <c r="AA10" s="4"/>
@@ -2352,44 +2437,22 @@
     </row>
     <row r="11" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
-        <v>1992</v>
-      </c>
-      <c r="C11" s="4">
-        <v>45725.39</v>
-      </c>
-      <c r="D11" s="4">
-        <v>36583.199999999997</v>
-      </c>
-      <c r="E11" s="4">
-        <v>27430.19</v>
-      </c>
-      <c r="F11" s="4">
-        <v>21927.23</v>
-      </c>
-      <c r="G11" s="4">
-        <v>18284.400000000001</v>
-      </c>
-      <c r="H11" s="4">
-        <v>14632.56</v>
-      </c>
-      <c r="I11" s="4">
-        <v>12781.43</v>
-      </c>
-      <c r="J11" s="4">
-        <v>10957.31</v>
-      </c>
-      <c r="K11" s="4">
-        <v>9131.39</v>
-      </c>
+        <v>1991</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
       <c r="L11" s="4">
         <v>0</v>
       </c>
-      <c r="M11" s="4">
-        <v>7278.46</v>
-      </c>
-      <c r="N11" s="4">
-        <v>7118.2</v>
-      </c>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
       <c r="O11" s="4">
         <v>0</v>
       </c>
@@ -2410,15 +2473,9 @@
       <c r="V11" s="4">
         <v>0</v>
       </c>
-      <c r="W11" s="4">
-        <v>20479.46</v>
-      </c>
-      <c r="X11" s="4">
-        <v>45509.31</v>
-      </c>
-      <c r="Y11" s="4">
-        <v>0</v>
-      </c>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
@@ -2440,43 +2497,43 @@
     </row>
     <row r="12" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="C12" s="4">
-        <v>275000</v>
+        <v>45725.39</v>
       </c>
       <c r="D12" s="4">
-        <v>220000</v>
+        <v>36583.199999999997</v>
       </c>
       <c r="E12" s="4">
-        <v>165000</v>
+        <v>27430.19</v>
       </c>
       <c r="F12" s="4">
-        <v>132000</v>
+        <v>21927.23</v>
       </c>
       <c r="G12" s="4">
-        <v>110000</v>
+        <v>18284.400000000001</v>
       </c>
       <c r="H12" s="4">
-        <v>88000</v>
+        <v>14632.56</v>
       </c>
       <c r="I12" s="4">
-        <v>77000</v>
+        <v>12781.43</v>
       </c>
       <c r="J12" s="4">
-        <v>66000</v>
+        <v>10957.31</v>
       </c>
       <c r="K12" s="4">
-        <v>55000</v>
+        <v>9131.39</v>
       </c>
       <c r="L12" s="4">
         <v>0</v>
       </c>
       <c r="M12" s="4">
-        <v>44000</v>
+        <v>7278.46</v>
       </c>
       <c r="N12" s="4">
-        <v>33000</v>
+        <v>7118.2</v>
       </c>
       <c r="O12" s="4">
         <v>0</v>
@@ -2484,12 +2541,8 @@
       <c r="P12" s="4">
         <v>0</v>
       </c>
-      <c r="Q12" s="4">
-        <v>22000</v>
-      </c>
-      <c r="R12" s="4">
-        <v>11000</v>
-      </c>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
       <c r="S12" s="4">
         <v>0</v>
       </c>
@@ -2503,102 +2556,72 @@
         <v>0</v>
       </c>
       <c r="W12" s="4">
-        <v>85052</v>
+        <v>20479.46</v>
       </c>
       <c r="X12" s="4">
-        <v>179828</v>
+        <v>45509.31</v>
       </c>
       <c r="Y12" s="4">
-        <v>283140</v>
-      </c>
-      <c r="Z12" s="4">
-        <v>394680</v>
-      </c>
-      <c r="AA12" s="4">
-        <v>509300</v>
-      </c>
-      <c r="AB12" s="4">
-        <v>677820</v>
-      </c>
-      <c r="AC12" s="4">
-        <v>111540</v>
-      </c>
-      <c r="AD12" s="4">
-        <v>168740</v>
-      </c>
-      <c r="AE12" s="4">
-        <v>337480</v>
-      </c>
-      <c r="AF12" s="4">
-        <v>451880</v>
-      </c>
-      <c r="AG12" s="4">
-        <v>623480</v>
-      </c>
-      <c r="AH12" s="4">
-        <v>735020</v>
-      </c>
-      <c r="AI12" s="4">
-        <v>85052</v>
-      </c>
-      <c r="AJ12" s="4">
-        <v>179828</v>
-      </c>
-      <c r="AK12" s="4">
-        <v>283140</v>
-      </c>
-      <c r="AL12" s="4">
-        <v>394680</v>
-      </c>
-      <c r="AM12" s="4">
-        <v>509300</v>
-      </c>
-      <c r="AN12" s="4">
-        <v>677820</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="4"/>
+      <c r="AL12" s="4"/>
+      <c r="AM12" s="4"/>
+      <c r="AN12" s="4"/>
       <c r="AO12" s="4"/>
       <c r="AP12" s="4"/>
       <c r="AQ12" s="18"/>
     </row>
     <row r="13" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="C13" s="4">
-        <v>8087</v>
+        <v>275000</v>
       </c>
       <c r="D13" s="4">
-        <v>6470</v>
+        <v>220000</v>
       </c>
       <c r="E13" s="4">
-        <v>4852</v>
+        <v>165000</v>
       </c>
       <c r="F13" s="4">
-        <v>3880</v>
+        <v>132000</v>
       </c>
       <c r="G13" s="4">
-        <v>3235</v>
+        <v>110000</v>
       </c>
       <c r="H13" s="4">
-        <v>2588</v>
+        <v>88000</v>
       </c>
       <c r="I13" s="4">
-        <v>2260</v>
+        <v>77000</v>
       </c>
       <c r="J13" s="4">
-        <v>1940</v>
+        <v>66000</v>
       </c>
       <c r="K13" s="4">
-        <v>1617</v>
+        <v>55000</v>
       </c>
       <c r="L13" s="4">
         <v>0</v>
       </c>
       <c r="M13" s="4">
-        <v>1290</v>
+        <v>44000</v>
       </c>
       <c r="N13" s="4">
-        <v>970</v>
+        <v>33000</v>
       </c>
       <c r="O13" s="4">
         <v>0</v>
@@ -2607,10 +2630,10 @@
         <v>0</v>
       </c>
       <c r="Q13" s="4">
-        <v>647</v>
+        <v>22000</v>
       </c>
       <c r="R13" s="4">
-        <v>323</v>
+        <v>11000</v>
       </c>
       <c r="S13" s="4">
         <v>0</v>
@@ -2625,58 +2648,58 @@
         <v>0</v>
       </c>
       <c r="W13" s="4">
-        <v>2500</v>
+        <v>85052</v>
       </c>
       <c r="X13" s="4">
-        <v>5280</v>
+        <v>179828</v>
       </c>
       <c r="Y13" s="4">
-        <v>8320</v>
+        <v>283140</v>
       </c>
       <c r="Z13" s="4">
-        <v>11600</v>
+        <v>394680</v>
       </c>
       <c r="AA13" s="4">
-        <v>14970</v>
+        <v>509300</v>
       </c>
       <c r="AB13" s="4">
-        <v>19930</v>
+        <v>677820</v>
       </c>
       <c r="AC13" s="4">
-        <v>3280</v>
+        <v>111540</v>
       </c>
       <c r="AD13" s="4">
-        <v>4960</v>
+        <v>168740</v>
       </c>
       <c r="AE13" s="4">
-        <v>9920</v>
+        <v>337480</v>
       </c>
       <c r="AF13" s="4">
-        <v>13290</v>
+        <v>451880</v>
       </c>
       <c r="AG13" s="4">
-        <v>18330</v>
+        <v>623480</v>
       </c>
       <c r="AH13" s="4">
-        <v>21600</v>
+        <v>735020</v>
       </c>
       <c r="AI13" s="4">
-        <v>2500</v>
+        <v>85052</v>
       </c>
       <c r="AJ13" s="4">
-        <v>5280</v>
+        <v>179828</v>
       </c>
       <c r="AK13" s="4">
-        <v>8320</v>
+        <v>283140</v>
       </c>
       <c r="AL13" s="4">
-        <v>11600</v>
+        <v>394680</v>
       </c>
       <c r="AM13" s="4">
-        <v>14970</v>
+        <v>509300</v>
       </c>
       <c r="AN13" s="4">
-        <v>19930</v>
+        <v>677820</v>
       </c>
       <c r="AO13" s="4"/>
       <c r="AP13" s="4"/>
@@ -2684,43 +2707,43 @@
     </row>
     <row r="14" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="C14" s="4">
-        <v>45.94</v>
+        <v>8087</v>
       </c>
       <c r="D14" s="4">
-        <v>38.97</v>
+        <v>6470</v>
       </c>
       <c r="E14" s="4">
-        <v>27.56</v>
+        <v>4852</v>
       </c>
       <c r="F14" s="4">
-        <v>22.04</v>
+        <v>3880</v>
       </c>
       <c r="G14" s="4">
-        <v>18.38</v>
+        <v>3235</v>
       </c>
       <c r="H14" s="4">
-        <v>14.7</v>
+        <v>2588</v>
       </c>
       <c r="I14" s="4">
-        <v>12.84</v>
+        <v>2260</v>
       </c>
       <c r="J14" s="4">
-        <v>11.02</v>
+        <v>1940</v>
       </c>
       <c r="K14" s="4">
-        <v>9.18</v>
+        <v>1617</v>
       </c>
       <c r="L14" s="4">
         <v>0</v>
       </c>
       <c r="M14" s="4">
-        <v>7.33</v>
+        <v>1290</v>
       </c>
       <c r="N14" s="4">
-        <v>5.51</v>
+        <v>970</v>
       </c>
       <c r="O14" s="4">
         <v>0</v>
@@ -2729,10 +2752,10 @@
         <v>0</v>
       </c>
       <c r="Q14" s="4">
-        <v>3.68</v>
+        <v>647</v>
       </c>
       <c r="R14" s="4">
-        <v>1.83</v>
+        <v>323</v>
       </c>
       <c r="S14" s="4">
         <v>0</v>
@@ -2747,58 +2770,58 @@
         <v>0</v>
       </c>
       <c r="W14" s="4">
-        <v>14.2</v>
+        <v>2500</v>
       </c>
       <c r="X14" s="4">
-        <v>29.99</v>
+        <v>5280</v>
       </c>
       <c r="Y14" s="4">
-        <v>47.26</v>
+        <v>8320</v>
       </c>
       <c r="Z14" s="4">
-        <v>65.89</v>
+        <v>11600</v>
       </c>
       <c r="AA14" s="4">
-        <v>85.03</v>
+        <v>14970</v>
       </c>
       <c r="AB14" s="4">
-        <v>113.21</v>
+        <v>19930</v>
       </c>
       <c r="AC14" s="4">
-        <v>18.63</v>
+        <v>3280</v>
       </c>
       <c r="AD14" s="4">
-        <v>28.17</v>
+        <v>4960</v>
       </c>
       <c r="AE14" s="4">
-        <v>56.35</v>
+        <v>9920</v>
       </c>
       <c r="AF14" s="4">
-        <v>75.489999999999995</v>
+        <v>13290</v>
       </c>
       <c r="AG14" s="4">
-        <v>102.72</v>
+        <v>18330</v>
       </c>
       <c r="AH14" s="4">
-        <v>122.54</v>
+        <v>21600</v>
       </c>
       <c r="AI14" s="4">
-        <v>14.2</v>
+        <v>2500</v>
       </c>
       <c r="AJ14" s="4">
-        <v>29.99</v>
+        <v>5280</v>
       </c>
       <c r="AK14" s="4">
-        <v>47.26</v>
+        <v>8320</v>
       </c>
       <c r="AL14" s="4">
-        <v>65.89</v>
+        <v>11600</v>
       </c>
       <c r="AM14" s="4">
-        <v>85.03</v>
+        <v>14970</v>
       </c>
       <c r="AN14" s="4">
-        <v>113.21</v>
+        <v>19930</v>
       </c>
       <c r="AO14" s="4"/>
       <c r="AP14" s="4"/>
@@ -2806,43 +2829,43 @@
     </row>
     <row r="15" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="C15" s="4">
-        <v>46.82</v>
+        <v>45.94</v>
       </c>
       <c r="D15" s="4">
-        <v>37.450000000000003</v>
+        <v>38.97</v>
       </c>
       <c r="E15" s="4">
-        <v>28.09</v>
+        <v>27.56</v>
       </c>
       <c r="F15" s="4">
-        <v>22.46</v>
+        <v>22.04</v>
       </c>
       <c r="G15" s="4">
-        <v>18.73</v>
+        <v>18.38</v>
       </c>
       <c r="H15" s="4">
-        <v>14.98</v>
+        <v>14.7</v>
       </c>
       <c r="I15" s="4">
-        <v>13.09</v>
+        <v>12.84</v>
       </c>
       <c r="J15" s="4">
-        <v>11.23</v>
+        <v>11.02</v>
       </c>
       <c r="K15" s="4">
-        <v>9.36</v>
+        <v>9.18</v>
       </c>
       <c r="L15" s="4">
         <v>0</v>
       </c>
       <c r="M15" s="4">
-        <v>7.47</v>
+        <v>7.33</v>
       </c>
       <c r="N15" s="4">
-        <v>5.62</v>
+        <v>5.51</v>
       </c>
       <c r="O15" s="4">
         <v>0</v>
@@ -2851,10 +2874,10 @@
         <v>0</v>
       </c>
       <c r="Q15" s="4">
-        <v>3.75</v>
+        <v>3.68</v>
       </c>
       <c r="R15" s="4">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="S15" s="4">
         <v>0</v>
@@ -2869,58 +2892,58 @@
         <v>0</v>
       </c>
       <c r="W15" s="4">
-        <v>14.47</v>
+        <v>14.2</v>
       </c>
       <c r="X15" s="4">
-        <v>30.56</v>
+        <v>29.99</v>
       </c>
       <c r="Y15" s="4">
-        <v>48.16</v>
+        <v>47.26</v>
       </c>
       <c r="Z15" s="4">
-        <v>67.150000000000006</v>
+        <v>65.89</v>
       </c>
       <c r="AA15" s="4">
-        <v>86.65</v>
+        <v>85.03</v>
       </c>
       <c r="AB15" s="4">
-        <v>115.37</v>
+        <v>113.21</v>
       </c>
       <c r="AC15" s="4">
-        <v>18.989999999999998</v>
+        <v>18.63</v>
       </c>
       <c r="AD15" s="4">
-        <v>28.71</v>
+        <v>28.17</v>
       </c>
       <c r="AE15" s="4">
-        <v>57.43</v>
+        <v>56.35</v>
       </c>
       <c r="AF15" s="4">
-        <v>76.930000000000007</v>
+        <v>75.489999999999995</v>
       </c>
       <c r="AG15" s="4">
-        <v>106.11</v>
+        <v>102.72</v>
       </c>
       <c r="AH15" s="4">
-        <v>125.03</v>
+        <v>122.54</v>
       </c>
       <c r="AI15" s="4">
-        <v>14.47</v>
+        <v>14.2</v>
       </c>
       <c r="AJ15" s="4">
-        <v>30.56</v>
+        <v>29.99</v>
       </c>
       <c r="AK15" s="4">
-        <v>48.16</v>
+        <v>47.26</v>
       </c>
       <c r="AL15" s="4">
-        <v>67.150000000000006</v>
+        <v>65.89</v>
       </c>
       <c r="AM15" s="4">
-        <v>86.65</v>
+        <v>85.03</v>
       </c>
       <c r="AN15" s="4">
-        <v>115.37</v>
+        <v>113.21</v>
       </c>
       <c r="AO15" s="4"/>
       <c r="AP15" s="4"/>
@@ -2928,43 +2951,43 @@
     </row>
     <row r="16" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="C16" s="4">
-        <v>52.08</v>
+        <v>46.82</v>
       </c>
       <c r="D16" s="4">
-        <v>41.66</v>
+        <v>37.450000000000003</v>
       </c>
       <c r="E16" s="4">
-        <v>31.24</v>
+        <v>28.09</v>
       </c>
       <c r="F16" s="4">
-        <v>24.98</v>
+        <v>22.46</v>
       </c>
       <c r="G16" s="4">
-        <v>20.83</v>
+        <v>18.73</v>
       </c>
       <c r="H16" s="4">
-        <v>13.25</v>
+        <v>14.98</v>
       </c>
       <c r="I16" s="4">
-        <v>14.56</v>
+        <v>13.09</v>
       </c>
       <c r="J16" s="4">
-        <v>12.49</v>
+        <v>11.23</v>
       </c>
       <c r="K16" s="4">
-        <v>10.41</v>
+        <v>9.36</v>
       </c>
       <c r="L16" s="4">
         <v>0</v>
       </c>
       <c r="M16" s="4">
-        <v>8.2899999999999991</v>
+        <v>7.47</v>
       </c>
       <c r="N16" s="4">
-        <v>6.24</v>
+        <v>5.62</v>
       </c>
       <c r="O16" s="4">
         <v>0</v>
@@ -2973,10 +2996,10 @@
         <v>0</v>
       </c>
       <c r="Q16" s="4">
-        <v>4.16</v>
+        <v>3.75</v>
       </c>
       <c r="R16" s="4">
-        <v>2.06</v>
+        <v>1.86</v>
       </c>
       <c r="S16" s="4">
         <v>0</v>
@@ -2991,58 +3014,58 @@
         <v>0</v>
       </c>
       <c r="W16" s="4">
-        <v>16.09</v>
+        <v>14.47</v>
       </c>
       <c r="X16" s="4">
-        <v>33.99</v>
+        <v>30.56</v>
       </c>
       <c r="Y16" s="4">
-        <v>53.57</v>
+        <v>48.16</v>
       </c>
       <c r="Z16" s="4">
-        <v>74.7</v>
+        <v>67.150000000000006</v>
       </c>
       <c r="AA16" s="4">
-        <v>96.39</v>
+        <v>86.65</v>
       </c>
       <c r="AB16" s="4">
-        <v>128.35</v>
+        <v>115.37</v>
       </c>
       <c r="AC16" s="4">
-        <v>21.12</v>
+        <v>18.989999999999998</v>
       </c>
       <c r="AD16" s="4">
-        <v>31.93</v>
+        <v>28.71</v>
       </c>
       <c r="AE16" s="4">
-        <v>63.89</v>
+        <v>57.43</v>
       </c>
       <c r="AF16" s="4">
-        <v>85.58</v>
+        <v>76.930000000000007</v>
       </c>
       <c r="AG16" s="4">
-        <v>118.04</v>
+        <v>106.11</v>
       </c>
       <c r="AH16" s="4">
-        <v>139.1</v>
+        <v>125.03</v>
       </c>
       <c r="AI16" s="4">
-        <v>16.09</v>
+        <v>14.47</v>
       </c>
       <c r="AJ16" s="4">
-        <v>33.99</v>
+        <v>30.56</v>
       </c>
       <c r="AK16" s="4">
-        <v>53.57</v>
+        <v>48.16</v>
       </c>
       <c r="AL16" s="4">
-        <v>74.7</v>
+        <v>67.150000000000006</v>
       </c>
       <c r="AM16" s="4">
-        <v>96.39</v>
+        <v>86.65</v>
       </c>
       <c r="AN16" s="4">
-        <v>128.35</v>
+        <v>115.37</v>
       </c>
       <c r="AO16" s="4"/>
       <c r="AP16" s="4"/>
@@ -3050,7 +3073,7 @@
     </row>
     <row r="17" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="C17" s="4">
         <v>52.08</v>
@@ -3172,43 +3195,43 @@
     </row>
     <row r="18" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="C18" s="4">
-        <v>57.39</v>
+        <v>52.08</v>
       </c>
       <c r="D18" s="4">
-        <v>45.92</v>
+        <v>41.66</v>
       </c>
       <c r="E18" s="4">
-        <v>34.43</v>
+        <v>31.24</v>
       </c>
       <c r="F18" s="4">
-        <v>27.53</v>
+        <v>24.98</v>
       </c>
       <c r="G18" s="4">
-        <v>22.95</v>
+        <v>20.83</v>
       </c>
       <c r="H18" s="4">
-        <v>18.37</v>
+        <v>13.25</v>
       </c>
       <c r="I18" s="4">
-        <v>16.04</v>
+        <v>14.56</v>
       </c>
       <c r="J18" s="4">
-        <v>13.76</v>
+        <v>12.49</v>
       </c>
       <c r="K18" s="4">
-        <v>11.47</v>
+        <v>10.41</v>
       </c>
       <c r="L18" s="4">
         <v>0</v>
       </c>
       <c r="M18" s="4">
-        <v>9.14</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="N18" s="4">
-        <v>6.88</v>
+        <v>6.24</v>
       </c>
       <c r="O18" s="4">
         <v>0</v>
@@ -3217,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="Q18" s="4">
-        <v>4.5999999999999996</v>
+        <v>4.16</v>
       </c>
       <c r="R18" s="4">
-        <v>2.2799999999999998</v>
+        <v>2.06</v>
       </c>
       <c r="S18" s="4">
         <v>0</v>
@@ -3235,58 +3258,58 @@
         <v>0</v>
       </c>
       <c r="W18" s="4">
-        <v>17.739999999999998</v>
+        <v>16.09</v>
       </c>
       <c r="X18" s="4">
-        <v>37.47</v>
+        <v>33.99</v>
       </c>
       <c r="Y18" s="4">
-        <v>59.04</v>
+        <v>53.57</v>
       </c>
       <c r="Z18" s="4">
-        <v>82.33</v>
+        <v>74.7</v>
       </c>
       <c r="AA18" s="4">
-        <v>106.24</v>
+        <v>96.39</v>
       </c>
       <c r="AB18" s="4">
-        <v>141.44999999999999</v>
+        <v>128.35</v>
       </c>
       <c r="AC18" s="4">
-        <v>23.28</v>
+        <v>21.12</v>
       </c>
       <c r="AD18" s="4">
-        <v>35.200000000000003</v>
+        <v>31.93</v>
       </c>
       <c r="AE18" s="4">
-        <v>70.900000000000006</v>
+        <v>63.89</v>
       </c>
       <c r="AF18" s="4">
-        <v>94.32</v>
+        <v>85.58</v>
       </c>
       <c r="AG18" s="4">
-        <v>130.1</v>
+        <v>118.04</v>
       </c>
       <c r="AH18" s="4">
-        <v>153.28</v>
+        <v>139.1</v>
       </c>
       <c r="AI18" s="4">
-        <v>17.739999999999998</v>
+        <v>16.09</v>
       </c>
       <c r="AJ18" s="4">
-        <v>37.47</v>
+        <v>33.99</v>
       </c>
       <c r="AK18" s="4">
-        <v>59.04</v>
+        <v>53.57</v>
       </c>
       <c r="AL18" s="4">
-        <v>82.33</v>
+        <v>74.7</v>
       </c>
       <c r="AM18" s="4">
-        <v>106.24</v>
+        <v>96.39</v>
       </c>
       <c r="AN18" s="4">
-        <v>141.44999999999999</v>
+        <v>128.35</v>
       </c>
       <c r="AO18" s="4"/>
       <c r="AP18" s="4"/>
@@ -3294,46 +3317,43 @@
     </row>
     <row r="19" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
-        <v>2000</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>57</v>
+        <v>1999</v>
       </c>
       <c r="C19" s="4">
-        <v>65.150000000000006</v>
+        <v>57.39</v>
       </c>
       <c r="D19" s="4">
-        <v>52.13</v>
+        <v>45.92</v>
       </c>
       <c r="E19" s="4">
-        <v>39.08</v>
+        <v>34.43</v>
       </c>
       <c r="F19" s="4">
-        <v>31.25</v>
+        <v>27.53</v>
       </c>
       <c r="G19" s="4">
-        <v>26.05</v>
+        <v>22.95</v>
       </c>
       <c r="H19" s="4">
-        <v>20.85</v>
+        <v>18.37</v>
       </c>
       <c r="I19" s="4">
-        <v>18.21</v>
+        <v>16.04</v>
       </c>
       <c r="J19" s="4">
-        <v>15.62</v>
+        <v>13.76</v>
       </c>
       <c r="K19" s="4">
-        <v>13.02</v>
+        <v>11.47</v>
       </c>
       <c r="L19" s="4">
         <v>0</v>
       </c>
       <c r="M19" s="4">
-        <v>10.38</v>
+        <v>9.14</v>
       </c>
       <c r="N19" s="4">
-        <v>7.81</v>
+        <v>6.88</v>
       </c>
       <c r="O19" s="4">
         <v>0</v>
@@ -3342,10 +3362,10 @@
         <v>0</v>
       </c>
       <c r="Q19" s="4">
-        <v>5.22</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="R19" s="4">
-        <v>2.59</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="S19" s="4">
         <v>0</v>
@@ -3360,58 +3380,58 @@
         <v>0</v>
       </c>
       <c r="W19" s="4">
-        <v>20.14</v>
+        <v>17.739999999999998</v>
       </c>
       <c r="X19" s="4">
-        <v>42.54</v>
+        <v>37.47</v>
       </c>
       <c r="Y19" s="4">
-        <v>67.02</v>
+        <v>59.04</v>
       </c>
       <c r="Z19" s="4">
-        <v>93.46</v>
+        <v>82.33</v>
       </c>
       <c r="AA19" s="4">
-        <v>120.6</v>
+        <v>106.24</v>
       </c>
       <c r="AB19" s="4">
-        <v>160.57</v>
+        <v>141.44999999999999</v>
       </c>
       <c r="AC19" s="4">
-        <v>26.43</v>
+        <v>23.28</v>
       </c>
       <c r="AD19" s="4">
-        <v>39.96</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="AE19" s="4">
-        <v>79.92</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="AF19" s="4">
-        <v>107.07</v>
+        <v>94.32</v>
       </c>
       <c r="AG19" s="4">
-        <v>147.69</v>
+        <v>130.1</v>
       </c>
       <c r="AH19" s="4">
-        <v>174</v>
+        <v>153.28</v>
       </c>
       <c r="AI19" s="4">
-        <v>20.14</v>
+        <v>17.739999999999998</v>
       </c>
       <c r="AJ19" s="4">
-        <v>42.54</v>
+        <v>37.47</v>
       </c>
       <c r="AK19" s="4">
-        <v>67.02</v>
+        <v>59.04</v>
       </c>
       <c r="AL19" s="4">
-        <v>93.46</v>
+        <v>82.33</v>
       </c>
       <c r="AM19" s="4">
-        <v>120.6</v>
+        <v>106.24</v>
       </c>
       <c r="AN19" s="4">
-        <v>160.57</v>
+        <v>141.44999999999999</v>
       </c>
       <c r="AO19" s="4"/>
       <c r="AP19" s="4"/>
@@ -3419,46 +3439,46 @@
     </row>
     <row r="20" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" s="4">
-        <v>73.62</v>
+        <v>65.150000000000006</v>
       </c>
       <c r="D20" s="4">
-        <v>58.91</v>
+        <v>52.13</v>
       </c>
       <c r="E20" s="4">
-        <v>44.16</v>
+        <v>39.08</v>
       </c>
       <c r="F20" s="4">
-        <v>35.31</v>
+        <v>31.25</v>
       </c>
       <c r="G20" s="4">
-        <v>29.44</v>
+        <v>26.05</v>
       </c>
       <c r="H20" s="4">
-        <v>23.56</v>
+        <v>20.85</v>
       </c>
       <c r="I20" s="4">
-        <v>20.58</v>
+        <v>18.21</v>
       </c>
       <c r="J20" s="4">
-        <v>17.649999999999999</v>
+        <v>15.62</v>
       </c>
       <c r="K20" s="4">
-        <v>14.71</v>
+        <v>13.02</v>
       </c>
       <c r="L20" s="4">
         <v>0</v>
       </c>
       <c r="M20" s="4">
-        <v>11.73</v>
+        <v>10.38</v>
       </c>
       <c r="N20" s="4">
-        <v>8.83</v>
+        <v>7.81</v>
       </c>
       <c r="O20" s="4">
         <v>0</v>
@@ -3467,10 +3487,10 @@
         <v>0</v>
       </c>
       <c r="Q20" s="4">
-        <v>5.9</v>
+        <v>5.22</v>
       </c>
       <c r="R20" s="4">
-        <v>2.93</v>
+        <v>2.59</v>
       </c>
       <c r="S20" s="4">
         <v>0</v>
@@ -3485,58 +3505,58 @@
         <v>0</v>
       </c>
       <c r="W20" s="4">
-        <v>22.76</v>
+        <v>20.14</v>
       </c>
       <c r="X20" s="4">
-        <v>48.07</v>
+        <v>42.54</v>
       </c>
       <c r="Y20" s="4">
-        <v>75.73</v>
+        <v>67.02</v>
       </c>
       <c r="Z20" s="4">
-        <v>105.61</v>
+        <v>93.46</v>
       </c>
       <c r="AA20" s="4">
-        <v>136.28</v>
+        <v>120.6</v>
       </c>
       <c r="AB20" s="4">
-        <v>181.44</v>
+        <v>160.57</v>
       </c>
       <c r="AC20" s="4">
-        <v>29.87</v>
+        <v>26.43</v>
       </c>
       <c r="AD20" s="4">
-        <v>45.15</v>
+        <v>39.96</v>
       </c>
       <c r="AE20" s="4">
-        <v>90.31</v>
+        <v>79.92</v>
       </c>
       <c r="AF20" s="4">
-        <v>120.99</v>
+        <v>107.07</v>
       </c>
       <c r="AG20" s="4">
-        <v>166.89</v>
+        <v>147.69</v>
       </c>
       <c r="AH20" s="4">
-        <v>196.62</v>
+        <v>174</v>
       </c>
       <c r="AI20" s="4">
-        <v>22.76</v>
+        <v>20.14</v>
       </c>
       <c r="AJ20" s="4">
-        <v>48.07</v>
+        <v>42.54</v>
       </c>
       <c r="AK20" s="4">
-        <v>75.73</v>
+        <v>67.02</v>
       </c>
       <c r="AL20" s="4">
-        <v>105.61</v>
+        <v>93.46</v>
       </c>
       <c r="AM20" s="4">
-        <v>136.28</v>
+        <v>120.6</v>
       </c>
       <c r="AN20" s="4">
-        <v>181.44</v>
+        <v>160.57</v>
       </c>
       <c r="AO20" s="4"/>
       <c r="AP20" s="4"/>
@@ -3544,46 +3564,46 @@
     </row>
     <row r="21" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" s="4">
-        <v>80.989999999999995</v>
+        <v>73.62</v>
       </c>
       <c r="D21" s="4">
-        <v>64.81</v>
+        <v>58.91</v>
       </c>
       <c r="E21" s="4">
-        <v>48.58</v>
+        <v>44.16</v>
       </c>
       <c r="F21" s="4">
-        <v>38.840000000000003</v>
+        <v>35.31</v>
       </c>
       <c r="G21" s="4">
-        <v>32.39</v>
+        <v>29.44</v>
       </c>
       <c r="H21" s="4">
-        <v>25.92</v>
+        <v>23.56</v>
       </c>
       <c r="I21" s="4">
-        <v>22.64</v>
+        <v>20.58</v>
       </c>
       <c r="J21" s="4">
-        <v>19.420000000000002</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="K21" s="4">
-        <v>16.18</v>
+        <v>14.71</v>
       </c>
       <c r="L21" s="4">
         <v>0</v>
       </c>
       <c r="M21" s="4">
-        <v>12.9</v>
+        <v>11.73</v>
       </c>
       <c r="N21" s="4">
-        <v>9.7100000000000009</v>
+        <v>8.83</v>
       </c>
       <c r="O21" s="4">
         <v>0</v>
@@ -3592,10 +3612,10 @@
         <v>0</v>
       </c>
       <c r="Q21" s="4">
-        <v>6.49</v>
+        <v>5.9</v>
       </c>
       <c r="R21" s="4">
-        <v>3.22</v>
+        <v>2.93</v>
       </c>
       <c r="S21" s="4">
         <v>0</v>
@@ -3610,58 +3630,58 @@
         <v>0</v>
       </c>
       <c r="W21" s="4">
-        <v>25.04</v>
+        <v>22.76</v>
       </c>
       <c r="X21" s="4">
-        <v>52.88</v>
+        <v>48.07</v>
       </c>
       <c r="Y21" s="4">
-        <v>83.31</v>
+        <v>75.73</v>
       </c>
       <c r="Z21" s="4">
-        <v>116.18</v>
+        <v>105.61</v>
       </c>
       <c r="AA21" s="4">
-        <v>149.91999999999999</v>
+        <v>136.28</v>
       </c>
       <c r="AB21" s="4">
-        <v>199.6</v>
+        <v>181.44</v>
       </c>
       <c r="AC21" s="4">
-        <v>32.86</v>
+        <v>29.87</v>
       </c>
       <c r="AD21" s="4">
-        <v>49.67</v>
+        <v>45.15</v>
       </c>
       <c r="AE21" s="4">
-        <v>99.35</v>
+        <v>90.31</v>
       </c>
       <c r="AF21" s="4">
-        <v>133.1</v>
+        <v>120.99</v>
       </c>
       <c r="AG21" s="4">
-        <v>183.6</v>
+        <v>166.89</v>
       </c>
       <c r="AH21" s="4">
-        <v>216.3</v>
+        <v>196.62</v>
       </c>
       <c r="AI21" s="4">
-        <v>25.04</v>
+        <v>22.76</v>
       </c>
       <c r="AJ21" s="4">
-        <v>52.88</v>
+        <v>48.07</v>
       </c>
       <c r="AK21" s="4">
-        <v>83.31</v>
+        <v>75.73</v>
       </c>
       <c r="AL21" s="4">
-        <v>116.18</v>
+        <v>105.61</v>
       </c>
       <c r="AM21" s="4">
-        <v>149.91999999999999</v>
+        <v>136.28</v>
       </c>
       <c r="AN21" s="4">
-        <v>199.6</v>
+        <v>181.44</v>
       </c>
       <c r="AO21" s="4"/>
       <c r="AP21" s="4"/>
@@ -3669,58 +3689,58 @@
     </row>
     <row r="22" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C22" s="4">
-        <v>98.04</v>
+        <v>80.989999999999995</v>
       </c>
       <c r="D22" s="4">
-        <v>78.45</v>
+        <v>64.81</v>
       </c>
       <c r="E22" s="4">
-        <v>58.81</v>
+        <v>48.58</v>
       </c>
       <c r="F22" s="4">
-        <v>47.02</v>
+        <v>38.840000000000003</v>
       </c>
       <c r="G22" s="4">
-        <v>39.21</v>
+        <v>32.39</v>
       </c>
       <c r="H22" s="4">
-        <v>31.38</v>
+        <v>25.92</v>
       </c>
       <c r="I22" s="4">
-        <v>27.41</v>
+        <v>22.64</v>
       </c>
       <c r="J22" s="4">
-        <v>23.51</v>
+        <v>19.420000000000002</v>
       </c>
       <c r="K22" s="4">
-        <v>19.59</v>
+        <v>16.18</v>
       </c>
       <c r="L22" s="4">
-        <v>15.773999999999999</v>
+        <v>0</v>
       </c>
       <c r="M22" s="4">
-        <v>15.62</v>
+        <v>12.9</v>
       </c>
       <c r="N22" s="4">
-        <v>11.75</v>
+        <v>9.7100000000000009</v>
       </c>
       <c r="O22" s="4">
-        <v>10.89</v>
+        <v>0</v>
       </c>
       <c r="P22" s="4">
-        <v>9.68</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="4">
-        <v>7.86</v>
+        <v>6.49</v>
       </c>
       <c r="R22" s="4">
-        <v>3.9</v>
+        <v>3.22</v>
       </c>
       <c r="S22" s="4">
         <v>0</v>
@@ -3735,58 +3755,58 @@
         <v>0</v>
       </c>
       <c r="W22" s="4">
-        <v>30.31</v>
+        <v>25.04</v>
       </c>
       <c r="X22" s="4">
-        <v>64.010000000000005</v>
+        <v>52.88</v>
       </c>
       <c r="Y22" s="4">
-        <v>100.85</v>
+        <v>83.31</v>
       </c>
       <c r="Z22" s="4">
-        <v>140.63999999999999</v>
+        <v>116.18</v>
       </c>
       <c r="AA22" s="4">
-        <v>181.48</v>
+        <v>149.91999999999999</v>
       </c>
       <c r="AB22" s="4">
-        <v>241.62</v>
+        <v>199.6</v>
       </c>
       <c r="AC22" s="4">
-        <v>39.78</v>
+        <v>32.86</v>
       </c>
       <c r="AD22" s="4">
-        <v>60.13</v>
+        <v>49.67</v>
       </c>
       <c r="AE22" s="4">
-        <v>120.26</v>
+        <v>99.35</v>
       </c>
       <c r="AF22" s="4">
-        <v>161.12</v>
+        <v>133.1</v>
       </c>
       <c r="AG22" s="4">
-        <v>222.25</v>
+        <v>183.6</v>
       </c>
       <c r="AH22" s="4">
-        <v>261.83</v>
+        <v>216.3</v>
       </c>
       <c r="AI22" s="4">
-        <v>30.31</v>
+        <v>25.04</v>
       </c>
       <c r="AJ22" s="4">
-        <v>64.010000000000005</v>
+        <v>52.88</v>
       </c>
       <c r="AK22" s="4">
-        <v>100.85</v>
+        <v>83.31</v>
       </c>
       <c r="AL22" s="4">
-        <v>140.63999999999999</v>
+        <v>116.18</v>
       </c>
       <c r="AM22" s="4">
-        <v>181.48</v>
+        <v>149.91999999999999</v>
       </c>
       <c r="AN22" s="4">
-        <v>241.62</v>
+        <v>199.6</v>
       </c>
       <c r="AO22" s="4"/>
       <c r="AP22" s="4"/>
@@ -3794,58 +3814,58 @@
     </row>
     <row r="23" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C23" s="4">
-        <v>109.89</v>
+        <v>98.04</v>
       </c>
       <c r="D23" s="4">
-        <v>87.93</v>
+        <v>78.45</v>
       </c>
       <c r="E23" s="4">
-        <v>65.92</v>
+        <v>58.81</v>
       </c>
       <c r="F23" s="4">
-        <v>52.7</v>
+        <v>47.02</v>
       </c>
       <c r="G23" s="4">
-        <v>43.95</v>
+        <v>39.21</v>
       </c>
       <c r="H23" s="4">
-        <v>35.17</v>
+        <v>31.38</v>
       </c>
       <c r="I23" s="4">
-        <v>30.72</v>
+        <v>27.41</v>
       </c>
       <c r="J23" s="4">
-        <v>26.35</v>
+        <v>23.51</v>
       </c>
       <c r="K23" s="4">
-        <v>21.95</v>
+        <v>19.59</v>
       </c>
       <c r="L23" s="4">
-        <v>17.64</v>
+        <v>15.773999999999999</v>
       </c>
       <c r="M23" s="4">
-        <v>17.5</v>
+        <v>15.62</v>
       </c>
       <c r="N23" s="4">
-        <v>13.17</v>
+        <v>11.75</v>
       </c>
       <c r="O23" s="4">
-        <v>12.2</v>
+        <v>10.89</v>
       </c>
       <c r="P23" s="4">
-        <v>10.85</v>
+        <v>9.68</v>
       </c>
       <c r="Q23" s="4">
-        <v>8.81</v>
+        <v>7.86</v>
       </c>
       <c r="R23" s="4">
-        <v>4.37</v>
+        <v>3.9</v>
       </c>
       <c r="S23" s="4">
         <v>0</v>
@@ -3860,58 +3880,58 @@
         <v>0</v>
       </c>
       <c r="W23" s="4">
-        <v>33.97</v>
+        <v>30.31</v>
       </c>
       <c r="X23" s="4">
-        <v>71.739999999999995</v>
+        <v>64.010000000000005</v>
       </c>
       <c r="Y23" s="4">
-        <v>113.04</v>
+        <v>100.85</v>
       </c>
       <c r="Z23" s="4">
-        <v>157.63999999999999</v>
+        <v>140.63999999999999</v>
       </c>
       <c r="AA23" s="4">
-        <v>203.42</v>
+        <v>181.48</v>
       </c>
       <c r="AB23" s="4">
-        <v>270.83</v>
+        <v>241.62</v>
       </c>
       <c r="AC23" s="4">
-        <v>44.58</v>
+        <v>39.78</v>
       </c>
       <c r="AD23" s="4">
-        <v>67.39</v>
+        <v>60.13</v>
       </c>
       <c r="AE23" s="4">
-        <v>134.79</v>
+        <v>120.26</v>
       </c>
       <c r="AF23" s="4">
-        <v>180.59</v>
+        <v>161.12</v>
       </c>
       <c r="AG23" s="4">
-        <v>249.12</v>
+        <v>222.25</v>
       </c>
       <c r="AH23" s="4">
-        <v>293.48</v>
+        <v>261.83</v>
       </c>
       <c r="AI23" s="4">
-        <v>33.97</v>
+        <v>30.31</v>
       </c>
       <c r="AJ23" s="4">
-        <v>71.739999999999995</v>
+        <v>64.010000000000005</v>
       </c>
       <c r="AK23" s="4">
-        <v>113.04</v>
+        <v>100.85</v>
       </c>
       <c r="AL23" s="4">
-        <v>157.63999999999999</v>
+        <v>140.63999999999999</v>
       </c>
       <c r="AM23" s="4">
-        <v>203.42</v>
+        <v>181.48</v>
       </c>
       <c r="AN23" s="4">
-        <v>270.83</v>
+        <v>241.62</v>
       </c>
       <c r="AO23" s="4"/>
       <c r="AP23" s="4"/>
@@ -3919,58 +3939,58 @@
     </row>
     <row r="24" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C24" s="4">
-        <v>122.98</v>
+        <v>109.89</v>
       </c>
       <c r="D24" s="4">
-        <v>98.41</v>
+        <v>87.93</v>
       </c>
       <c r="E24" s="4">
-        <v>73.78</v>
+        <v>65.92</v>
       </c>
       <c r="F24" s="4">
-        <v>58.98</v>
+        <v>52.7</v>
       </c>
       <c r="G24" s="4">
-        <v>49.19</v>
+        <v>43.95</v>
       </c>
       <c r="H24" s="4">
-        <v>39.36</v>
+        <v>35.17</v>
       </c>
       <c r="I24" s="4">
-        <v>34.380000000000003</v>
+        <v>30.72</v>
       </c>
       <c r="J24" s="4">
-        <v>29.49</v>
+        <v>26.35</v>
       </c>
       <c r="K24" s="4">
-        <v>24.57</v>
+        <v>21.95</v>
       </c>
       <c r="L24" s="4">
-        <v>19.739999999999998</v>
+        <v>17.64</v>
       </c>
       <c r="M24" s="4">
-        <v>19.59</v>
+        <v>17.5</v>
       </c>
       <c r="N24" s="4">
-        <v>14.74</v>
+        <v>13.17</v>
       </c>
       <c r="O24" s="4">
-        <v>13.66</v>
+        <v>12.2</v>
       </c>
       <c r="P24" s="4">
-        <v>12.15</v>
+        <v>10.85</v>
       </c>
       <c r="Q24" s="4">
-        <v>9.86</v>
+        <v>8.81</v>
       </c>
       <c r="R24" s="4">
-        <v>4.8899999999999997</v>
+        <v>4.37</v>
       </c>
       <c r="S24" s="4">
         <v>0</v>
@@ -3985,58 +4005,58 @@
         <v>0</v>
       </c>
       <c r="W24" s="4">
-        <v>38.020000000000003</v>
+        <v>33.97</v>
       </c>
       <c r="X24" s="4">
-        <v>80.290000000000006</v>
+        <v>71.739999999999995</v>
       </c>
       <c r="Y24" s="4">
-        <v>126.51</v>
+        <v>113.04</v>
       </c>
       <c r="Z24" s="4">
-        <v>176.42</v>
+        <v>157.63999999999999</v>
       </c>
       <c r="AA24" s="4">
-        <v>227.65</v>
+        <v>203.42</v>
       </c>
       <c r="AB24" s="4">
-        <v>303.08999999999997</v>
+        <v>270.83</v>
       </c>
       <c r="AC24" s="4">
-        <v>49.89</v>
+        <v>44.58</v>
       </c>
       <c r="AD24" s="4">
-        <v>75.42</v>
+        <v>67.39</v>
       </c>
       <c r="AE24" s="4">
-        <v>150.85</v>
+        <v>134.79</v>
       </c>
       <c r="AF24" s="4">
-        <v>202.1</v>
+        <v>180.59</v>
       </c>
       <c r="AG24" s="4">
-        <v>278.79000000000002</v>
+        <v>249.12</v>
       </c>
       <c r="AH24" s="4">
-        <v>328.44</v>
+        <v>293.48</v>
       </c>
       <c r="AI24" s="4">
-        <v>38.020000000000003</v>
+        <v>33.97</v>
       </c>
       <c r="AJ24" s="4">
-        <v>80.290000000000006</v>
+        <v>71.739999999999995</v>
       </c>
       <c r="AK24" s="4">
-        <v>126.51</v>
+        <v>113.04</v>
       </c>
       <c r="AL24" s="4">
-        <v>176.42</v>
+        <v>157.63999999999999</v>
       </c>
       <c r="AM24" s="4">
-        <v>227.65</v>
+        <v>203.42</v>
       </c>
       <c r="AN24" s="4">
-        <v>303.08999999999997</v>
+        <v>270.83</v>
       </c>
       <c r="AO24" s="4"/>
       <c r="AP24" s="4"/>
@@ -4044,58 +4064,58 @@
     </row>
     <row r="25" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C25" s="4">
-        <v>130.75</v>
+        <v>122.98</v>
       </c>
       <c r="D25" s="4">
-        <v>104.63</v>
+        <v>98.41</v>
       </c>
       <c r="E25" s="4">
-        <v>78.44</v>
+        <v>73.78</v>
       </c>
       <c r="F25" s="4">
-        <v>62.71</v>
+        <v>58.98</v>
       </c>
       <c r="G25" s="4">
-        <v>52.3</v>
+        <v>49.19</v>
       </c>
       <c r="H25" s="4">
-        <v>41.85</v>
+        <v>39.36</v>
       </c>
       <c r="I25" s="4">
-        <v>36.549999999999997</v>
+        <v>34.380000000000003</v>
       </c>
       <c r="J25" s="4">
-        <v>31.35</v>
+        <v>29.49</v>
       </c>
       <c r="K25" s="4">
-        <v>26.12</v>
+        <v>24.57</v>
       </c>
       <c r="L25" s="4">
-        <v>20.99</v>
+        <v>19.739999999999998</v>
       </c>
       <c r="M25" s="4">
-        <v>20.83</v>
+        <v>19.59</v>
       </c>
       <c r="N25" s="4">
-        <v>15.67</v>
+        <v>14.74</v>
       </c>
       <c r="O25" s="4">
-        <v>14.52</v>
+        <v>13.66</v>
       </c>
       <c r="P25" s="4">
-        <v>12.92</v>
+        <v>12.15</v>
       </c>
       <c r="Q25" s="4">
-        <v>10.48</v>
+        <v>9.86</v>
       </c>
       <c r="R25" s="4">
-        <v>5.2</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="S25" s="4">
         <v>0</v>
@@ -4110,58 +4130,58 @@
         <v>0</v>
       </c>
       <c r="W25" s="4">
-        <v>40.42</v>
+        <v>38.020000000000003</v>
       </c>
       <c r="X25" s="4">
-        <v>85.36</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="Y25" s="4">
-        <v>134.51</v>
+        <v>126.51</v>
       </c>
       <c r="Z25" s="4">
-        <v>187.57</v>
+        <v>176.42</v>
       </c>
       <c r="AA25" s="4">
-        <v>242.04</v>
+        <v>227.65</v>
       </c>
       <c r="AB25" s="4">
-        <v>322.25</v>
+        <v>303.08999999999997</v>
       </c>
       <c r="AC25" s="4">
-        <v>53.04</v>
+        <v>49.89</v>
       </c>
       <c r="AD25" s="4">
-        <v>80.19</v>
+        <v>75.42</v>
       </c>
       <c r="AE25" s="4">
-        <v>160.38</v>
+        <v>150.85</v>
       </c>
       <c r="AF25" s="4">
-        <v>214.87</v>
+        <v>202.1</v>
       </c>
       <c r="AG25" s="4">
-        <v>296.41000000000003</v>
+        <v>278.79000000000002</v>
       </c>
       <c r="AH25" s="4">
-        <v>349.2</v>
+        <v>328.44</v>
       </c>
       <c r="AI25" s="4">
-        <v>40.42</v>
+        <v>38.020000000000003</v>
       </c>
       <c r="AJ25" s="4">
-        <v>85.36</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="AK25" s="4">
-        <v>134.51</v>
+        <v>126.51</v>
       </c>
       <c r="AL25" s="4">
-        <v>187.57</v>
+        <v>176.42</v>
       </c>
       <c r="AM25" s="4">
-        <v>242.04</v>
+        <v>227.65</v>
       </c>
       <c r="AN25" s="4">
-        <v>322.25</v>
+        <v>303.08999999999997</v>
       </c>
       <c r="AO25" s="4"/>
       <c r="AP25" s="4"/>
@@ -4169,58 +4189,58 @@
     </row>
     <row r="26" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C26" s="4">
-        <v>135.01</v>
+        <v>130.75</v>
       </c>
       <c r="D26" s="4">
-        <v>108.03</v>
+        <v>104.63</v>
       </c>
       <c r="E26" s="4">
-        <v>81</v>
+        <v>78.44</v>
       </c>
       <c r="F26" s="4">
-        <v>64.75</v>
+        <v>62.71</v>
       </c>
       <c r="G26" s="4">
-        <v>53.99</v>
+        <v>52.3</v>
       </c>
       <c r="H26" s="4">
-        <v>43.21</v>
+        <v>41.85</v>
       </c>
       <c r="I26" s="4">
-        <v>37.74</v>
+        <v>36.549999999999997</v>
       </c>
       <c r="J26" s="4">
-        <v>32.369999999999997</v>
+        <v>31.35</v>
       </c>
       <c r="K26" s="4">
-        <v>26.97</v>
+        <v>26.12</v>
       </c>
       <c r="L26" s="4">
-        <v>21.67</v>
+        <v>20.99</v>
       </c>
       <c r="M26" s="4">
-        <v>21.5</v>
+        <v>20.83</v>
       </c>
       <c r="N26" s="4">
-        <v>16.170000000000002</v>
+        <v>15.67</v>
       </c>
       <c r="O26" s="4">
-        <v>14.99</v>
+        <v>14.52</v>
       </c>
       <c r="P26" s="4">
-        <v>13.34</v>
+        <v>12.92</v>
       </c>
       <c r="Q26" s="4">
-        <v>10.82</v>
+        <v>10.48</v>
       </c>
       <c r="R26" s="4">
-        <v>5.37</v>
+        <v>5.2</v>
       </c>
       <c r="S26" s="4">
         <v>0</v>
@@ -4235,58 +4255,58 @@
         <v>0</v>
       </c>
       <c r="W26" s="4">
-        <v>41.73</v>
+        <v>40.42</v>
       </c>
       <c r="X26" s="4">
-        <v>88.14</v>
+        <v>85.36</v>
       </c>
       <c r="Y26" s="4">
-        <v>138.88</v>
+        <v>134.51</v>
       </c>
       <c r="Z26" s="4">
-        <v>193.68</v>
+        <v>187.57</v>
       </c>
       <c r="AA26" s="4">
-        <v>249.92</v>
+        <v>242.04</v>
       </c>
       <c r="AB26" s="4">
-        <v>332.74</v>
+        <v>322.25</v>
       </c>
       <c r="AC26" s="4">
-        <v>54.77</v>
+        <v>53.04</v>
       </c>
       <c r="AD26" s="4">
-        <v>82.79</v>
+        <v>80.19</v>
       </c>
       <c r="AE26" s="4">
-        <v>165.61</v>
+        <v>160.38</v>
       </c>
       <c r="AF26" s="4">
-        <v>221.87</v>
+        <v>214.87</v>
       </c>
       <c r="AG26" s="4">
-        <v>306.07</v>
+        <v>296.41000000000003</v>
       </c>
       <c r="AH26" s="4">
-        <v>360.57</v>
+        <v>349.2</v>
       </c>
       <c r="AI26" s="4">
-        <v>41.73</v>
+        <v>40.42</v>
       </c>
       <c r="AJ26" s="4">
-        <v>88.14</v>
+        <v>85.36</v>
       </c>
       <c r="AK26" s="4">
-        <v>138.88</v>
+        <v>134.51</v>
       </c>
       <c r="AL26" s="4">
-        <v>193.68</v>
+        <v>187.57</v>
       </c>
       <c r="AM26" s="4">
-        <v>249.92</v>
+        <v>242.04</v>
       </c>
       <c r="AN26" s="4">
-        <v>332.74</v>
+        <v>322.25</v>
       </c>
       <c r="AO26" s="4"/>
       <c r="AP26" s="4"/>
@@ -4294,124 +4314,124 @@
     </row>
     <row r="27" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C27" s="4">
-        <v>140.47</v>
+        <v>135.01</v>
       </c>
       <c r="D27" s="4">
-        <v>112.4</v>
+        <v>108.03</v>
       </c>
       <c r="E27" s="4">
-        <v>84.28</v>
+        <v>81</v>
       </c>
       <c r="F27" s="4">
-        <v>67.37</v>
+        <v>64.75</v>
       </c>
       <c r="G27" s="4">
-        <v>56.18</v>
+        <v>53.99</v>
       </c>
       <c r="H27" s="4">
-        <v>44.96</v>
+        <v>43.21</v>
       </c>
       <c r="I27" s="4">
-        <v>39.270000000000003</v>
+        <v>37.74</v>
       </c>
       <c r="J27" s="4">
-        <v>33.68</v>
+        <v>32.369999999999997</v>
       </c>
       <c r="K27" s="4">
-        <v>28.06</v>
+        <v>26.97</v>
       </c>
       <c r="L27" s="4">
-        <v>0</v>
+        <v>21.67</v>
       </c>
       <c r="M27" s="4">
-        <v>22.37</v>
+        <v>21.5</v>
       </c>
       <c r="N27" s="4">
-        <v>16.829999999999998</v>
+        <v>16.170000000000002</v>
       </c>
       <c r="O27" s="4">
-        <v>0</v>
+        <v>14.99</v>
       </c>
       <c r="P27" s="4">
-        <v>0</v>
+        <v>13.34</v>
       </c>
       <c r="Q27" s="4">
-        <v>11.26</v>
+        <v>10.82</v>
       </c>
       <c r="R27" s="4">
-        <v>5.59</v>
+        <v>5.37</v>
       </c>
       <c r="S27" s="4">
-        <v>22.55</v>
+        <v>0</v>
       </c>
       <c r="T27" s="4">
-        <v>15.6</v>
+        <v>0</v>
       </c>
       <c r="U27" s="4">
-        <v>13.88</v>
+        <v>0</v>
       </c>
       <c r="V27" s="4">
-        <v>23.03</v>
+        <v>0</v>
       </c>
       <c r="W27" s="4">
-        <v>43.42</v>
+        <v>41.73</v>
       </c>
       <c r="X27" s="4">
-        <v>91.7</v>
+        <v>88.14</v>
       </c>
       <c r="Y27" s="4">
-        <v>144.49</v>
+        <v>138.88</v>
       </c>
       <c r="Z27" s="4">
-        <v>201.51</v>
+        <v>193.68</v>
       </c>
       <c r="AA27" s="4">
-        <v>260.02</v>
+        <v>249.92</v>
       </c>
       <c r="AB27" s="4">
-        <v>346.19</v>
+        <v>332.74</v>
       </c>
       <c r="AC27" s="4">
-        <v>56.99</v>
+        <v>54.77</v>
       </c>
       <c r="AD27" s="4">
-        <v>86.14</v>
+        <v>82.79</v>
       </c>
       <c r="AE27" s="4">
-        <v>172.3</v>
+        <v>165.61</v>
       </c>
       <c r="AF27" s="4">
-        <v>230.84</v>
+        <v>221.87</v>
       </c>
       <c r="AG27" s="4">
-        <v>318.44</v>
+        <v>306.07</v>
       </c>
       <c r="AH27" s="4">
-        <v>375.14</v>
+        <v>360.57</v>
       </c>
       <c r="AI27" s="4">
-        <v>43.42</v>
+        <v>41.73</v>
       </c>
       <c r="AJ27" s="4">
-        <v>91.7</v>
+        <v>88.14</v>
       </c>
       <c r="AK27" s="4">
-        <v>144.49</v>
+        <v>138.88</v>
       </c>
       <c r="AL27" s="4">
-        <v>201.51</v>
+        <v>193.68</v>
       </c>
       <c r="AM27" s="4">
-        <v>260.02</v>
+        <v>249.92</v>
       </c>
       <c r="AN27" s="4">
-        <v>346.19</v>
+        <v>332.74</v>
       </c>
       <c r="AO27" s="4"/>
       <c r="AP27" s="4"/>
@@ -4419,46 +4439,46 @@
     </row>
     <row r="28" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C28" s="4">
-        <v>149.22</v>
+        <v>140.47</v>
       </c>
       <c r="D28" s="4">
-        <v>119.4</v>
+        <v>112.4</v>
       </c>
       <c r="E28" s="4">
-        <v>89.53</v>
+        <v>84.28</v>
       </c>
       <c r="F28" s="4">
-        <v>71.569999999999993</v>
+        <v>67.37</v>
       </c>
       <c r="G28" s="4">
-        <v>59.68</v>
+        <v>56.18</v>
       </c>
       <c r="H28" s="4">
-        <v>47.76</v>
+        <v>44.96</v>
       </c>
       <c r="I28" s="4">
-        <v>41.72</v>
+        <v>39.270000000000003</v>
       </c>
       <c r="J28" s="4">
-        <v>35.78</v>
+        <v>33.68</v>
       </c>
       <c r="K28" s="4">
-        <v>29.81</v>
+        <v>28.06</v>
       </c>
       <c r="L28" s="4">
         <v>0</v>
       </c>
       <c r="M28" s="4">
-        <v>23.76</v>
+        <v>22.37</v>
       </c>
       <c r="N28" s="4">
-        <v>17.88</v>
+        <v>16.829999999999998</v>
       </c>
       <c r="O28" s="4">
         <v>0</v>
@@ -4467,76 +4487,76 @@
         <v>0</v>
       </c>
       <c r="Q28" s="4">
-        <v>11.96</v>
+        <v>11.26</v>
       </c>
       <c r="R28" s="4">
-        <v>5.94</v>
+        <v>5.59</v>
       </c>
       <c r="S28" s="4">
-        <v>23.95</v>
+        <v>22.55</v>
       </c>
       <c r="T28" s="4">
-        <v>16.57</v>
+        <v>15.6</v>
       </c>
       <c r="U28" s="4">
-        <v>14.74</v>
+        <v>13.88</v>
       </c>
       <c r="V28" s="4">
-        <v>24.46</v>
+        <v>23.03</v>
       </c>
       <c r="W28" s="4">
-        <v>46.13</v>
+        <v>43.42</v>
       </c>
       <c r="X28" s="4">
-        <v>97.41</v>
+        <v>91.7</v>
       </c>
       <c r="Y28" s="4">
-        <v>153.49</v>
+        <v>144.49</v>
       </c>
       <c r="Z28" s="4">
-        <v>214.06</v>
+        <v>201.51</v>
       </c>
       <c r="AA28" s="4">
-        <v>276.22000000000003</v>
+        <v>260.02</v>
       </c>
       <c r="AB28" s="4">
-        <v>367.76</v>
+        <v>346.19</v>
       </c>
       <c r="AC28" s="4">
-        <v>60.54</v>
+        <v>56.99</v>
       </c>
       <c r="AD28" s="4">
-        <v>91.51</v>
+        <v>86.14</v>
       </c>
       <c r="AE28" s="4">
-        <v>183.03</v>
+        <v>172.3</v>
       </c>
       <c r="AF28" s="4">
-        <v>245.22</v>
+        <v>230.84</v>
       </c>
       <c r="AG28" s="4">
-        <v>338.28</v>
+        <v>318.44</v>
       </c>
       <c r="AH28" s="4">
-        <v>398.51</v>
+        <v>375.14</v>
       </c>
       <c r="AI28" s="4">
-        <v>46.13</v>
+        <v>43.42</v>
       </c>
       <c r="AJ28" s="4">
-        <v>97.41</v>
+        <v>91.7</v>
       </c>
       <c r="AK28" s="4">
-        <v>153.49</v>
+        <v>144.49</v>
       </c>
       <c r="AL28" s="4">
-        <v>214.06</v>
+        <v>201.51</v>
       </c>
       <c r="AM28" s="4">
-        <v>276.22000000000003</v>
+        <v>260.02</v>
       </c>
       <c r="AN28" s="4">
-        <v>367.76</v>
+        <v>346.19</v>
       </c>
       <c r="AO28" s="4"/>
       <c r="AP28" s="4"/>
@@ -4544,46 +4564,46 @@
     </row>
     <row r="29" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C29" s="4">
-        <v>155.32</v>
+        <v>149.22</v>
       </c>
       <c r="D29" s="4">
-        <v>124.28</v>
+        <v>119.4</v>
       </c>
       <c r="E29" s="4">
-        <v>93.19</v>
+        <v>89.53</v>
       </c>
       <c r="F29" s="4">
-        <v>74.489999999999995</v>
+        <v>71.569999999999993</v>
       </c>
       <c r="G29" s="4">
-        <v>62.12</v>
+        <v>59.68</v>
       </c>
       <c r="H29" s="4">
-        <v>49.71</v>
+        <v>47.76</v>
       </c>
       <c r="I29" s="4">
-        <v>43.42</v>
+        <v>41.72</v>
       </c>
       <c r="J29" s="4">
-        <v>37.24</v>
+        <v>35.78</v>
       </c>
       <c r="K29" s="4">
-        <v>31.02</v>
+        <v>29.81</v>
       </c>
       <c r="L29" s="4">
         <v>0</v>
       </c>
       <c r="M29" s="4">
-        <v>24.73</v>
+        <v>23.76</v>
       </c>
       <c r="N29" s="4">
-        <v>18.61</v>
+        <v>17.88</v>
       </c>
       <c r="O29" s="4">
         <v>0</v>
@@ -4592,123 +4612,123 @@
         <v>0</v>
       </c>
       <c r="Q29" s="4">
-        <v>12.44</v>
+        <v>11.96</v>
       </c>
       <c r="R29" s="4">
-        <v>6.18</v>
+        <v>5.94</v>
       </c>
       <c r="S29" s="4">
-        <v>24.92</v>
+        <v>23.95</v>
       </c>
       <c r="T29" s="4">
-        <v>17.239999999999998</v>
+        <v>16.57</v>
       </c>
       <c r="U29" s="4">
-        <v>15.34</v>
+        <v>14.74</v>
       </c>
       <c r="V29" s="4">
-        <v>25.46</v>
+        <v>24.46</v>
       </c>
       <c r="W29" s="4">
-        <v>48.01</v>
+        <v>46.13</v>
       </c>
       <c r="X29" s="4">
-        <v>101.39</v>
+        <v>97.41</v>
       </c>
       <c r="Y29" s="4">
-        <v>159.76</v>
+        <v>153.49</v>
       </c>
       <c r="Z29" s="4">
-        <v>222.81</v>
+        <v>214.06</v>
       </c>
       <c r="AA29" s="4">
-        <v>287.51</v>
+        <v>276.22000000000003</v>
       </c>
       <c r="AB29" s="4">
-        <v>382.8</v>
+        <v>367.76</v>
       </c>
       <c r="AC29" s="4">
-        <v>63.01</v>
+        <v>60.54</v>
       </c>
       <c r="AD29" s="4">
-        <v>95.25</v>
+        <v>91.51</v>
       </c>
       <c r="AE29" s="4">
-        <v>190.51</v>
+        <v>183.03</v>
       </c>
       <c r="AF29" s="4">
-        <v>255.24</v>
+        <v>245.22</v>
       </c>
       <c r="AG29" s="4">
-        <v>352.11</v>
+        <v>338.28</v>
       </c>
       <c r="AH29" s="4">
-        <v>414.8</v>
+        <v>398.51</v>
       </c>
       <c r="AI29" s="4">
-        <v>48.01</v>
+        <v>46.13</v>
       </c>
       <c r="AJ29" s="4">
-        <v>101.39</v>
+        <v>97.41</v>
       </c>
       <c r="AK29" s="4">
-        <v>159.76</v>
+        <v>153.49</v>
       </c>
       <c r="AL29" s="4">
-        <v>222.81</v>
+        <v>214.06</v>
       </c>
       <c r="AM29" s="4">
-        <v>287.51</v>
+        <v>276.22000000000003</v>
       </c>
       <c r="AN29" s="4">
-        <v>382.8</v>
+        <v>367.76</v>
       </c>
       <c r="AO29" s="4"/>
       <c r="AP29" s="4"/>
       <c r="AQ29" s="18"/>
     </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C30" s="4">
-        <v>168.49</v>
+        <v>155.32</v>
       </c>
       <c r="D30" s="4">
-        <v>134.81</v>
+        <v>124.28</v>
       </c>
       <c r="E30" s="4">
-        <v>101.09</v>
+        <v>93.19</v>
       </c>
       <c r="F30" s="4">
-        <v>80.8</v>
+        <v>74.489999999999995</v>
       </c>
       <c r="G30" s="4">
-        <v>67.38</v>
+        <v>62.12</v>
       </c>
       <c r="H30" s="4">
-        <v>53.92</v>
+        <v>49.71</v>
       </c>
       <c r="I30" s="4">
-        <v>47.1</v>
+        <v>43.42</v>
       </c>
       <c r="J30" s="4">
-        <v>40.39</v>
+        <v>37.24</v>
       </c>
       <c r="K30" s="4">
-        <v>33.65</v>
+        <v>31.02</v>
       </c>
       <c r="L30" s="4">
         <v>0</v>
       </c>
       <c r="M30" s="4">
-        <v>26.82</v>
+        <v>24.73</v>
       </c>
       <c r="N30" s="4">
-        <v>20.18</v>
+        <v>18.61</v>
       </c>
       <c r="O30" s="4">
         <v>0</v>
@@ -4717,375 +4737,371 @@
         <v>0</v>
       </c>
       <c r="Q30" s="4">
-        <v>13.49</v>
+        <v>12.44</v>
       </c>
       <c r="R30" s="4">
-        <v>6.7</v>
+        <v>6.18</v>
       </c>
       <c r="S30" s="4">
-        <v>27.03</v>
+        <v>24.92</v>
       </c>
       <c r="T30" s="4">
-        <v>18.7</v>
+        <v>17.239999999999998</v>
       </c>
       <c r="U30" s="4">
-        <v>16.64</v>
+        <v>15.34</v>
       </c>
       <c r="V30" s="4">
-        <v>27.61</v>
+        <v>25.46</v>
       </c>
       <c r="W30" s="4">
-        <v>52.08</v>
+        <v>48.01</v>
       </c>
       <c r="X30" s="4">
-        <v>109.98</v>
+        <v>101.39</v>
       </c>
       <c r="Y30" s="4">
-        <v>173.3</v>
+        <v>159.76</v>
       </c>
       <c r="Z30" s="4">
-        <v>241.7</v>
+        <v>222.81</v>
       </c>
       <c r="AA30" s="4">
-        <v>311.89</v>
+        <v>287.51</v>
       </c>
       <c r="AB30" s="4">
-        <v>415.26</v>
+        <v>382.8</v>
       </c>
       <c r="AC30" s="4">
-        <v>68.349999999999994</v>
+        <v>63.01</v>
       </c>
       <c r="AD30" s="4">
-        <v>103.32</v>
+        <v>95.25</v>
       </c>
       <c r="AE30" s="4">
-        <v>206.66</v>
+        <v>190.51</v>
       </c>
       <c r="AF30" s="4">
-        <v>276.88</v>
+        <v>255.24</v>
       </c>
       <c r="AG30" s="4">
-        <v>381.96</v>
+        <v>352.11</v>
       </c>
       <c r="AH30" s="4">
-        <v>449.97</v>
+        <v>414.8</v>
       </c>
       <c r="AI30" s="4">
-        <v>52.08</v>
+        <v>48.01</v>
       </c>
       <c r="AJ30" s="4">
-        <v>109.98</v>
+        <v>101.39</v>
       </c>
       <c r="AK30" s="4">
-        <v>173.3</v>
+        <v>159.76</v>
       </c>
       <c r="AL30" s="4">
-        <v>241.7</v>
+        <v>222.81</v>
       </c>
       <c r="AM30" s="4">
-        <v>311.89</v>
+        <v>287.51</v>
       </c>
       <c r="AN30" s="4">
-        <v>415.26</v>
+        <v>382.8</v>
       </c>
       <c r="AO30" s="4"/>
       <c r="AP30" s="4"/>
-      <c r="AQ30" s="19"/>
+      <c r="AQ30" s="18"/>
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
-        <v>2012</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="5">
-        <v>180.11</v>
-      </c>
-      <c r="D31" s="5">
-        <v>144.11000000000001</v>
-      </c>
-      <c r="E31" s="5">
-        <v>108.06</v>
-      </c>
-      <c r="F31" s="5">
-        <v>86.37</v>
-      </c>
-      <c r="G31" s="5">
-        <v>72.02</v>
-      </c>
-      <c r="H31" s="5">
-        <v>57.64</v>
-      </c>
-      <c r="I31" s="5">
-        <v>50.34</v>
-      </c>
-      <c r="J31" s="5">
-        <v>43.17</v>
-      </c>
-      <c r="K31" s="5">
-        <v>35.97</v>
-      </c>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5">
-        <v>28.67</v>
-      </c>
-      <c r="N31" s="5">
-        <v>21.57</v>
-      </c>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5">
-        <v>14.42</v>
-      </c>
-      <c r="R31" s="5">
-        <v>7.16</v>
-      </c>
-      <c r="S31" s="5">
-        <v>28.89</v>
-      </c>
-      <c r="T31" s="5">
-        <v>19.989999999999998</v>
-      </c>
-      <c r="U31" s="5">
-        <v>17.78</v>
-      </c>
-      <c r="V31" s="5">
-        <v>29.51</v>
-      </c>
-      <c r="W31" s="5">
-        <v>55.67</v>
-      </c>
-      <c r="X31" s="5">
-        <v>117.56</v>
-      </c>
-      <c r="Y31" s="5">
-        <v>185.25</v>
-      </c>
-      <c r="Z31" s="5">
-        <v>258.37</v>
-      </c>
-      <c r="AA31" s="5">
-        <v>333.41</v>
-      </c>
-      <c r="AB31" s="5">
-        <v>443.91</v>
-      </c>
-      <c r="AC31" s="5">
-        <v>73.06</v>
-      </c>
-      <c r="AD31" s="5">
-        <v>110.44</v>
-      </c>
-      <c r="AE31" s="5">
-        <v>220.91</v>
-      </c>
-      <c r="AF31" s="5">
-        <v>295.98</v>
-      </c>
-      <c r="AG31" s="5">
-        <v>408.31</v>
-      </c>
-      <c r="AH31" s="5">
-        <v>481.01</v>
-      </c>
-      <c r="AI31" s="5">
-        <v>55.67</v>
-      </c>
-      <c r="AJ31" s="5">
-        <v>117.56</v>
-      </c>
-      <c r="AK31" s="5">
-        <v>185.25</v>
-      </c>
-      <c r="AL31" s="5">
-        <v>258.37</v>
-      </c>
-      <c r="AM31" s="5">
-        <v>333.41</v>
-      </c>
-      <c r="AN31" s="5">
-        <v>443.91</v>
-      </c>
-      <c r="AO31" s="5">
-        <v>1.58</v>
-      </c>
-      <c r="AP31" s="5">
-        <v>71.53</v>
-      </c>
+        <v>2011</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="4">
+        <v>168.49</v>
+      </c>
+      <c r="D31" s="4">
+        <v>134.81</v>
+      </c>
+      <c r="E31" s="4">
+        <v>101.09</v>
+      </c>
+      <c r="F31" s="4">
+        <v>80.8</v>
+      </c>
+      <c r="G31" s="4">
+        <v>67.38</v>
+      </c>
+      <c r="H31" s="4">
+        <v>53.92</v>
+      </c>
+      <c r="I31" s="4">
+        <v>47.1</v>
+      </c>
+      <c r="J31" s="4">
+        <v>40.39</v>
+      </c>
+      <c r="K31" s="4">
+        <v>33.65</v>
+      </c>
+      <c r="L31" s="4">
+        <v>0</v>
+      </c>
+      <c r="M31" s="4">
+        <v>26.82</v>
+      </c>
+      <c r="N31" s="4">
+        <v>20.18</v>
+      </c>
+      <c r="O31" s="4">
+        <v>0</v>
+      </c>
+      <c r="P31" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>13.49</v>
+      </c>
+      <c r="R31" s="4">
+        <v>6.7</v>
+      </c>
+      <c r="S31" s="4">
+        <v>27.03</v>
+      </c>
+      <c r="T31" s="4">
+        <v>18.7</v>
+      </c>
+      <c r="U31" s="4">
+        <v>16.64</v>
+      </c>
+      <c r="V31" s="4">
+        <v>27.61</v>
+      </c>
+      <c r="W31" s="4">
+        <v>52.08</v>
+      </c>
+      <c r="X31" s="4">
+        <v>109.98</v>
+      </c>
+      <c r="Y31" s="4">
+        <v>173.3</v>
+      </c>
+      <c r="Z31" s="4">
+        <v>241.7</v>
+      </c>
+      <c r="AA31" s="4">
+        <v>311.89</v>
+      </c>
+      <c r="AB31" s="4">
+        <v>415.26</v>
+      </c>
+      <c r="AC31" s="4">
+        <v>68.349999999999994</v>
+      </c>
+      <c r="AD31" s="4">
+        <v>103.32</v>
+      </c>
+      <c r="AE31" s="4">
+        <v>206.66</v>
+      </c>
+      <c r="AF31" s="4">
+        <v>276.88</v>
+      </c>
+      <c r="AG31" s="4">
+        <v>381.96</v>
+      </c>
+      <c r="AH31" s="4">
+        <v>449.97</v>
+      </c>
+      <c r="AI31" s="4">
+        <v>52.08</v>
+      </c>
+      <c r="AJ31" s="4">
+        <v>109.98</v>
+      </c>
+      <c r="AK31" s="4">
+        <v>173.3</v>
+      </c>
+      <c r="AL31" s="4">
+        <v>241.7</v>
+      </c>
+      <c r="AM31" s="4">
+        <v>311.89</v>
+      </c>
+      <c r="AN31" s="4">
+        <v>415.26</v>
+      </c>
+      <c r="AO31" s="4"/>
+      <c r="AP31" s="4"/>
       <c r="AQ31" s="19"/>
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C32" s="5">
-        <v>189.88</v>
+        <v>180.11</v>
       </c>
       <c r="D32" s="5">
-        <v>151.91999999999999</v>
+        <v>144.11000000000001</v>
       </c>
       <c r="E32" s="5">
-        <v>113.92</v>
+        <v>108.06</v>
       </c>
       <c r="F32" s="5">
-        <v>91.06</v>
+        <v>86.37</v>
       </c>
       <c r="G32" s="5">
-        <v>75.930000000000007</v>
+        <v>72.02</v>
       </c>
       <c r="H32" s="5">
-        <v>60.77</v>
+        <v>57.64</v>
       </c>
       <c r="I32" s="5">
-        <v>53.07</v>
+        <v>50.34</v>
       </c>
       <c r="J32" s="5">
-        <v>45.51</v>
+        <v>43.17</v>
       </c>
       <c r="K32" s="5">
-        <v>37.92</v>
-      </c>
-      <c r="L32" s="5">
-        <v>0</v>
-      </c>
+        <v>35.97</v>
+      </c>
+      <c r="L32" s="5"/>
       <c r="M32" s="5">
-        <v>30.23</v>
+        <v>28.67</v>
       </c>
       <c r="N32" s="5">
-        <v>22.74</v>
-      </c>
-      <c r="O32" s="5">
-        <v>0</v>
-      </c>
-      <c r="P32" s="5">
-        <v>0</v>
-      </c>
+        <v>21.57</v>
+      </c>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
       <c r="Q32" s="5">
-        <v>15.21</v>
+        <v>14.42</v>
       </c>
       <c r="R32" s="5">
-        <v>7.55</v>
+        <v>7.16</v>
       </c>
       <c r="S32" s="5">
-        <v>30.46</v>
+        <v>28.89</v>
       </c>
       <c r="T32" s="5">
-        <v>21.08</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="U32" s="5">
-        <v>18.75</v>
+        <v>17.78</v>
       </c>
       <c r="V32" s="5">
-        <v>31.11</v>
+        <v>29.51</v>
       </c>
       <c r="W32" s="5">
-        <v>58.69</v>
+        <v>55.67</v>
       </c>
       <c r="X32" s="5">
-        <v>123.94</v>
+        <v>117.56</v>
       </c>
       <c r="Y32" s="5">
-        <v>195.29</v>
+        <v>185.25</v>
       </c>
       <c r="Z32" s="5">
-        <v>272.38</v>
+        <v>258.37</v>
       </c>
       <c r="AA32" s="5">
-        <v>351.48</v>
+        <v>333.41</v>
       </c>
       <c r="AB32" s="5">
-        <v>467.97</v>
+        <v>443.91</v>
       </c>
       <c r="AC32" s="5">
-        <v>77.02</v>
+        <v>73.06</v>
       </c>
       <c r="AD32" s="5">
-        <v>116.43</v>
+        <v>110.44</v>
       </c>
       <c r="AE32" s="5">
-        <v>232.89</v>
+        <v>220.91</v>
       </c>
       <c r="AF32" s="5">
-        <v>312.02999999999997</v>
+        <v>295.98</v>
       </c>
       <c r="AG32" s="5">
-        <v>430.44</v>
+        <v>408.31</v>
       </c>
       <c r="AH32" s="5">
-        <v>507.08</v>
+        <v>481.01</v>
       </c>
       <c r="AI32" s="5">
-        <v>58.69</v>
+        <v>55.67</v>
       </c>
       <c r="AJ32" s="5">
-        <v>123.94</v>
+        <v>117.56</v>
       </c>
       <c r="AK32" s="5">
-        <v>195.29</v>
+        <v>185.25</v>
       </c>
       <c r="AL32" s="5">
-        <v>272.38</v>
+        <v>258.37</v>
       </c>
       <c r="AM32" s="5">
-        <v>351.48</v>
+        <v>333.41</v>
       </c>
       <c r="AN32" s="5">
-        <v>467.97</v>
+        <v>443.91</v>
       </c>
       <c r="AO32" s="5">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AP32" s="5">
-        <v>75.41</v>
+        <v>71.53</v>
       </c>
       <c r="AQ32" s="19"/>
     </row>
     <row r="33" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C33" s="5">
-        <v>200.96</v>
+        <v>189.88</v>
       </c>
       <c r="D33" s="5">
-        <v>160.79</v>
+        <v>151.91999999999999</v>
       </c>
       <c r="E33" s="5">
-        <v>120.55</v>
+        <v>113.92</v>
       </c>
       <c r="F33" s="5">
-        <v>96.38</v>
+        <v>91.06</v>
       </c>
       <c r="G33" s="5">
-        <v>80.36</v>
+        <v>75.930000000000007</v>
       </c>
       <c r="H33" s="5">
-        <v>64.319999999999993</v>
+        <v>60.77</v>
       </c>
       <c r="I33" s="5">
-        <v>56.17</v>
+        <v>53.07</v>
       </c>
       <c r="J33" s="5">
-        <v>48.17</v>
+        <v>45.51</v>
       </c>
       <c r="K33" s="5">
-        <v>40.130000000000003</v>
+        <v>37.92</v>
       </c>
       <c r="L33" s="5">
         <v>0</v>
       </c>
       <c r="M33" s="5">
-        <v>31.99</v>
+        <v>30.23</v>
       </c>
       <c r="N33" s="5">
-        <v>24.07</v>
+        <v>22.74</v>
       </c>
       <c r="O33" s="5">
         <v>0</v>
@@ -5094,127 +5110,127 @@
         <v>0</v>
       </c>
       <c r="Q33" s="5">
-        <v>0</v>
+        <v>15.21</v>
       </c>
       <c r="R33" s="5">
-        <v>0</v>
+        <v>7.55</v>
       </c>
       <c r="S33" s="5">
-        <v>0</v>
+        <v>30.46</v>
       </c>
       <c r="T33" s="5">
-        <v>0</v>
+        <v>21.08</v>
       </c>
       <c r="U33" s="5">
-        <v>0</v>
+        <v>18.75</v>
       </c>
       <c r="V33" s="5">
-        <v>0</v>
+        <v>31.11</v>
       </c>
       <c r="W33" s="5">
-        <v>62.12</v>
+        <v>58.69</v>
       </c>
       <c r="X33" s="5">
-        <v>131.16999999999999</v>
+        <v>123.94</v>
       </c>
       <c r="Y33" s="5">
-        <v>206.69</v>
+        <v>195.29</v>
       </c>
       <c r="Z33" s="5">
-        <v>288.27999999999997</v>
+        <v>272.38</v>
       </c>
       <c r="AA33" s="5">
-        <v>372</v>
+        <v>351.48</v>
       </c>
       <c r="AB33" s="5">
-        <v>495.29</v>
+        <v>467.97</v>
       </c>
       <c r="AC33" s="5">
-        <v>81.52</v>
+        <v>77.02</v>
       </c>
       <c r="AD33" s="5">
-        <v>123.23</v>
+        <v>116.43</v>
       </c>
       <c r="AE33" s="5">
-        <v>246.48</v>
+        <v>232.89</v>
       </c>
       <c r="AF33" s="5">
-        <v>330.24</v>
+        <v>312.02999999999997</v>
       </c>
       <c r="AG33" s="5">
-        <v>455.57</v>
+        <v>430.44</v>
       </c>
       <c r="AH33" s="5">
-        <v>536.67999999999995</v>
+        <v>507.08</v>
       </c>
       <c r="AI33" s="5">
-        <v>62.12</v>
+        <v>58.69</v>
       </c>
       <c r="AJ33" s="5">
-        <v>131.16999999999999</v>
+        <v>123.94</v>
       </c>
       <c r="AK33" s="5">
-        <v>206.69</v>
+        <v>195.29</v>
       </c>
       <c r="AL33" s="5">
-        <v>288.27999999999997</v>
+        <v>272.38</v>
       </c>
       <c r="AM33" s="5">
-        <v>372</v>
+        <v>351.48</v>
       </c>
       <c r="AN33" s="5">
-        <v>495.29</v>
+        <v>467.97</v>
       </c>
       <c r="AO33" s="5">
-        <v>1.77</v>
+        <v>1.67</v>
       </c>
       <c r="AP33" s="5">
-        <v>79.81</v>
+        <v>75.41</v>
       </c>
       <c r="AQ33" s="19"/>
     </row>
     <row r="34" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C34" s="5">
-        <v>214.13</v>
+        <v>200.96</v>
       </c>
       <c r="D34" s="5">
-        <v>171.32</v>
+        <v>160.79</v>
       </c>
       <c r="E34" s="5">
-        <v>128.44999999999999</v>
+        <v>120.55</v>
       </c>
       <c r="F34" s="5">
-        <v>102.69</v>
+        <v>96.38</v>
       </c>
       <c r="G34" s="5">
-        <v>85.63</v>
+        <v>80.36</v>
       </c>
       <c r="H34" s="5">
-        <v>68.53</v>
+        <v>64.319999999999993</v>
       </c>
       <c r="I34" s="5">
-        <v>59.85</v>
+        <v>56.17</v>
       </c>
       <c r="J34" s="5">
-        <v>51.32</v>
+        <v>48.17</v>
       </c>
       <c r="K34" s="5">
-        <v>42.76</v>
+        <v>40.130000000000003</v>
       </c>
       <c r="L34" s="5">
         <v>0</v>
       </c>
       <c r="M34" s="5">
-        <v>34.090000000000003</v>
+        <v>31.99</v>
       </c>
       <c r="N34" s="5">
-        <v>28.24</v>
+        <v>24.07</v>
       </c>
       <c r="O34" s="5">
         <v>0</v>
@@ -5241,109 +5257,109 @@
         <v>0</v>
       </c>
       <c r="W34" s="5">
-        <v>95.9</v>
+        <v>62.12</v>
       </c>
       <c r="X34" s="5">
-        <v>213.11</v>
+        <v>131.16999999999999</v>
       </c>
       <c r="Y34" s="5">
-        <v>0</v>
+        <v>206.69</v>
       </c>
       <c r="Z34" s="5">
-        <v>383.6</v>
+        <v>288.27999999999997</v>
       </c>
       <c r="AA34" s="5">
-        <v>532.78</v>
+        <v>372</v>
       </c>
       <c r="AB34" s="5">
-        <v>745.89</v>
+        <v>495.29</v>
       </c>
       <c r="AC34" s="5">
-        <v>0</v>
+        <v>81.52</v>
       </c>
       <c r="AD34" s="5">
-        <v>159.83000000000001</v>
+        <v>123.23</v>
       </c>
       <c r="AE34" s="5">
-        <v>0</v>
+        <v>246.48</v>
       </c>
       <c r="AF34" s="5">
-        <v>351.63</v>
+        <v>330.24</v>
       </c>
       <c r="AG34" s="5">
-        <v>490.15</v>
+        <v>455.57</v>
       </c>
       <c r="AH34" s="5">
-        <v>0</v>
+        <v>536.67999999999995</v>
       </c>
       <c r="AI34" s="5">
-        <v>0</v>
+        <v>62.12</v>
       </c>
       <c r="AJ34" s="5">
-        <v>143.85</v>
+        <v>131.16999999999999</v>
       </c>
       <c r="AK34" s="5">
-        <v>0</v>
+        <v>206.69</v>
       </c>
       <c r="AL34" s="5">
-        <v>309.01</v>
+        <v>288.27999999999997</v>
       </c>
       <c r="AM34" s="5">
-        <v>404.91</v>
+        <v>372</v>
       </c>
       <c r="AN34" s="5">
-        <v>0</v>
+        <v>495.29</v>
       </c>
       <c r="AO34" s="5">
-        <v>1.88</v>
+        <v>1.77</v>
       </c>
       <c r="AP34" s="5">
-        <v>85.04</v>
+        <v>79.81</v>
       </c>
       <c r="AQ34" s="19"/>
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C35" s="5">
-        <v>237.01</v>
+        <v>214.13</v>
       </c>
       <c r="D35" s="5">
-        <v>189.63</v>
+        <v>171.32</v>
       </c>
       <c r="E35" s="5">
-        <v>142.18</v>
+        <v>128.44999999999999</v>
       </c>
       <c r="F35" s="5">
-        <v>113.66</v>
+        <v>102.69</v>
       </c>
       <c r="G35" s="5">
-        <v>94.78</v>
+        <v>85.63</v>
       </c>
       <c r="H35" s="5">
-        <v>75.849999999999994</v>
+        <v>68.53</v>
       </c>
       <c r="I35" s="5">
-        <v>66.25</v>
+        <v>59.85</v>
       </c>
       <c r="J35" s="5">
-        <v>56.8</v>
+        <v>51.32</v>
       </c>
       <c r="K35" s="5">
-        <v>47.33</v>
+        <v>42.76</v>
       </c>
       <c r="L35" s="5">
         <v>0</v>
       </c>
       <c r="M35" s="5">
-        <v>37.729999999999997</v>
+        <v>34.090000000000003</v>
       </c>
       <c r="N35" s="5">
-        <v>34.03</v>
+        <v>28.24</v>
       </c>
       <c r="O35" s="5">
         <v>0</v>
@@ -5370,37 +5386,37 @@
         <v>0</v>
       </c>
       <c r="W35" s="5">
-        <v>106.15</v>
+        <v>95.9</v>
       </c>
       <c r="X35" s="5">
-        <v>235.89</v>
+        <v>213.11</v>
       </c>
       <c r="Y35" s="5">
         <v>0</v>
       </c>
       <c r="Z35" s="5">
-        <v>424.6</v>
+        <v>383.6</v>
       </c>
       <c r="AA35" s="5">
-        <v>589.72</v>
+        <v>532.78</v>
       </c>
       <c r="AB35" s="5">
-        <v>825.61</v>
+        <v>745.89</v>
       </c>
       <c r="AC35" s="5">
         <v>0</v>
       </c>
       <c r="AD35" s="5">
-        <v>176.91</v>
+        <v>159.83000000000001</v>
       </c>
       <c r="AE35" s="5">
         <v>0</v>
       </c>
       <c r="AF35" s="5">
-        <v>389.21</v>
+        <v>351.63</v>
       </c>
       <c r="AG35" s="5">
-        <v>542.53</v>
+        <v>490.15</v>
       </c>
       <c r="AH35" s="5">
         <v>0</v>
@@ -5409,72 +5425,70 @@
         <v>0</v>
       </c>
       <c r="AJ35" s="5">
-        <v>159.22</v>
+        <v>143.85</v>
       </c>
       <c r="AK35" s="5">
         <v>0</v>
       </c>
       <c r="AL35" s="5">
-        <v>342.03</v>
+        <v>309.01</v>
       </c>
       <c r="AM35" s="5">
-        <v>448.18</v>
+        <v>404.91</v>
       </c>
       <c r="AN35" s="5">
         <v>0</v>
       </c>
       <c r="AO35" s="5">
-        <v>2.08</v>
+        <v>1.88</v>
       </c>
       <c r="AP35" s="5">
-        <v>94.13</v>
-      </c>
-      <c r="AQ35" s="19">
-        <v>2.1800000000000002</v>
-      </c>
+        <v>85.04</v>
+      </c>
+      <c r="AQ35" s="19"/>
     </row>
     <row r="36" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C36" s="5">
-        <v>253.93</v>
+        <v>237.01</v>
       </c>
       <c r="D36" s="5">
-        <v>203.16</v>
+        <v>189.63</v>
       </c>
       <c r="E36" s="5">
-        <v>152.33000000000001</v>
+        <v>142.18</v>
       </c>
       <c r="F36" s="5">
-        <v>121.77</v>
+        <v>113.66</v>
       </c>
       <c r="G36" s="5">
-        <v>101.54</v>
+        <v>94.78</v>
       </c>
       <c r="H36" s="5">
-        <v>81.260000000000005</v>
+        <v>75.849999999999994</v>
       </c>
       <c r="I36" s="5">
-        <v>70.98</v>
+        <v>66.25</v>
       </c>
       <c r="J36" s="5">
-        <v>60.85</v>
+        <v>56.8</v>
       </c>
       <c r="K36" s="5">
-        <v>50.71</v>
+        <v>47.33</v>
       </c>
       <c r="L36" s="5">
         <v>0</v>
       </c>
       <c r="M36" s="5">
-        <v>40.42</v>
+        <v>37.729999999999997</v>
       </c>
       <c r="N36" s="5">
-        <v>39.53</v>
+        <v>34.03</v>
       </c>
       <c r="O36" s="5">
         <v>0</v>
@@ -5501,37 +5515,37 @@
         <v>0</v>
       </c>
       <c r="W36" s="5">
-        <v>113.73</v>
+        <v>106.15</v>
       </c>
       <c r="X36" s="5">
-        <v>252.73</v>
+        <v>235.89</v>
       </c>
       <c r="Y36" s="5">
         <v>0</v>
       </c>
       <c r="Z36" s="5">
-        <v>454.91</v>
+        <v>424.6</v>
       </c>
       <c r="AA36" s="5">
-        <v>631.80999999999995</v>
+        <v>589.72</v>
       </c>
       <c r="AB36" s="5">
-        <v>884.54</v>
+        <v>825.61</v>
       </c>
       <c r="AC36" s="5">
         <v>0</v>
       </c>
       <c r="AD36" s="5">
-        <v>189.54</v>
+        <v>176.91</v>
       </c>
       <c r="AE36" s="5">
         <v>0</v>
       </c>
       <c r="AF36" s="5">
-        <v>416.99</v>
+        <v>389.21</v>
       </c>
       <c r="AG36" s="5">
-        <v>581.25</v>
+        <v>542.53</v>
       </c>
       <c r="AH36" s="5">
         <v>0</v>
@@ -5540,331 +5554,331 @@
         <v>0</v>
       </c>
       <c r="AJ36" s="5">
-        <v>170.58</v>
+        <v>159.22</v>
       </c>
       <c r="AK36" s="5">
         <v>0</v>
       </c>
       <c r="AL36" s="5">
-        <v>366.44</v>
+        <v>342.03</v>
       </c>
       <c r="AM36" s="5">
-        <v>480.17</v>
+        <v>448.18</v>
       </c>
       <c r="AN36" s="5">
         <v>0</v>
       </c>
       <c r="AO36" s="5">
-        <v>2.23</v>
+        <v>2.08</v>
       </c>
       <c r="AP36" s="5">
-        <v>100.85</v>
+        <v>94.13</v>
       </c>
       <c r="AQ36" s="19">
-        <v>2.34</v>
+        <v>2.1800000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A37" s="10">
-        <v>2018</v>
+      <c r="A37" s="6">
+        <v>2017</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C37" s="11">
-        <v>260.32</v>
-      </c>
-      <c r="D37" s="11">
-        <v>208.27</v>
-      </c>
-      <c r="E37" s="11">
-        <v>156.16</v>
-      </c>
-      <c r="F37" s="11">
-        <v>124.83</v>
-      </c>
-      <c r="G37" s="11">
-        <v>104.1</v>
-      </c>
-      <c r="H37" s="11">
-        <v>83.31</v>
-      </c>
-      <c r="I37" s="11">
-        <v>72.77</v>
-      </c>
-      <c r="J37" s="11">
-        <v>62.38</v>
-      </c>
-      <c r="K37" s="11">
-        <v>51.99</v>
-      </c>
-      <c r="L37" s="11">
-        <v>0</v>
-      </c>
-      <c r="M37" s="11">
-        <v>43.09</v>
-      </c>
-      <c r="N37" s="11">
-        <v>0</v>
-      </c>
-      <c r="O37" s="11">
-        <v>0</v>
-      </c>
-      <c r="P37" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="11">
-        <v>0</v>
-      </c>
-      <c r="R37" s="11">
-        <v>0</v>
-      </c>
-      <c r="S37" s="11">
-        <v>0</v>
-      </c>
-      <c r="T37" s="11">
-        <v>0</v>
-      </c>
-      <c r="U37" s="11">
-        <v>0</v>
-      </c>
-      <c r="V37" s="11">
-        <v>0</v>
-      </c>
-      <c r="W37" s="11">
-        <v>116.59</v>
-      </c>
-      <c r="X37" s="11">
-        <v>259.08999999999997</v>
-      </c>
-      <c r="Y37" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="11">
-        <v>466.36</v>
-      </c>
-      <c r="AA37" s="11">
-        <v>647.71</v>
-      </c>
-      <c r="AB37" s="11">
-        <v>906.8</v>
-      </c>
-      <c r="AC37" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD37" s="11">
-        <v>194.31</v>
-      </c>
-      <c r="AE37" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF37" s="11">
-        <v>427.48</v>
-      </c>
-      <c r="AG37" s="11">
-        <v>595.88</v>
-      </c>
-      <c r="AH37" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI37" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ37" s="11">
-        <v>174.87</v>
-      </c>
-      <c r="AK37" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL37" s="11">
-        <v>375.66</v>
-      </c>
-      <c r="AM37" s="11">
-        <v>492.25</v>
-      </c>
-      <c r="AN37" s="11">
-        <v>0</v>
-      </c>
-      <c r="AO37" s="11">
-        <v>2.29</v>
-      </c>
-      <c r="AP37" s="11">
-        <v>103.39</v>
+        <v>0</v>
+      </c>
+      <c r="C37" s="5">
+        <v>253.93</v>
+      </c>
+      <c r="D37" s="5">
+        <v>203.16</v>
+      </c>
+      <c r="E37" s="5">
+        <v>152.33000000000001</v>
+      </c>
+      <c r="F37" s="5">
+        <v>121.77</v>
+      </c>
+      <c r="G37" s="5">
+        <v>101.54</v>
+      </c>
+      <c r="H37" s="5">
+        <v>81.260000000000005</v>
+      </c>
+      <c r="I37" s="5">
+        <v>70.98</v>
+      </c>
+      <c r="J37" s="5">
+        <v>60.85</v>
+      </c>
+      <c r="K37" s="5">
+        <v>50.71</v>
+      </c>
+      <c r="L37" s="5">
+        <v>0</v>
+      </c>
+      <c r="M37" s="5">
+        <v>40.42</v>
+      </c>
+      <c r="N37" s="5">
+        <v>39.53</v>
+      </c>
+      <c r="O37" s="5">
+        <v>0</v>
+      </c>
+      <c r="P37" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="5">
+        <v>0</v>
+      </c>
+      <c r="R37" s="5">
+        <v>0</v>
+      </c>
+      <c r="S37" s="5">
+        <v>0</v>
+      </c>
+      <c r="T37" s="5">
+        <v>0</v>
+      </c>
+      <c r="U37" s="5">
+        <v>0</v>
+      </c>
+      <c r="V37" s="5">
+        <v>0</v>
+      </c>
+      <c r="W37" s="5">
+        <v>113.73</v>
+      </c>
+      <c r="X37" s="5">
+        <v>252.73</v>
+      </c>
+      <c r="Y37" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="5">
+        <v>454.91</v>
+      </c>
+      <c r="AA37" s="5">
+        <v>631.80999999999995</v>
+      </c>
+      <c r="AB37" s="5">
+        <v>884.54</v>
+      </c>
+      <c r="AC37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="5">
+        <v>189.54</v>
+      </c>
+      <c r="AE37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="5">
+        <v>416.99</v>
+      </c>
+      <c r="AG37" s="5">
+        <v>581.25</v>
+      </c>
+      <c r="AH37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ37" s="5">
+        <v>170.58</v>
+      </c>
+      <c r="AK37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL37" s="5">
+        <v>366.44</v>
+      </c>
+      <c r="AM37" s="5">
+        <v>480.17</v>
+      </c>
+      <c r="AN37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO37" s="5">
+        <v>2.23</v>
+      </c>
+      <c r="AP37" s="5">
+        <v>100.85</v>
       </c>
       <c r="AQ37" s="19">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="38" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A38" s="12">
-        <v>2019</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C38" s="16">
-        <v>270.08</v>
-      </c>
-      <c r="D38" s="16">
-        <v>216.08</v>
-      </c>
-      <c r="E38" s="16">
-        <v>162.02000000000001</v>
-      </c>
-      <c r="F38" s="16">
-        <v>129.52000000000001</v>
-      </c>
-      <c r="G38" s="16">
-        <v>108</v>
-      </c>
-      <c r="H38" s="16">
-        <v>86.43</v>
-      </c>
-      <c r="I38" s="16">
-        <v>75.5</v>
-      </c>
-      <c r="J38" s="16">
-        <v>64.72</v>
-      </c>
-      <c r="K38" s="16">
-        <v>53.94</v>
-      </c>
-      <c r="L38" s="16">
-        <v>0</v>
-      </c>
-      <c r="M38" s="16">
-        <v>47.3</v>
-      </c>
-      <c r="N38" s="16">
-        <v>0</v>
-      </c>
-      <c r="O38" s="16">
-        <v>0</v>
-      </c>
-      <c r="P38" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="16">
-        <v>0</v>
-      </c>
-      <c r="R38" s="16">
-        <v>0</v>
-      </c>
-      <c r="S38" s="16">
-        <v>0</v>
-      </c>
-      <c r="T38" s="16">
-        <v>0</v>
-      </c>
-      <c r="U38" s="16">
-        <v>0</v>
-      </c>
-      <c r="V38" s="16">
-        <v>0</v>
-      </c>
-      <c r="W38" s="16">
-        <v>120.96</v>
-      </c>
-      <c r="X38" s="16">
-        <v>268.81</v>
-      </c>
-      <c r="Y38" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="16">
-        <v>483.85</v>
-      </c>
-      <c r="AA38" s="16">
-        <v>672</v>
-      </c>
-      <c r="AB38" s="16">
-        <v>940.81</v>
-      </c>
-      <c r="AC38" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD38" s="16">
-        <v>201.6</v>
-      </c>
-      <c r="AE38" s="16">
-        <v>0</v>
-      </c>
-      <c r="AF38" s="16">
-        <v>443.52</v>
-      </c>
-      <c r="AG38" s="16">
-        <v>618.22</v>
-      </c>
-      <c r="AH38" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI38" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ38" s="16">
-        <v>181.43</v>
-      </c>
-      <c r="AK38" s="16">
-        <v>0</v>
-      </c>
-      <c r="AL38" s="16">
-        <v>389.75</v>
-      </c>
-      <c r="AM38" s="16">
-        <v>510.71</v>
-      </c>
-      <c r="AN38" s="16">
-        <v>0</v>
-      </c>
-      <c r="AO38" s="16">
-        <v>2.38</v>
-      </c>
-      <c r="AP38" s="16">
-        <v>107.27</v>
+      <c r="A38" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="11">
+        <v>260.32</v>
+      </c>
+      <c r="D38" s="11">
+        <v>208.27</v>
+      </c>
+      <c r="E38" s="11">
+        <v>156.16</v>
+      </c>
+      <c r="F38" s="11">
+        <v>124.83</v>
+      </c>
+      <c r="G38" s="11">
+        <v>104.1</v>
+      </c>
+      <c r="H38" s="11">
+        <v>83.31</v>
+      </c>
+      <c r="I38" s="11">
+        <v>72.77</v>
+      </c>
+      <c r="J38" s="11">
+        <v>62.38</v>
+      </c>
+      <c r="K38" s="11">
+        <v>51.99</v>
+      </c>
+      <c r="L38" s="11">
+        <v>0</v>
+      </c>
+      <c r="M38" s="11">
+        <v>43.09</v>
+      </c>
+      <c r="N38" s="11">
+        <v>0</v>
+      </c>
+      <c r="O38" s="11">
+        <v>0</v>
+      </c>
+      <c r="P38" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="11">
+        <v>0</v>
+      </c>
+      <c r="R38" s="11">
+        <v>0</v>
+      </c>
+      <c r="S38" s="11">
+        <v>0</v>
+      </c>
+      <c r="T38" s="11">
+        <v>0</v>
+      </c>
+      <c r="U38" s="11">
+        <v>0</v>
+      </c>
+      <c r="V38" s="11">
+        <v>0</v>
+      </c>
+      <c r="W38" s="11">
+        <v>116.59</v>
+      </c>
+      <c r="X38" s="11">
+        <v>259.08999999999997</v>
+      </c>
+      <c r="Y38" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="11">
+        <v>466.36</v>
+      </c>
+      <c r="AA38" s="11">
+        <v>647.71</v>
+      </c>
+      <c r="AB38" s="11">
+        <v>906.8</v>
+      </c>
+      <c r="AC38" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="11">
+        <v>194.31</v>
+      </c>
+      <c r="AE38" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="11">
+        <v>427.48</v>
+      </c>
+      <c r="AG38" s="11">
+        <v>595.88</v>
+      </c>
+      <c r="AH38" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI38" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ38" s="11">
+        <v>174.87</v>
+      </c>
+      <c r="AK38" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL38" s="11">
+        <v>375.66</v>
+      </c>
+      <c r="AM38" s="11">
+        <v>492.25</v>
+      </c>
+      <c r="AN38" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO38" s="11">
+        <v>2.29</v>
+      </c>
+      <c r="AP38" s="11">
+        <v>103.39</v>
       </c>
       <c r="AQ38" s="19">
-        <v>2.4900000000000002</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="39" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A39" s="12">
-        <v>2020</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>75</v>
+        <v>2019</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="C39" s="16">
-        <v>281.72000000000003</v>
+        <v>270.08</v>
       </c>
       <c r="D39" s="16">
-        <v>225.4</v>
+        <v>216.08</v>
       </c>
       <c r="E39" s="16">
-        <v>169</v>
+        <v>162.02000000000001</v>
       </c>
       <c r="F39" s="16">
-        <v>135.1</v>
+        <v>129.52000000000001</v>
       </c>
       <c r="G39" s="16">
-        <v>112.65</v>
+        <v>108</v>
       </c>
       <c r="H39" s="16">
-        <v>90.15</v>
+        <v>86.43</v>
       </c>
       <c r="I39" s="16">
-        <v>78.75</v>
+        <v>75.5</v>
       </c>
       <c r="J39" s="16">
-        <v>67.510000000000005</v>
+        <v>64.72</v>
       </c>
       <c r="K39" s="16">
-        <v>56.26</v>
+        <v>53.94</v>
       </c>
       <c r="L39" s="16">
         <v>0</v>
       </c>
       <c r="M39" s="16">
-        <v>51.95</v>
+        <v>47.3</v>
       </c>
       <c r="N39" s="16">
         <v>0</v>
@@ -5894,37 +5908,37 @@
         <v>0</v>
       </c>
       <c r="W39" s="16">
-        <v>126.18</v>
+        <v>120.96</v>
       </c>
       <c r="X39" s="16">
-        <v>280.39</v>
+        <v>268.81</v>
       </c>
       <c r="Y39" s="16">
         <v>0</v>
       </c>
       <c r="Z39" s="16">
-        <v>504.7</v>
+        <v>483.85</v>
       </c>
       <c r="AA39" s="16">
-        <v>700.96</v>
+        <v>672</v>
       </c>
       <c r="AB39" s="16">
-        <v>981.36</v>
+        <v>940.81</v>
       </c>
       <c r="AC39" s="16">
         <v>0</v>
       </c>
       <c r="AD39" s="16">
-        <v>210.29</v>
+        <v>201.6</v>
       </c>
       <c r="AE39" s="16">
         <v>0</v>
       </c>
       <c r="AF39" s="16">
-        <v>462.63</v>
+        <v>443.52</v>
       </c>
       <c r="AG39" s="16">
-        <v>644.87</v>
+        <v>618.22</v>
       </c>
       <c r="AH39" s="16">
         <v>0</v>
@@ -5933,167 +5947,167 @@
         <v>0</v>
       </c>
       <c r="AJ39" s="16">
-        <v>189.25</v>
+        <v>181.43</v>
       </c>
       <c r="AK39" s="16">
         <v>0</v>
       </c>
       <c r="AL39" s="16">
-        <v>406.55</v>
+        <v>389.75</v>
       </c>
       <c r="AM39" s="16">
-        <v>532.73</v>
+        <v>510.71</v>
       </c>
       <c r="AN39" s="16">
         <v>0</v>
       </c>
       <c r="AO39" s="16">
-        <v>2.48</v>
+        <v>2.38</v>
       </c>
       <c r="AP39" s="16">
-        <v>111.89</v>
+        <v>107.27</v>
       </c>
       <c r="AQ39" s="19">
-        <v>2.6</v>
+        <v>2.4900000000000002</v>
       </c>
     </row>
     <row r="40" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A40" s="21">
-        <v>2021</v>
+      <c r="A40" s="12">
+        <v>2020</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C40" s="19">
-        <v>294.45</v>
-      </c>
-      <c r="D40" s="19">
-        <v>235.59</v>
-      </c>
-      <c r="E40" s="19">
-        <v>176.64</v>
-      </c>
-      <c r="F40" s="19">
-        <v>141.21</v>
-      </c>
-      <c r="G40" s="19">
-        <v>117.74</v>
-      </c>
-      <c r="H40" s="19">
-        <v>94.22</v>
-      </c>
-      <c r="I40" s="19">
-        <v>82.31</v>
-      </c>
-      <c r="J40" s="19">
-        <v>70.56</v>
-      </c>
-      <c r="K40" s="19">
-        <v>58.8</v>
-      </c>
-      <c r="L40" s="19">
-        <v>0</v>
-      </c>
-      <c r="M40" s="19">
-        <v>56.91</v>
-      </c>
-      <c r="N40" s="19">
-        <v>0</v>
-      </c>
-      <c r="O40" s="19">
-        <v>0</v>
-      </c>
-      <c r="P40" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="19">
-        <v>0</v>
-      </c>
-      <c r="R40" s="19">
-        <v>0</v>
-      </c>
-      <c r="S40" s="19">
-        <v>0</v>
-      </c>
-      <c r="T40" s="19">
-        <v>0</v>
-      </c>
-      <c r="U40" s="19">
-        <v>0</v>
-      </c>
-      <c r="V40" s="19">
-        <v>0</v>
-      </c>
-      <c r="W40" s="19">
-        <v>131.88</v>
-      </c>
-      <c r="X40" s="19">
-        <v>293.07</v>
-      </c>
-      <c r="Y40" s="19">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="19">
-        <v>527.51</v>
-      </c>
-      <c r="AA40" s="19">
-        <v>732.64</v>
-      </c>
-      <c r="AB40" s="19">
-        <v>1025.74</v>
-      </c>
-      <c r="AC40" s="19">
-        <v>0</v>
-      </c>
-      <c r="AD40" s="19">
-        <v>219.8</v>
-      </c>
-      <c r="AE40" s="19">
-        <v>0</v>
-      </c>
-      <c r="AF40" s="19">
-        <v>483.55</v>
-      </c>
-      <c r="AG40" s="19">
-        <v>674.02</v>
-      </c>
-      <c r="AH40" s="19">
-        <v>0</v>
-      </c>
-      <c r="AI40" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ40" s="19">
-        <v>197.8</v>
-      </c>
-      <c r="AK40" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL40" s="19">
-        <v>424.93</v>
-      </c>
-      <c r="AM40" s="19">
-        <v>556.79999999999995</v>
-      </c>
-      <c r="AN40" s="19">
-        <v>0</v>
-      </c>
-      <c r="AO40" s="19">
-        <v>2.59</v>
-      </c>
-      <c r="AP40" s="19">
-        <v>116.95</v>
+        <v>74</v>
+      </c>
+      <c r="C40" s="16">
+        <v>281.72000000000003</v>
+      </c>
+      <c r="D40" s="16">
+        <v>225.4</v>
+      </c>
+      <c r="E40" s="16">
+        <v>169</v>
+      </c>
+      <c r="F40" s="16">
+        <v>135.1</v>
+      </c>
+      <c r="G40" s="16">
+        <v>112.65</v>
+      </c>
+      <c r="H40" s="16">
+        <v>90.15</v>
+      </c>
+      <c r="I40" s="16">
+        <v>78.75</v>
+      </c>
+      <c r="J40" s="16">
+        <v>67.510000000000005</v>
+      </c>
+      <c r="K40" s="16">
+        <v>56.26</v>
+      </c>
+      <c r="L40" s="16">
+        <v>0</v>
+      </c>
+      <c r="M40" s="16">
+        <v>51.95</v>
+      </c>
+      <c r="N40" s="16">
+        <v>0</v>
+      </c>
+      <c r="O40" s="16">
+        <v>0</v>
+      </c>
+      <c r="P40" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="16">
+        <v>0</v>
+      </c>
+      <c r="R40" s="16">
+        <v>0</v>
+      </c>
+      <c r="S40" s="16">
+        <v>0</v>
+      </c>
+      <c r="T40" s="16">
+        <v>0</v>
+      </c>
+      <c r="U40" s="16">
+        <v>0</v>
+      </c>
+      <c r="V40" s="16">
+        <v>0</v>
+      </c>
+      <c r="W40" s="16">
+        <v>126.18</v>
+      </c>
+      <c r="X40" s="16">
+        <v>280.39</v>
+      </c>
+      <c r="Y40" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="16">
+        <v>504.7</v>
+      </c>
+      <c r="AA40" s="16">
+        <v>700.96</v>
+      </c>
+      <c r="AB40" s="16">
+        <v>981.36</v>
+      </c>
+      <c r="AC40" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="16">
+        <v>210.29</v>
+      </c>
+      <c r="AE40" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="16">
+        <v>462.63</v>
+      </c>
+      <c r="AG40" s="16">
+        <v>644.87</v>
+      </c>
+      <c r="AH40" s="16">
+        <v>0</v>
+      </c>
+      <c r="AI40" s="16">
+        <v>0</v>
+      </c>
+      <c r="AJ40" s="16">
+        <v>189.25</v>
+      </c>
+      <c r="AK40" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL40" s="16">
+        <v>406.55</v>
+      </c>
+      <c r="AM40" s="16">
+        <v>532.73</v>
+      </c>
+      <c r="AN40" s="16">
+        <v>0</v>
+      </c>
+      <c r="AO40" s="16">
+        <v>2.48</v>
+      </c>
+      <c r="AP40" s="16">
+        <v>111.89</v>
       </c>
       <c r="AQ40" s="19">
-        <v>2.72</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="41" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A41" s="21">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C41" s="19">
         <v>294.45</v>
@@ -6210,19 +6224,150 @@
         <v>0</v>
       </c>
       <c r="AO41" s="19">
+        <v>2.59</v>
+      </c>
+      <c r="AP41" s="19">
+        <v>116.95</v>
+      </c>
+      <c r="AQ41" s="19">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A42" s="21">
+        <v>2022</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="19">
+        <v>294.45</v>
+      </c>
+      <c r="D42" s="19">
+        <v>235.59</v>
+      </c>
+      <c r="E42" s="19">
+        <v>176.64</v>
+      </c>
+      <c r="F42" s="19">
+        <v>141.21</v>
+      </c>
+      <c r="G42" s="19">
+        <v>117.74</v>
+      </c>
+      <c r="H42" s="19">
+        <v>94.22</v>
+      </c>
+      <c r="I42" s="19">
+        <v>82.31</v>
+      </c>
+      <c r="J42" s="19">
+        <v>70.56</v>
+      </c>
+      <c r="K42" s="19">
+        <v>58.8</v>
+      </c>
+      <c r="L42" s="19">
+        <v>0</v>
+      </c>
+      <c r="M42" s="19">
+        <v>56.91</v>
+      </c>
+      <c r="N42" s="19">
+        <v>0</v>
+      </c>
+      <c r="O42" s="19">
+        <v>0</v>
+      </c>
+      <c r="P42" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="19">
+        <v>0</v>
+      </c>
+      <c r="R42" s="19">
+        <v>0</v>
+      </c>
+      <c r="S42" s="19">
+        <v>0</v>
+      </c>
+      <c r="T42" s="19">
+        <v>0</v>
+      </c>
+      <c r="U42" s="19">
+        <v>0</v>
+      </c>
+      <c r="V42" s="19">
+        <v>0</v>
+      </c>
+      <c r="W42" s="19">
+        <v>131.88</v>
+      </c>
+      <c r="X42" s="19">
+        <v>293.07</v>
+      </c>
+      <c r="Y42" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="19">
+        <v>527.51</v>
+      </c>
+      <c r="AA42" s="19">
+        <v>732.64</v>
+      </c>
+      <c r="AB42" s="19">
+        <v>1025.74</v>
+      </c>
+      <c r="AC42" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="19">
+        <v>219.8</v>
+      </c>
+      <c r="AE42" s="19">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="19">
+        <v>483.55</v>
+      </c>
+      <c r="AG42" s="19">
+        <v>674.02</v>
+      </c>
+      <c r="AH42" s="19">
+        <v>0</v>
+      </c>
+      <c r="AI42" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ42" s="19">
+        <v>197.8</v>
+      </c>
+      <c r="AK42" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL42" s="19">
+        <v>424.93</v>
+      </c>
+      <c r="AM42" s="19">
+        <v>556.79999999999995</v>
+      </c>
+      <c r="AN42" s="19">
+        <v>0</v>
+      </c>
+      <c r="AO42" s="19">
         <v>2.85</v>
       </c>
-      <c r="AP41" s="19">
+      <c r="AP42" s="19">
         <v>128.72</v>
       </c>
-      <c r="AQ41" s="19">
+      <c r="AQ42" s="19">
         <v>2.99</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -6234,14 +6379,14 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -6265,7 +6410,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
@@ -6277,7 +6422,7 @@
       <c r="I3" s="23"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ACGy3z8IZwpZ1jC9viRieBHK/uLdUlJNK7zG41vXss+0Lnoe1GsnCDTRsJebZjmoA0CVYCFh0AgPjolGpZrw3A==" saltValue="kTV5D2t9zeu7OX2nnRMOAA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="DQUGja0DnPXWQ+h+EKUW5ebZur65T0vwyWmaGyxWbM73GXV+aEIqHEdhNSYtU3fkdJtsoumDnuDZri4V/gXyTQ==" saltValue="s7PCd7LbdlozeCrYi6r4wQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="2">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>

--- a/TVV.xlsx
+++ b/TVV.xlsx
@@ -13,8 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="ValoresVenais" sheetId="3" r:id="rId1"/>
-    <sheet name="Site" sheetId="6" r:id="rId2"/>
-    <sheet name="Pontuação" sheetId="5" r:id="rId3"/>
+    <sheet name="Pontuação" sheetId="5" r:id="rId2"/>
+    <sheet name="Cargos" sheetId="7" r:id="rId3"/>
+    <sheet name="Site" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="87">
   <si>
     <t>3607/2016</t>
   </si>
@@ -268,6 +269,30 @@
   </si>
   <si>
     <t>https://arquivofee.rs.gov.br/servicos/atualizacao-valores/</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Cargo</t>
+  </si>
+  <si>
+    <t>Cátia Sirlene de Oliveira</t>
+  </si>
+  <si>
+    <t>Encarregada Do Setor de Tributação e Dívida Ativa</t>
+  </si>
+  <si>
+    <t>Jhonatan Cassante de Brito</t>
+  </si>
+  <si>
+    <t>Escriturário</t>
+  </si>
+  <si>
+    <t>Liliam Aparecida de Lima</t>
+  </si>
+  <si>
+    <t>Encarregada Da Central De Atendimento</t>
   </si>
 </sst>
 </file>
@@ -336,6 +361,7 @@
       <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -376,7 +402,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -415,6 +441,13 @@
       <alignment horizontal="left" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -424,13 +457,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="2" builtinId="8"/>
@@ -1102,6 +1129,20 @@
 </table>
 </file>
 
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:B6" totalsRowShown="0">
+  <autoFilter ref="A1:B6"/>
+  <sortState ref="A2:B6">
+    <sortCondition ref="A1:A6"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Nome"/>
+    <tableColumn id="2" name="Cargo"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2121,131 +2162,131 @@
       </c>
     </row>
     <row r="8" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="25">
+      <c r="A8" s="22">
         <v>1988</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="27">
+      <c r="B8" s="23"/>
+      <c r="C8" s="24">
         <v>2100.15</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="24">
         <v>1680.3</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="24">
         <v>1259.8499999999999</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="24">
         <v>1007.13</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="24">
         <v>839.78</v>
       </c>
-      <c r="H8" s="27">
+      <c r="H8" s="24">
         <v>672.04</v>
       </c>
-      <c r="I8" s="27">
+      <c r="I8" s="24">
         <v>587.05999999999995</v>
       </c>
-      <c r="J8" s="27">
+      <c r="J8" s="24">
         <v>503.27</v>
       </c>
-      <c r="K8" s="27">
+      <c r="K8" s="24">
         <v>419.4</v>
       </c>
-      <c r="L8" s="27">
-        <v>0</v>
-      </c>
-      <c r="M8" s="27">
+      <c r="L8" s="24">
+        <v>0</v>
+      </c>
+      <c r="M8" s="24">
         <v>335.8</v>
       </c>
-      <c r="N8" s="27">
+      <c r="N8" s="24">
         <v>251.85</v>
       </c>
-      <c r="O8" s="27">
-        <v>0</v>
-      </c>
-      <c r="P8" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="27">
+      <c r="O8" s="24">
+        <v>0</v>
+      </c>
+      <c r="P8" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="24">
         <v>167.9</v>
       </c>
-      <c r="R8" s="27">
+      <c r="R8" s="24">
         <v>83.95</v>
       </c>
-      <c r="S8" s="27">
-        <v>0</v>
-      </c>
-      <c r="T8" s="27">
-        <v>0</v>
-      </c>
-      <c r="U8" s="27">
-        <v>0</v>
-      </c>
-      <c r="V8" s="27">
-        <v>0</v>
-      </c>
-      <c r="W8" s="27">
+      <c r="S8" s="24">
+        <v>0</v>
+      </c>
+      <c r="T8" s="24">
+        <v>0</v>
+      </c>
+      <c r="U8" s="24">
+        <v>0</v>
+      </c>
+      <c r="V8" s="24">
+        <v>0</v>
+      </c>
+      <c r="W8" s="24">
         <v>649.1</v>
       </c>
-      <c r="X8" s="27">
+      <c r="X8" s="24">
         <v>1372.41</v>
       </c>
-      <c r="Y8" s="27">
+      <c r="Y8" s="24">
         <v>2160.86</v>
       </c>
-      <c r="Z8" s="27">
+      <c r="Z8" s="24">
         <v>3012.11</v>
       </c>
-      <c r="AA8" s="27">
+      <c r="AA8" s="24">
         <v>3886.86</v>
       </c>
-      <c r="AB8" s="27">
+      <c r="AB8" s="24">
         <v>5172.97</v>
       </c>
-      <c r="AC8" s="27">
+      <c r="AC8" s="24">
         <v>851.25</v>
       </c>
-      <c r="AD8" s="27">
+      <c r="AD8" s="24">
         <v>1287.79</v>
       </c>
-      <c r="AE8" s="27">
+      <c r="AE8" s="24">
         <v>2575.5700000000002</v>
       </c>
-      <c r="AF8" s="27">
+      <c r="AF8" s="24">
         <v>3448.65</v>
       </c>
-      <c r="AG8" s="27">
+      <c r="AG8" s="24">
         <v>4758.26</v>
       </c>
-      <c r="AH8" s="27">
+      <c r="AH8" s="24">
         <v>5609.51</v>
       </c>
-      <c r="AI8" s="27">
+      <c r="AI8" s="24">
         <v>649.1</v>
       </c>
-      <c r="AJ8" s="27">
+      <c r="AJ8" s="24">
         <v>1372.41</v>
       </c>
-      <c r="AK8" s="27">
+      <c r="AK8" s="24">
         <v>2160.86</v>
       </c>
-      <c r="AL8" s="27">
+      <c r="AL8" s="24">
         <v>3012.11</v>
       </c>
-      <c r="AM8" s="27">
+      <c r="AM8" s="24">
         <v>3886.86</v>
       </c>
-      <c r="AN8" s="27">
+      <c r="AN8" s="24">
         <v>5172.97</v>
       </c>
-      <c r="AO8" s="27">
+      <c r="AO8" s="24">
         <v>18.510000000000002</v>
       </c>
-      <c r="AP8" s="27">
+      <c r="AP8" s="24">
         <v>834.11</v>
       </c>
-      <c r="AQ8" s="27">
+      <c r="AQ8" s="24">
         <v>19.38</v>
       </c>
     </row>
@@ -6376,66 +6417,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-    </row>
-  </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="DQUGja0DnPXWQ+h+EKUW5ebZur65T0vwyWmaGyxWbM73GXV+aEIqHEdhNSYtU3fkdJtsoumDnuDZri4V/gXyTQ==" saltValue="s7PCd7LbdlozeCrYi6r4wQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="2">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:I3"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6445,20 +6426,20 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="8"/>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="24"/>
+      <c r="E1" s="27"/>
       <c r="F1" s="8"/>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="24"/>
+      <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -6585,4 +6566,118 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="DQUGja0DnPXWQ+h+EKUW5ebZur65T0vwyWmaGyxWbM73GXV+aEIqHEdhNSYtU3fkdJtsoumDnuDZri4V/gXyTQ==" saltValue="s7PCd7LbdlozeCrYi6r4wQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:I3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/TVV.xlsx
+++ b/TVV.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ValoresVenais" sheetId="3" r:id="rId1"/>
@@ -289,10 +289,10 @@
     <t>Escriturário</t>
   </si>
   <si>
-    <t>Liliam Aparecida de Lima</t>
-  </si>
-  <si>
     <t>Encarregada Da Central De Atendimento</t>
+  </si>
+  <si>
+    <t>Liliam Rodrigues de Lima</t>
   </si>
 </sst>
 </file>
@@ -448,16 +448,16 @@
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="2" builtinId="8"/>
@@ -1408,7 +1408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="C7" sqref="C7:AQ8"/>
     </sheetView>
   </sheetViews>
@@ -6426,20 +6426,20 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="8"/>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="27"/>
+      <c r="E1" s="26"/>
       <c r="F1" s="8"/>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="27"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -6572,8 +6572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6591,10 +6591,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="25" t="s">
         <v>82</v>
       </c>
     </row>
@@ -6608,10 +6608,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" t="s">
         <v>85</v>
-      </c>
-      <c r="B4" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -6633,17 +6633,17 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
@@ -6657,17 +6657,17 @@
       <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="DQUGja0DnPXWQ+h+EKUW5ebZur65T0vwyWmaGyxWbM73GXV+aEIqHEdhNSYtU3fkdJtsoumDnuDZri4V/gXyTQ==" saltValue="s7PCd7LbdlozeCrYi6r4wQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>

--- a/TVV.xlsx
+++ b/TVV.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="89">
   <si>
     <t>3607/2016</t>
   </si>
@@ -296,6 +296,9 @@
   </si>
   <si>
     <t>4695/2023</t>
+  </si>
+  <si>
+    <t>4749/2023</t>
   </si>
 </sst>
 </file>
@@ -305,7 +308,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -367,6 +370,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -405,7 +414,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -452,6 +461,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1081,8 +1093,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A1:AQ43" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
-  <autoFilter ref="A1:AQ43"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A1:AQ44" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+  <autoFilter ref="A1:AQ44"/>
   <tableColumns count="43">
     <tableColumn id="1" name="Ano" dataDxfId="42"/>
     <tableColumn id="2" name="Decreto" dataDxfId="41"/>
@@ -1409,10 +1421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ43"/>
+  <dimension ref="A1:AQ44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="X10" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:AN44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -6653,6 +6665,137 @@
         <v>2.88</v>
       </c>
     </row>
+    <row r="44" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A44" s="26">
+        <v>2024</v>
+      </c>
+      <c r="B44" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="28">
+        <v>326.51</v>
+      </c>
+      <c r="D44" s="28">
+        <v>261.23</v>
+      </c>
+      <c r="E44" s="28">
+        <v>195.88</v>
+      </c>
+      <c r="F44" s="28">
+        <v>156.59</v>
+      </c>
+      <c r="G44" s="28">
+        <v>130.56</v>
+      </c>
+      <c r="H44" s="28">
+        <v>104.51</v>
+      </c>
+      <c r="I44" s="28">
+        <v>91.28</v>
+      </c>
+      <c r="J44" s="28">
+        <v>78.25</v>
+      </c>
+      <c r="K44" s="28">
+        <v>68.5</v>
+      </c>
+      <c r="L44" s="28">
+        <v>0</v>
+      </c>
+      <c r="M44" s="28">
+        <v>0</v>
+      </c>
+      <c r="N44" s="28">
+        <v>0</v>
+      </c>
+      <c r="O44" s="28">
+        <v>0</v>
+      </c>
+      <c r="P44" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="28">
+        <v>0</v>
+      </c>
+      <c r="R44" s="28">
+        <v>0</v>
+      </c>
+      <c r="S44" s="28">
+        <v>0</v>
+      </c>
+      <c r="T44" s="28">
+        <v>0</v>
+      </c>
+      <c r="U44" s="28">
+        <v>0</v>
+      </c>
+      <c r="V44" s="28">
+        <v>0</v>
+      </c>
+      <c r="W44" s="28">
+        <v>146.22999999999999</v>
+      </c>
+      <c r="X44" s="28">
+        <v>324.98</v>
+      </c>
+      <c r="Y44" s="28">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="28">
+        <v>584.95000000000005</v>
+      </c>
+      <c r="AA44" s="28">
+        <v>812.42</v>
+      </c>
+      <c r="AB44" s="28">
+        <v>1137.43</v>
+      </c>
+      <c r="AC44" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="28">
+        <v>243.74</v>
+      </c>
+      <c r="AE44" s="28">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="28">
+        <v>536.21</v>
+      </c>
+      <c r="AG44" s="28">
+        <v>747.42</v>
+      </c>
+      <c r="AH44" s="28">
+        <v>0</v>
+      </c>
+      <c r="AI44" s="28">
+        <v>0</v>
+      </c>
+      <c r="AJ44" s="28">
+        <v>219.34</v>
+      </c>
+      <c r="AK44" s="28">
+        <v>0</v>
+      </c>
+      <c r="AL44" s="28">
+        <v>471.2</v>
+      </c>
+      <c r="AM44" s="28">
+        <v>617.42999999999995</v>
+      </c>
+      <c r="AN44" s="28">
+        <v>0</v>
+      </c>
+      <c r="AO44" s="28">
+        <v>0</v>
+      </c>
+      <c r="AP44" s="28">
+        <v>0</v>
+      </c>
+      <c r="AQ44" s="28">
+        <v>3.02</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -6674,20 +6817,20 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="29"/>
       <c r="C1" s="8"/>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="26"/>
+      <c r="E1" s="29"/>
       <c r="F1" s="8"/>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="26"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -6881,17 +7024,17 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
@@ -6905,17 +7048,17 @@
       <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="DQUGja0DnPXWQ+h+EKUW5ebZur65T0vwyWmaGyxWbM73GXV+aEIqHEdhNSYtU3fkdJtsoumDnuDZri4V/gXyTQ==" saltValue="s7PCd7LbdlozeCrYi6r4wQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>

--- a/TVV.xlsx
+++ b/TVV.xlsx
@@ -16,6 +16,7 @@
     <sheet name="Pontuação" sheetId="5" r:id="rId2"/>
     <sheet name="Cargos" sheetId="7" r:id="rId3"/>
     <sheet name="Site" sheetId="6" r:id="rId4"/>
+    <sheet name="Cálculo" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="90">
   <si>
     <t>3607/2016</t>
   </si>
@@ -299,14 +300,18 @@
   </si>
   <si>
     <t>4749/2023</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -374,6 +379,7 @@
       <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -409,12 +415,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -464,6 +471,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -473,17 +486,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Hiperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="45">
     <dxf>
@@ -1099,8 +1110,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A1:AQ45" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
-  <autoFilter ref="A1:AQ45"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A1:AQ46" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+  <autoFilter ref="A1:AQ46"/>
   <tableColumns count="43">
     <tableColumn id="1" name="Ano" dataDxfId="42"/>
     <tableColumn id="2" name="Decreto" dataDxfId="41"/>
@@ -1427,10 +1438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ45"/>
+  <dimension ref="A1:AQ46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2011,174 +2022,256 @@
         <v>1983</v>
       </c>
       <c r="B6" s="14"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="13"/>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="13"/>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="13"/>
-      <c r="AI6" s="13"/>
-      <c r="AJ6" s="13"/>
-      <c r="AK6" s="13"/>
-      <c r="AL6" s="13"/>
-      <c r="AM6" s="13"/>
-      <c r="AN6" s="13"/>
-      <c r="AO6" s="13"/>
-      <c r="AP6" s="13"/>
-      <c r="AQ6" s="18"/>
+      <c r="C6" s="13">
+        <v>8855.34</v>
+      </c>
+      <c r="D6" s="13">
+        <v>7085.03</v>
+      </c>
+      <c r="E6" s="13">
+        <v>5312.2</v>
+      </c>
+      <c r="F6" s="13">
+        <v>4246.62</v>
+      </c>
+      <c r="G6" s="13">
+        <v>3540.94</v>
+      </c>
+      <c r="H6" s="13">
+        <v>2833.7</v>
+      </c>
+      <c r="I6" s="13">
+        <v>2475.36</v>
+      </c>
+      <c r="J6" s="13">
+        <v>2122.0500000000002</v>
+      </c>
+      <c r="K6" s="13">
+        <v>1768.43</v>
+      </c>
+      <c r="L6" s="13">
+        <v>0</v>
+      </c>
+      <c r="M6" s="13">
+        <v>1684.9016954520282</v>
+      </c>
+      <c r="N6" s="13">
+        <v>0</v>
+      </c>
+      <c r="O6" s="13">
+        <v>0</v>
+      </c>
+      <c r="P6" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>0</v>
+      </c>
+      <c r="R6" s="13">
+        <v>0</v>
+      </c>
+      <c r="S6" s="13">
+        <v>0</v>
+      </c>
+      <c r="T6" s="13">
+        <v>0</v>
+      </c>
+      <c r="U6" s="13">
+        <v>0</v>
+      </c>
+      <c r="V6" s="13">
+        <v>0</v>
+      </c>
+      <c r="W6" s="13">
+        <v>4092.413781176841</v>
+      </c>
+      <c r="X6" s="13">
+        <v>9093.928515645699</v>
+      </c>
+      <c r="Y6" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="13">
+        <v>16369.006461879471</v>
+      </c>
+      <c r="AA6" s="13">
+        <v>22734.334791993333</v>
+      </c>
+      <c r="AB6" s="13">
+        <v>31828.587639052981</v>
+      </c>
+      <c r="AC6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="13">
+        <v>6820.3653038807888</v>
+      </c>
+      <c r="AE6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="13">
+        <v>15004.544203406576</v>
+      </c>
+      <c r="AG6" s="13">
+        <v>20915.159891167455</v>
+      </c>
+      <c r="AH6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="13">
+        <v>6137.9720089373686</v>
+      </c>
+      <c r="AK6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="13">
+        <v>13185.693633994648</v>
+      </c>
+      <c r="AM6" s="13">
+        <v>17278.107415171489</v>
+      </c>
+      <c r="AN6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="13">
+        <v>80.434190658730117</v>
+      </c>
+      <c r="AP6" s="13">
+        <v>3628.9441906473035</v>
+      </c>
+      <c r="AQ6" s="18">
+        <v>84.326167626088022</v>
+      </c>
     </row>
     <row r="7" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="26">
         <v>1984</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="33">
+      <c r="B7" s="29"/>
+      <c r="C7" s="30">
         <v>23363.5</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="30">
         <v>18690.8</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="30">
         <v>14018.1</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="30">
         <v>11214.48</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="30">
         <v>9345.4</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="30">
         <v>7476.32</v>
       </c>
-      <c r="I7" s="33">
+      <c r="I7" s="30">
         <v>6541.78</v>
       </c>
-      <c r="J7" s="33">
+      <c r="J7" s="30">
         <v>5607.24</v>
       </c>
-      <c r="K7" s="33">
+      <c r="K7" s="30">
         <v>4672.7</v>
       </c>
-      <c r="L7" s="33">
-        <v>0</v>
-      </c>
-      <c r="M7" s="33">
+      <c r="L7" s="30">
+        <v>0</v>
+      </c>
+      <c r="M7" s="30">
         <v>3738.16</v>
       </c>
-      <c r="N7" s="33">
+      <c r="N7" s="30">
         <v>2803.62</v>
       </c>
-      <c r="O7" s="33">
-        <v>0</v>
-      </c>
-      <c r="P7" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="33">
+      <c r="O7" s="30">
+        <v>0</v>
+      </c>
+      <c r="P7" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="30">
         <v>1869.08</v>
       </c>
-      <c r="R7" s="33">
+      <c r="R7" s="30">
         <v>934.54</v>
       </c>
-      <c r="S7" s="33">
-        <v>0</v>
-      </c>
-      <c r="T7" s="33">
-        <v>0</v>
-      </c>
-      <c r="U7" s="33">
-        <v>0</v>
-      </c>
-      <c r="V7" s="33">
-        <v>0</v>
-      </c>
-      <c r="W7" s="33">
+      <c r="S7" s="30">
+        <v>0</v>
+      </c>
+      <c r="T7" s="30">
+        <v>0</v>
+      </c>
+      <c r="U7" s="30">
+        <v>0</v>
+      </c>
+      <c r="V7" s="30">
+        <v>0</v>
+      </c>
+      <c r="W7" s="30">
         <v>7225.86</v>
       </c>
-      <c r="X7" s="33">
+      <c r="X7" s="30">
         <v>15277.86</v>
       </c>
-      <c r="Y7" s="33">
+      <c r="Y7" s="30">
         <v>24055.06</v>
       </c>
-      <c r="Z7" s="33">
+      <c r="Z7" s="30">
         <v>33531.300000000003</v>
       </c>
-      <c r="AA7" s="33">
+      <c r="AA7" s="30">
         <v>43269.21</v>
       </c>
-      <c r="AB7" s="33">
+      <c r="AB7" s="30">
         <v>57586.36</v>
       </c>
-      <c r="AC7" s="33">
+      <c r="AC7" s="30">
         <v>9476.24</v>
       </c>
-      <c r="AD7" s="33">
+      <c r="AD7" s="30">
         <v>14335.85</v>
       </c>
-      <c r="AE7" s="33">
+      <c r="AE7" s="30">
         <v>28671.69</v>
       </c>
-      <c r="AF7" s="33">
+      <c r="AF7" s="30">
         <v>38390.910000000003</v>
       </c>
-      <c r="AG7" s="33">
+      <c r="AG7" s="30">
         <v>52969.73</v>
       </c>
-      <c r="AH7" s="33">
+      <c r="AH7" s="30">
         <v>62445.97</v>
       </c>
-      <c r="AI7" s="33">
+      <c r="AI7" s="30">
         <v>7225.86</v>
       </c>
-      <c r="AJ7" s="33">
+      <c r="AJ7" s="30">
         <v>15277.86</v>
       </c>
-      <c r="AK7" s="33">
+      <c r="AK7" s="30">
         <v>24055.06</v>
       </c>
-      <c r="AL7" s="33">
+      <c r="AL7" s="30">
         <v>33531.300000000003</v>
       </c>
-      <c r="AM7" s="33">
+      <c r="AM7" s="30">
         <v>43269.21</v>
       </c>
-      <c r="AN7" s="33">
+      <c r="AN7" s="30">
         <v>57586.36</v>
       </c>
-      <c r="AO7" s="33">
+      <c r="AO7" s="30">
         <v>206.02</v>
       </c>
-      <c r="AP7" s="33">
+      <c r="AP7" s="30">
         <v>9285.49</v>
       </c>
-      <c r="AQ7" s="33">
+      <c r="AQ7" s="30">
         <v>215.74</v>
       </c>
     </row>
@@ -2312,284 +2405,314 @@
       </c>
     </row>
     <row r="9" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="22">
-        <v>1988</v>
-      </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="24">
-        <v>2100.15</v>
-      </c>
-      <c r="D9" s="24">
-        <v>1680.3</v>
-      </c>
-      <c r="E9" s="24">
-        <v>1259.8499999999999</v>
-      </c>
-      <c r="F9" s="24">
-        <v>1007.13</v>
-      </c>
-      <c r="G9" s="24">
-        <v>839.78</v>
-      </c>
-      <c r="H9" s="24">
-        <v>672.04</v>
-      </c>
-      <c r="I9" s="24">
-        <v>587.05999999999995</v>
-      </c>
-      <c r="J9" s="24">
-        <v>503.27</v>
-      </c>
-      <c r="K9" s="24">
-        <v>419.4</v>
-      </c>
-      <c r="L9" s="24">
-        <v>0</v>
-      </c>
-      <c r="M9" s="24">
-        <v>335.8</v>
-      </c>
-      <c r="N9" s="24">
-        <v>251.85</v>
-      </c>
-      <c r="O9" s="24">
-        <v>0</v>
-      </c>
-      <c r="P9" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="24">
-        <v>167.9</v>
-      </c>
-      <c r="R9" s="24">
-        <v>83.95</v>
-      </c>
-      <c r="S9" s="24">
-        <v>0</v>
-      </c>
-      <c r="T9" s="24">
-        <v>0</v>
-      </c>
-      <c r="U9" s="24">
-        <v>0</v>
-      </c>
-      <c r="V9" s="24">
-        <v>0</v>
-      </c>
-      <c r="W9" s="24">
-        <v>649.1</v>
-      </c>
-      <c r="X9" s="24">
-        <v>1372.41</v>
-      </c>
-      <c r="Y9" s="24">
-        <v>2160.86</v>
-      </c>
-      <c r="Z9" s="24">
-        <v>3012.11</v>
-      </c>
-      <c r="AA9" s="24">
-        <v>3886.86</v>
-      </c>
-      <c r="AB9" s="24">
-        <v>5172.97</v>
-      </c>
-      <c r="AC9" s="24">
-        <v>851.25</v>
-      </c>
-      <c r="AD9" s="24">
-        <v>1287.79</v>
-      </c>
-      <c r="AE9" s="24">
-        <v>2575.5700000000002</v>
-      </c>
-      <c r="AF9" s="24">
-        <v>3448.65</v>
-      </c>
-      <c r="AG9" s="24">
-        <v>4758.26</v>
-      </c>
-      <c r="AH9" s="24">
-        <v>5609.51</v>
-      </c>
-      <c r="AI9" s="24">
-        <v>649.1</v>
-      </c>
-      <c r="AJ9" s="24">
-        <v>1372.41</v>
-      </c>
-      <c r="AK9" s="24">
-        <v>2160.86</v>
-      </c>
-      <c r="AL9" s="24">
-        <v>3012.11</v>
-      </c>
-      <c r="AM9" s="24">
-        <v>3886.86</v>
-      </c>
-      <c r="AN9" s="24">
-        <v>5172.97</v>
-      </c>
-      <c r="AO9" s="24">
-        <v>18.510000000000002</v>
-      </c>
-      <c r="AP9" s="24">
-        <v>834.11</v>
-      </c>
-      <c r="AQ9" s="24">
-        <v>19.38</v>
+      <c r="A9" s="6">
+        <v>1987</v>
+      </c>
+      <c r="C9" s="4">
+        <v>453.19</v>
+      </c>
+      <c r="D9" s="4">
+        <v>362.59</v>
+      </c>
+      <c r="E9" s="4">
+        <v>271.86</v>
+      </c>
+      <c r="F9" s="4">
+        <v>217.33</v>
+      </c>
+      <c r="G9" s="4">
+        <v>181.22</v>
+      </c>
+      <c r="H9" s="4">
+        <v>145.02000000000001</v>
+      </c>
+      <c r="I9" s="4">
+        <v>126.68</v>
+      </c>
+      <c r="J9" s="4">
+        <v>108.6</v>
+      </c>
+      <c r="K9" s="4">
+        <v>90.5</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
+        <v>135.51933712758125</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0</v>
+      </c>
+      <c r="P9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>0</v>
+      </c>
+      <c r="R9" s="4">
+        <v>0</v>
+      </c>
+      <c r="S9" s="4">
+        <v>0</v>
+      </c>
+      <c r="T9" s="4">
+        <v>0</v>
+      </c>
+      <c r="U9" s="4">
+        <v>0</v>
+      </c>
+      <c r="V9" s="4">
+        <v>0</v>
+      </c>
+      <c r="W9" s="4">
+        <v>329.15938322922432</v>
+      </c>
+      <c r="X9" s="4">
+        <v>731.43920957078933</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>1316.5853599285902</v>
+      </c>
+      <c r="AA9" s="4">
+        <v>1828.5588941857432</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>2560.0241902506859</v>
+      </c>
+      <c r="AC9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="4">
+        <v>548.57288555455364</v>
+      </c>
+      <c r="AE9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="4">
+        <v>1206.8394790246953</v>
+      </c>
+      <c r="AG9" s="4">
+        <v>1682.2397484786011</v>
+      </c>
+      <c r="AH9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="4">
+        <v>493.68690185552941</v>
+      </c>
+      <c r="AK9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="4">
+        <v>1060.5464198117068</v>
+      </c>
+      <c r="AM9" s="4">
+        <v>1389.705803040931</v>
+      </c>
+      <c r="AN9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="4">
+        <v>6.4694505500751012</v>
+      </c>
+      <c r="AP9" s="4">
+        <v>291.88178308383186</v>
+      </c>
+      <c r="AQ9" s="4">
+        <v>6.7824884799174452</v>
       </c>
     </row>
     <row r="10" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
-        <v>1989</v>
-      </c>
-      <c r="C10" s="4">
-        <v>1351</v>
-      </c>
-      <c r="D10" s="4">
-        <v>1049</v>
-      </c>
-      <c r="E10" s="4">
-        <v>755</v>
-      </c>
-      <c r="F10" s="4">
-        <v>604</v>
-      </c>
-      <c r="G10" s="4">
-        <v>453</v>
-      </c>
-      <c r="H10" s="4">
-        <v>373</v>
-      </c>
-      <c r="I10" s="4">
-        <v>302</v>
-      </c>
-      <c r="J10" s="4">
-        <v>222</v>
-      </c>
-      <c r="K10" s="4">
-        <v>177</v>
-      </c>
-      <c r="L10" s="4">
-        <v>0</v>
-      </c>
-      <c r="M10" s="4">
-        <v>151</v>
-      </c>
-      <c r="N10" s="4">
-        <v>133</v>
-      </c>
-      <c r="O10" s="4">
-        <v>0</v>
-      </c>
-      <c r="P10" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="4">
-        <v>106</v>
-      </c>
-      <c r="R10" s="4">
-        <v>71</v>
-      </c>
-      <c r="S10" s="4">
-        <v>0</v>
-      </c>
-      <c r="T10" s="4">
-        <v>0</v>
-      </c>
-      <c r="U10" s="4">
-        <v>0</v>
-      </c>
-      <c r="V10" s="4">
-        <v>0</v>
-      </c>
-      <c r="W10" s="4">
-        <v>1511</v>
-      </c>
-      <c r="X10" s="4">
-        <v>2107</v>
-      </c>
-      <c r="Y10" s="4">
-        <v>3014</v>
-      </c>
-      <c r="Z10" s="4">
-        <v>4524</v>
-      </c>
-      <c r="AA10" s="4">
-        <v>6037</v>
-      </c>
-      <c r="AB10" s="4">
-        <v>8296</v>
-      </c>
-      <c r="AC10" s="4">
-        <v>1813</v>
-      </c>
-      <c r="AD10" s="4">
-        <v>2258</v>
-      </c>
-      <c r="AE10" s="4">
-        <v>3770</v>
-      </c>
-      <c r="AF10" s="4">
-        <v>5281</v>
-      </c>
-      <c r="AG10" s="4">
-        <v>6793</v>
-      </c>
-      <c r="AH10" s="4">
-        <v>9051</v>
-      </c>
-      <c r="AI10" s="4">
-        <v>1613</v>
-      </c>
-      <c r="AJ10" s="4">
-        <v>1813</v>
-      </c>
-      <c r="AK10" s="4">
-        <v>2712</v>
-      </c>
-      <c r="AL10" s="4">
-        <v>4223</v>
-      </c>
-      <c r="AM10" s="4">
-        <v>4525</v>
-      </c>
-      <c r="AN10" s="4">
-        <v>6037</v>
-      </c>
-      <c r="AO10" s="4"/>
-      <c r="AP10" s="4"/>
-      <c r="AQ10" s="18"/>
+      <c r="A10" s="22">
+        <v>1988</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="24">
+        <v>2100.15</v>
+      </c>
+      <c r="D10" s="24">
+        <v>1680.3</v>
+      </c>
+      <c r="E10" s="24">
+        <v>1259.8499999999999</v>
+      </c>
+      <c r="F10" s="24">
+        <v>1007.13</v>
+      </c>
+      <c r="G10" s="24">
+        <v>839.78</v>
+      </c>
+      <c r="H10" s="24">
+        <v>672.04</v>
+      </c>
+      <c r="I10" s="24">
+        <v>587.05999999999995</v>
+      </c>
+      <c r="J10" s="24">
+        <v>503.27</v>
+      </c>
+      <c r="K10" s="24">
+        <v>419.4</v>
+      </c>
+      <c r="L10" s="24">
+        <v>0</v>
+      </c>
+      <c r="M10" s="24">
+        <v>335.8</v>
+      </c>
+      <c r="N10" s="24">
+        <v>251.85</v>
+      </c>
+      <c r="O10" s="24">
+        <v>0</v>
+      </c>
+      <c r="P10" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="24">
+        <v>167.9</v>
+      </c>
+      <c r="R10" s="24">
+        <v>83.95</v>
+      </c>
+      <c r="S10" s="24">
+        <v>0</v>
+      </c>
+      <c r="T10" s="24">
+        <v>0</v>
+      </c>
+      <c r="U10" s="24">
+        <v>0</v>
+      </c>
+      <c r="V10" s="24">
+        <v>0</v>
+      </c>
+      <c r="W10" s="24">
+        <v>649.1</v>
+      </c>
+      <c r="X10" s="24">
+        <v>1372.41</v>
+      </c>
+      <c r="Y10" s="24">
+        <v>2160.86</v>
+      </c>
+      <c r="Z10" s="24">
+        <v>3012.11</v>
+      </c>
+      <c r="AA10" s="24">
+        <v>3886.86</v>
+      </c>
+      <c r="AB10" s="24">
+        <v>5172.97</v>
+      </c>
+      <c r="AC10" s="24">
+        <v>851.25</v>
+      </c>
+      <c r="AD10" s="24">
+        <v>1287.79</v>
+      </c>
+      <c r="AE10" s="24">
+        <v>2575.5700000000002</v>
+      </c>
+      <c r="AF10" s="24">
+        <v>3448.65</v>
+      </c>
+      <c r="AG10" s="24">
+        <v>4758.26</v>
+      </c>
+      <c r="AH10" s="24">
+        <v>5609.51</v>
+      </c>
+      <c r="AI10" s="24">
+        <v>649.1</v>
+      </c>
+      <c r="AJ10" s="24">
+        <v>1372.41</v>
+      </c>
+      <c r="AK10" s="24">
+        <v>2160.86</v>
+      </c>
+      <c r="AL10" s="24">
+        <v>3012.11</v>
+      </c>
+      <c r="AM10" s="24">
+        <v>3886.86</v>
+      </c>
+      <c r="AN10" s="24">
+        <v>5172.97</v>
+      </c>
+      <c r="AO10" s="24">
+        <v>18.510000000000002</v>
+      </c>
+      <c r="AP10" s="24">
+        <v>834.11</v>
+      </c>
+      <c r="AQ10" s="24">
+        <v>19.38</v>
+      </c>
     </row>
     <row r="11" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
-        <v>1990</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
+        <v>1989</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1351</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1049</v>
+      </c>
+      <c r="E11" s="4">
+        <v>755</v>
+      </c>
+      <c r="F11" s="4">
+        <v>604</v>
+      </c>
+      <c r="G11" s="4">
+        <v>453</v>
+      </c>
+      <c r="H11" s="4">
+        <v>373</v>
+      </c>
+      <c r="I11" s="4">
+        <v>302</v>
+      </c>
       <c r="J11" s="4">
-        <v>111.17</v>
-      </c>
-      <c r="K11" s="4"/>
+        <v>222</v>
+      </c>
+      <c r="K11" s="4">
+        <v>177</v>
+      </c>
       <c r="L11" s="4">
         <v>0</v>
       </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
+      <c r="M11" s="4">
+        <v>151</v>
+      </c>
+      <c r="N11" s="4">
+        <v>133</v>
+      </c>
       <c r="O11" s="4">
         <v>0</v>
       </c>
       <c r="P11" s="4">
         <v>0</v>
       </c>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
+      <c r="Q11" s="4">
+        <v>106</v>
+      </c>
+      <c r="R11" s="4">
+        <v>71</v>
+      </c>
       <c r="S11" s="4">
         <v>0</v>
       </c>
@@ -2602,82 +2725,92 @@
       <c r="V11" s="4">
         <v>0</v>
       </c>
-      <c r="W11" s="4"/>
+      <c r="W11" s="4">
+        <v>1511</v>
+      </c>
       <c r="X11" s="4">
-        <v>461.74</v>
-      </c>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="4"/>
-      <c r="AC11" s="4"/>
-      <c r="AD11" s="4"/>
-      <c r="AE11" s="4"/>
-      <c r="AF11" s="4"/>
-      <c r="AG11" s="4"/>
-      <c r="AH11" s="4"/>
-      <c r="AI11" s="4"/>
-      <c r="AJ11" s="4"/>
-      <c r="AK11" s="4"/>
-      <c r="AL11" s="4"/>
-      <c r="AM11" s="4"/>
-      <c r="AN11" s="4"/>
+        <v>2107</v>
+      </c>
+      <c r="Y11" s="4">
+        <v>3014</v>
+      </c>
+      <c r="Z11" s="4">
+        <v>4524</v>
+      </c>
+      <c r="AA11" s="4">
+        <v>6037</v>
+      </c>
+      <c r="AB11" s="4">
+        <v>8296</v>
+      </c>
+      <c r="AC11" s="4">
+        <v>1813</v>
+      </c>
+      <c r="AD11" s="4">
+        <v>2258</v>
+      </c>
+      <c r="AE11" s="4">
+        <v>3770</v>
+      </c>
+      <c r="AF11" s="4">
+        <v>5281</v>
+      </c>
+      <c r="AG11" s="4">
+        <v>6793</v>
+      </c>
+      <c r="AH11" s="4">
+        <v>9051</v>
+      </c>
+      <c r="AI11" s="4">
+        <v>1613</v>
+      </c>
+      <c r="AJ11" s="4">
+        <v>1813</v>
+      </c>
+      <c r="AK11" s="4">
+        <v>2712</v>
+      </c>
+      <c r="AL11" s="4">
+        <v>4223</v>
+      </c>
+      <c r="AM11" s="4">
+        <v>4525</v>
+      </c>
+      <c r="AN11" s="4">
+        <v>6037</v>
+      </c>
       <c r="AO11" s="4"/>
       <c r="AP11" s="4"/>
       <c r="AQ11" s="18"/>
     </row>
     <row r="12" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
-        <v>1991</v>
-      </c>
-      <c r="C12" s="4">
-        <v>4524.09</v>
-      </c>
-      <c r="D12" s="4">
-        <v>3619.65</v>
-      </c>
-      <c r="E12" s="4">
-        <v>2713.94</v>
-      </c>
-      <c r="F12" s="4">
-        <v>2169.54</v>
-      </c>
-      <c r="G12" s="4">
-        <v>1809.02</v>
-      </c>
-      <c r="H12" s="4">
-        <v>1447.7</v>
-      </c>
-      <c r="I12" s="4">
-        <v>1264.6300000000001</v>
-      </c>
+        <v>1990</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
       <c r="J12" s="4">
-        <v>1084.1300000000001</v>
-      </c>
-      <c r="K12" s="4">
-        <v>903.47</v>
-      </c>
+        <v>111.17</v>
+      </c>
+      <c r="K12" s="4"/>
       <c r="L12" s="4">
         <v>0</v>
       </c>
-      <c r="M12" s="4">
-        <v>834.25</v>
-      </c>
-      <c r="N12" s="4">
-        <v>604.96245813883706</v>
-      </c>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
       <c r="O12" s="4">
         <v>0</v>
       </c>
       <c r="P12" s="4">
         <v>0</v>
       </c>
-      <c r="Q12" s="4">
-        <v>403.30830542589138</v>
-      </c>
-      <c r="R12" s="4">
-        <v>201.65415271294569</v>
-      </c>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
       <c r="S12" s="4">
         <v>0</v>
       </c>
@@ -2690,109 +2823,69 @@
       <c r="V12" s="4">
         <v>0</v>
       </c>
-      <c r="W12" s="4">
-        <v>2026.3</v>
-      </c>
+      <c r="W12" s="4"/>
       <c r="X12" s="4">
-        <v>4502.7299999999996</v>
-      </c>
-      <c r="Y12" s="4">
-        <v>5190.5778908312213</v>
-      </c>
-      <c r="Z12" s="4">
-        <v>8104.88</v>
-      </c>
-      <c r="AA12" s="4">
-        <v>11256.58</v>
-      </c>
-      <c r="AB12" s="4">
-        <v>15759.47</v>
-      </c>
-      <c r="AC12" s="4">
-        <v>2044.7731085092692</v>
-      </c>
-      <c r="AD12" s="4">
-        <v>3377.01</v>
-      </c>
-      <c r="AE12" s="4">
-        <v>6186.7494052331731</v>
-      </c>
-      <c r="AF12" s="4">
-        <v>7429.28</v>
-      </c>
-      <c r="AG12" s="4">
-        <v>10355.84</v>
-      </c>
-      <c r="AH12" s="4">
-        <v>13474.53048427903</v>
-      </c>
-      <c r="AI12" s="4">
-        <v>1559.1899087764959</v>
-      </c>
-      <c r="AJ12" s="4">
-        <v>3039.13</v>
-      </c>
-      <c r="AK12" s="4">
-        <v>5190.5778908312213</v>
-      </c>
-      <c r="AL12" s="4">
-        <v>6528.71</v>
-      </c>
-      <c r="AM12" s="4">
-        <v>8555.01</v>
-      </c>
-      <c r="AN12" s="4">
-        <v>12425.928890171712</v>
-      </c>
-      <c r="AO12" s="4">
-        <v>39.83</v>
-      </c>
-      <c r="AP12" s="4">
-        <v>1796.82</v>
-      </c>
-      <c r="AQ12" s="18">
-        <v>41.75</v>
-      </c>
+        <v>461.74</v>
+      </c>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="4"/>
+      <c r="AL12" s="4"/>
+      <c r="AM12" s="4"/>
+      <c r="AN12" s="4"/>
+      <c r="AO12" s="4"/>
+      <c r="AP12" s="4"/>
+      <c r="AQ12" s="18"/>
     </row>
     <row r="13" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="C13" s="4">
-        <v>45725.39</v>
+        <v>4524.09</v>
       </c>
       <c r="D13" s="4">
-        <v>36583.199999999997</v>
+        <v>3619.65</v>
       </c>
       <c r="E13" s="4">
-        <v>27430.19</v>
+        <v>2713.94</v>
       </c>
       <c r="F13" s="4">
-        <v>21927.23</v>
+        <v>2169.54</v>
       </c>
       <c r="G13" s="4">
-        <v>18284.400000000001</v>
+        <v>1809.02</v>
       </c>
       <c r="H13" s="4">
-        <v>14632.56</v>
+        <v>1447.7</v>
       </c>
       <c r="I13" s="4">
-        <v>12781.43</v>
+        <v>1264.6300000000001</v>
       </c>
       <c r="J13" s="4">
-        <v>10957.31</v>
+        <v>1084.1300000000001</v>
       </c>
       <c r="K13" s="4">
-        <v>9131.39</v>
+        <v>903.47</v>
       </c>
       <c r="L13" s="4">
         <v>0</v>
       </c>
       <c r="M13" s="4">
-        <v>7278.46</v>
+        <v>834.25</v>
       </c>
       <c r="N13" s="4">
-        <v>7118.2</v>
+        <v>604.96245813883706</v>
       </c>
       <c r="O13" s="4">
         <v>0</v>
@@ -2801,10 +2894,10 @@
         <v>0</v>
       </c>
       <c r="Q13" s="4">
-        <v>4029.7908005637801</v>
+        <v>403.30830542589138</v>
       </c>
       <c r="R13" s="4">
-        <v>2014.89540028189</v>
+        <v>201.65415271294569</v>
       </c>
       <c r="S13" s="4">
         <v>0</v>
@@ -2819,108 +2912,108 @@
         <v>0</v>
       </c>
       <c r="W13" s="4">
-        <v>20479.46</v>
+        <v>2026.3</v>
       </c>
       <c r="X13" s="4">
-        <v>45509.31</v>
+        <v>4502.7299999999996</v>
       </c>
       <c r="Y13" s="4">
-        <v>51863.407603255844</v>
+        <v>5190.5778908312213</v>
       </c>
       <c r="Z13" s="4">
-        <v>80982.638899993806</v>
+        <v>8104.88</v>
       </c>
       <c r="AA13" s="4">
-        <v>112473.91119780825</v>
+        <v>11256.58</v>
       </c>
       <c r="AB13" s="4">
-        <v>157466.05357084685</v>
+        <v>15759.47</v>
       </c>
       <c r="AC13" s="4">
-        <v>20431.039358858365</v>
+        <v>2044.7731085092692</v>
       </c>
       <c r="AD13" s="4">
-        <v>33742.533065470197</v>
+        <v>3377.01</v>
       </c>
       <c r="AE13" s="4">
-        <v>61816.99088064838</v>
+        <v>6186.7494052331731</v>
       </c>
       <c r="AF13" s="4">
-        <v>74232.153903197323</v>
+        <v>7429.28</v>
       </c>
       <c r="AG13" s="4">
-        <v>103473.86404562581</v>
+        <v>10355.84</v>
       </c>
       <c r="AH13" s="4">
-        <v>134635.31064683589</v>
+        <v>13474.53048427903</v>
       </c>
       <c r="AI13" s="4">
-        <v>15579.171234979573</v>
+        <v>1559.1899087764959</v>
       </c>
       <c r="AJ13" s="4">
-        <v>30366.491220121479</v>
+        <v>3039.13</v>
       </c>
       <c r="AK13" s="4">
-        <v>51863.407603255844</v>
+        <v>5190.5778908312213</v>
       </c>
       <c r="AL13" s="4">
-        <v>65233.80536328465</v>
+        <v>6528.71</v>
       </c>
       <c r="AM13" s="4">
-        <v>85480.264435233577</v>
+        <v>8555.01</v>
       </c>
       <c r="AN13" s="4">
-        <v>124157.85456537006</v>
+        <v>12425.928890171712</v>
       </c>
       <c r="AO13" s="4">
-        <v>397.97486296980992</v>
+        <v>39.83</v>
       </c>
       <c r="AP13" s="4">
-        <v>17953.532344499468</v>
+        <v>1796.82</v>
       </c>
       <c r="AQ13" s="18">
-        <v>417.15918978130969</v>
+        <v>41.75</v>
       </c>
     </row>
     <row r="14" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="C14" s="4">
-        <v>275000</v>
+        <v>45725.39</v>
       </c>
       <c r="D14" s="4">
-        <v>220000</v>
+        <v>36583.199999999997</v>
       </c>
       <c r="E14" s="4">
-        <v>165000</v>
+        <v>27430.19</v>
       </c>
       <c r="F14" s="4">
-        <v>132000</v>
+        <v>21927.23</v>
       </c>
       <c r="G14" s="4">
-        <v>110000</v>
+        <v>18284.400000000001</v>
       </c>
       <c r="H14" s="4">
-        <v>88000</v>
+        <v>14632.56</v>
       </c>
       <c r="I14" s="4">
-        <v>77000</v>
+        <v>12781.43</v>
       </c>
       <c r="J14" s="4">
-        <v>66000</v>
+        <v>10957.31</v>
       </c>
       <c r="K14" s="4">
-        <v>55000</v>
+        <v>9131.39</v>
       </c>
       <c r="L14" s="4">
         <v>0</v>
       </c>
       <c r="M14" s="4">
-        <v>44000</v>
+        <v>7278.46</v>
       </c>
       <c r="N14" s="4">
-        <v>33000</v>
+        <v>7118.2</v>
       </c>
       <c r="O14" s="4">
         <v>0</v>
@@ -2929,10 +3022,10 @@
         <v>0</v>
       </c>
       <c r="Q14" s="4">
-        <v>22000</v>
+        <v>4029.7908005637801</v>
       </c>
       <c r="R14" s="4">
-        <v>11000</v>
+        <v>2014.89540028189</v>
       </c>
       <c r="S14" s="4">
         <v>0</v>
@@ -2947,108 +3040,108 @@
         <v>0</v>
       </c>
       <c r="W14" s="4">
-        <v>85052</v>
+        <v>20479.46</v>
       </c>
       <c r="X14" s="4">
-        <v>179828</v>
+        <v>45509.31</v>
       </c>
       <c r="Y14" s="4">
-        <v>283140</v>
+        <v>51863.407603255844</v>
       </c>
       <c r="Z14" s="4">
-        <v>394680</v>
+        <v>80982.638899993806</v>
       </c>
       <c r="AA14" s="4">
-        <v>509300</v>
+        <v>112473.91119780825</v>
       </c>
       <c r="AB14" s="4">
-        <v>677820</v>
+        <v>157466.05357084685</v>
       </c>
       <c r="AC14" s="4">
-        <v>111540</v>
+        <v>20431.039358858365</v>
       </c>
       <c r="AD14" s="4">
-        <v>168740</v>
+        <v>33742.533065470197</v>
       </c>
       <c r="AE14" s="4">
-        <v>337480</v>
+        <v>61816.99088064838</v>
       </c>
       <c r="AF14" s="4">
-        <v>451880</v>
+        <v>74232.153903197323</v>
       </c>
       <c r="AG14" s="4">
-        <v>623480</v>
+        <v>103473.86404562581</v>
       </c>
       <c r="AH14" s="4">
-        <v>735020</v>
+        <v>134635.31064683589</v>
       </c>
       <c r="AI14" s="4">
-        <v>85052</v>
+        <v>15579.171234979573</v>
       </c>
       <c r="AJ14" s="4">
-        <v>179828</v>
+        <v>30366.491220121479</v>
       </c>
       <c r="AK14" s="4">
-        <v>283140</v>
+        <v>51863.407603255844</v>
       </c>
       <c r="AL14" s="4">
-        <v>394680</v>
+        <v>65233.80536328465</v>
       </c>
       <c r="AM14" s="4">
-        <v>509300</v>
+        <v>85480.264435233577</v>
       </c>
       <c r="AN14" s="4">
-        <v>677820</v>
+        <v>124157.85456537006</v>
       </c>
       <c r="AO14" s="4">
-        <v>2172.6802751425471</v>
+        <v>397.97486296980992</v>
       </c>
       <c r="AP14" s="4">
-        <v>98014.445693739166</v>
+        <v>17953.532344499468</v>
       </c>
       <c r="AQ14" s="18">
-        <v>2277.4140468792702</v>
+        <v>417.15918978130969</v>
       </c>
     </row>
     <row r="15" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="C15" s="4">
-        <v>8087</v>
+        <v>275000</v>
       </c>
       <c r="D15" s="4">
-        <v>6470</v>
+        <v>220000</v>
       </c>
       <c r="E15" s="4">
-        <v>4852</v>
+        <v>165000</v>
       </c>
       <c r="F15" s="4">
-        <v>3880</v>
+        <v>132000</v>
       </c>
       <c r="G15" s="4">
-        <v>3235</v>
+        <v>110000</v>
       </c>
       <c r="H15" s="4">
-        <v>2588</v>
+        <v>88000</v>
       </c>
       <c r="I15" s="4">
-        <v>2260</v>
+        <v>77000</v>
       </c>
       <c r="J15" s="4">
-        <v>1940</v>
+        <v>66000</v>
       </c>
       <c r="K15" s="4">
-        <v>1617</v>
+        <v>55000</v>
       </c>
       <c r="L15" s="4">
         <v>0</v>
       </c>
       <c r="M15" s="4">
-        <v>1290</v>
+        <v>44000</v>
       </c>
       <c r="N15" s="4">
-        <v>970</v>
+        <v>33000</v>
       </c>
       <c r="O15" s="4">
         <v>0</v>
@@ -3057,10 +3150,10 @@
         <v>0</v>
       </c>
       <c r="Q15" s="4">
-        <v>647</v>
+        <v>22000</v>
       </c>
       <c r="R15" s="4">
-        <v>323</v>
+        <v>11000</v>
       </c>
       <c r="S15" s="4">
         <v>0</v>
@@ -3075,102 +3168,108 @@
         <v>0</v>
       </c>
       <c r="W15" s="4">
-        <v>2500</v>
+        <v>85052</v>
       </c>
       <c r="X15" s="4">
-        <v>5280</v>
+        <v>179828</v>
       </c>
       <c r="Y15" s="4">
-        <v>8320</v>
+        <v>283140</v>
       </c>
       <c r="Z15" s="4">
-        <v>11600</v>
+        <v>394680</v>
       </c>
       <c r="AA15" s="4">
-        <v>14970</v>
+        <v>509300</v>
       </c>
       <c r="AB15" s="4">
-        <v>19930</v>
+        <v>677820</v>
       </c>
       <c r="AC15" s="4">
-        <v>3280</v>
+        <v>111540</v>
       </c>
       <c r="AD15" s="4">
-        <v>4960</v>
+        <v>168740</v>
       </c>
       <c r="AE15" s="4">
-        <v>9920</v>
+        <v>337480</v>
       </c>
       <c r="AF15" s="4">
-        <v>13290</v>
+        <v>451880</v>
       </c>
       <c r="AG15" s="4">
-        <v>18330</v>
+        <v>623480</v>
       </c>
       <c r="AH15" s="4">
-        <v>21600</v>
+        <v>735020</v>
       </c>
       <c r="AI15" s="4">
-        <v>2500</v>
+        <v>85052</v>
       </c>
       <c r="AJ15" s="4">
-        <v>5280</v>
+        <v>179828</v>
       </c>
       <c r="AK15" s="4">
-        <v>8320</v>
+        <v>283140</v>
       </c>
       <c r="AL15" s="4">
-        <v>11600</v>
+        <v>394680</v>
       </c>
       <c r="AM15" s="4">
-        <v>14970</v>
+        <v>509300</v>
       </c>
       <c r="AN15" s="4">
-        <v>19930</v>
-      </c>
-      <c r="AO15" s="4"/>
-      <c r="AP15" s="4"/>
-      <c r="AQ15" s="18"/>
+        <v>677820</v>
+      </c>
+      <c r="AO15" s="4">
+        <v>2172.6802751425471</v>
+      </c>
+      <c r="AP15" s="4">
+        <v>98014.445693739166</v>
+      </c>
+      <c r="AQ15" s="18">
+        <v>2277.4140468792702</v>
+      </c>
     </row>
     <row r="16" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="C16" s="4">
-        <v>45.94</v>
+        <v>8087</v>
       </c>
       <c r="D16" s="4">
-        <v>38.97</v>
+        <v>6470</v>
       </c>
       <c r="E16" s="4">
-        <v>27.56</v>
+        <v>4852</v>
       </c>
       <c r="F16" s="4">
-        <v>22.04</v>
+        <v>3880</v>
       </c>
       <c r="G16" s="4">
-        <v>18.38</v>
+        <v>3235</v>
       </c>
       <c r="H16" s="4">
-        <v>14.7</v>
+        <v>2588</v>
       </c>
       <c r="I16" s="4">
-        <v>12.84</v>
+        <v>2260</v>
       </c>
       <c r="J16" s="4">
-        <v>11.02</v>
+        <v>1940</v>
       </c>
       <c r="K16" s="4">
-        <v>9.18</v>
+        <v>1617</v>
       </c>
       <c r="L16" s="4">
         <v>0</v>
       </c>
       <c r="M16" s="4">
-        <v>7.33</v>
+        <v>1290</v>
       </c>
       <c r="N16" s="4">
-        <v>5.51</v>
+        <v>970</v>
       </c>
       <c r="O16" s="4">
         <v>0</v>
@@ -3179,10 +3278,10 @@
         <v>0</v>
       </c>
       <c r="Q16" s="4">
-        <v>3.68</v>
+        <v>647</v>
       </c>
       <c r="R16" s="4">
-        <v>1.83</v>
+        <v>323</v>
       </c>
       <c r="S16" s="4">
         <v>0</v>
@@ -3197,58 +3296,58 @@
         <v>0</v>
       </c>
       <c r="W16" s="4">
-        <v>14.2</v>
+        <v>2500</v>
       </c>
       <c r="X16" s="4">
-        <v>29.99</v>
+        <v>5280</v>
       </c>
       <c r="Y16" s="4">
-        <v>47.26</v>
+        <v>8320</v>
       </c>
       <c r="Z16" s="4">
-        <v>65.89</v>
+        <v>11600</v>
       </c>
       <c r="AA16" s="4">
-        <v>85.03</v>
+        <v>14970</v>
       </c>
       <c r="AB16" s="4">
-        <v>113.21</v>
+        <v>19930</v>
       </c>
       <c r="AC16" s="4">
-        <v>18.63</v>
+        <v>3280</v>
       </c>
       <c r="AD16" s="4">
-        <v>28.17</v>
+        <v>4960</v>
       </c>
       <c r="AE16" s="4">
-        <v>56.35</v>
+        <v>9920</v>
       </c>
       <c r="AF16" s="4">
-        <v>75.489999999999995</v>
+        <v>13290</v>
       </c>
       <c r="AG16" s="4">
-        <v>102.72</v>
+        <v>18330</v>
       </c>
       <c r="AH16" s="4">
-        <v>122.54</v>
+        <v>21600</v>
       </c>
       <c r="AI16" s="4">
-        <v>14.2</v>
+        <v>2500</v>
       </c>
       <c r="AJ16" s="4">
-        <v>29.99</v>
+        <v>5280</v>
       </c>
       <c r="AK16" s="4">
-        <v>47.26</v>
+        <v>8320</v>
       </c>
       <c r="AL16" s="4">
-        <v>65.89</v>
+        <v>11600</v>
       </c>
       <c r="AM16" s="4">
-        <v>85.03</v>
+        <v>14970</v>
       </c>
       <c r="AN16" s="4">
-        <v>113.21</v>
+        <v>19930</v>
       </c>
       <c r="AO16" s="4"/>
       <c r="AP16" s="4"/>
@@ -3256,43 +3355,43 @@
     </row>
     <row r="17" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="C17" s="4">
-        <v>46.82</v>
+        <v>45.94</v>
       </c>
       <c r="D17" s="4">
-        <v>37.450000000000003</v>
+        <v>38.97</v>
       </c>
       <c r="E17" s="4">
-        <v>28.09</v>
+        <v>27.56</v>
       </c>
       <c r="F17" s="4">
-        <v>22.46</v>
+        <v>22.04</v>
       </c>
       <c r="G17" s="4">
-        <v>18.73</v>
+        <v>18.38</v>
       </c>
       <c r="H17" s="4">
-        <v>14.98</v>
+        <v>14.7</v>
       </c>
       <c r="I17" s="4">
-        <v>13.09</v>
+        <v>12.84</v>
       </c>
       <c r="J17" s="4">
-        <v>11.23</v>
+        <v>11.02</v>
       </c>
       <c r="K17" s="4">
-        <v>9.36</v>
+        <v>9.18</v>
       </c>
       <c r="L17" s="4">
         <v>0</v>
       </c>
       <c r="M17" s="4">
-        <v>7.47</v>
+        <v>7.33</v>
       </c>
       <c r="N17" s="4">
-        <v>5.62</v>
+        <v>5.51</v>
       </c>
       <c r="O17" s="4">
         <v>0</v>
@@ -3301,10 +3400,10 @@
         <v>0</v>
       </c>
       <c r="Q17" s="4">
-        <v>3.75</v>
+        <v>3.68</v>
       </c>
       <c r="R17" s="4">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="S17" s="4">
         <v>0</v>
@@ -3319,58 +3418,58 @@
         <v>0</v>
       </c>
       <c r="W17" s="4">
-        <v>14.47</v>
+        <v>14.2</v>
       </c>
       <c r="X17" s="4">
-        <v>30.56</v>
+        <v>29.99</v>
       </c>
       <c r="Y17" s="4">
-        <v>48.16</v>
+        <v>47.26</v>
       </c>
       <c r="Z17" s="4">
-        <v>67.150000000000006</v>
+        <v>65.89</v>
       </c>
       <c r="AA17" s="4">
-        <v>86.65</v>
+        <v>85.03</v>
       </c>
       <c r="AB17" s="4">
-        <v>115.37</v>
+        <v>113.21</v>
       </c>
       <c r="AC17" s="4">
-        <v>18.989999999999998</v>
+        <v>18.63</v>
       </c>
       <c r="AD17" s="4">
-        <v>28.71</v>
+        <v>28.17</v>
       </c>
       <c r="AE17" s="4">
-        <v>57.43</v>
+        <v>56.35</v>
       </c>
       <c r="AF17" s="4">
-        <v>76.930000000000007</v>
+        <v>75.489999999999995</v>
       </c>
       <c r="AG17" s="4">
-        <v>106.11</v>
+        <v>102.72</v>
       </c>
       <c r="AH17" s="4">
-        <v>125.03</v>
+        <v>122.54</v>
       </c>
       <c r="AI17" s="4">
-        <v>14.47</v>
+        <v>14.2</v>
       </c>
       <c r="AJ17" s="4">
-        <v>30.56</v>
+        <v>29.99</v>
       </c>
       <c r="AK17" s="4">
-        <v>48.16</v>
+        <v>47.26</v>
       </c>
       <c r="AL17" s="4">
-        <v>67.150000000000006</v>
+        <v>65.89</v>
       </c>
       <c r="AM17" s="4">
-        <v>86.65</v>
+        <v>85.03</v>
       </c>
       <c r="AN17" s="4">
-        <v>115.37</v>
+        <v>113.21</v>
       </c>
       <c r="AO17" s="4"/>
       <c r="AP17" s="4"/>
@@ -3378,43 +3477,43 @@
     </row>
     <row r="18" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="C18" s="4">
-        <v>52.08</v>
+        <v>46.82</v>
       </c>
       <c r="D18" s="4">
-        <v>41.66</v>
+        <v>37.450000000000003</v>
       </c>
       <c r="E18" s="4">
-        <v>31.24</v>
+        <v>28.09</v>
       </c>
       <c r="F18" s="4">
-        <v>24.98</v>
+        <v>22.46</v>
       </c>
       <c r="G18" s="4">
-        <v>20.83</v>
+        <v>18.73</v>
       </c>
       <c r="H18" s="4">
-        <v>13.25</v>
+        <v>14.98</v>
       </c>
       <c r="I18" s="4">
-        <v>14.56</v>
+        <v>13.09</v>
       </c>
       <c r="J18" s="4">
-        <v>12.49</v>
+        <v>11.23</v>
       </c>
       <c r="K18" s="4">
-        <v>10.41</v>
+        <v>9.36</v>
       </c>
       <c r="L18" s="4">
         <v>0</v>
       </c>
       <c r="M18" s="4">
-        <v>8.2899999999999991</v>
+        <v>7.47</v>
       </c>
       <c r="N18" s="4">
-        <v>6.24</v>
+        <v>5.62</v>
       </c>
       <c r="O18" s="4">
         <v>0</v>
@@ -3423,10 +3522,10 @@
         <v>0</v>
       </c>
       <c r="Q18" s="4">
-        <v>4.16</v>
+        <v>3.75</v>
       </c>
       <c r="R18" s="4">
-        <v>2.06</v>
+        <v>1.86</v>
       </c>
       <c r="S18" s="4">
         <v>0</v>
@@ -3441,58 +3540,58 @@
         <v>0</v>
       </c>
       <c r="W18" s="4">
-        <v>16.09</v>
+        <v>14.47</v>
       </c>
       <c r="X18" s="4">
-        <v>33.99</v>
+        <v>30.56</v>
       </c>
       <c r="Y18" s="4">
-        <v>53.57</v>
+        <v>48.16</v>
       </c>
       <c r="Z18" s="4">
-        <v>74.7</v>
+        <v>67.150000000000006</v>
       </c>
       <c r="AA18" s="4">
-        <v>96.39</v>
+        <v>86.65</v>
       </c>
       <c r="AB18" s="4">
-        <v>128.35</v>
+        <v>115.37</v>
       </c>
       <c r="AC18" s="4">
-        <v>21.12</v>
+        <v>18.989999999999998</v>
       </c>
       <c r="AD18" s="4">
-        <v>31.93</v>
+        <v>28.71</v>
       </c>
       <c r="AE18" s="4">
-        <v>63.89</v>
+        <v>57.43</v>
       </c>
       <c r="AF18" s="4">
-        <v>85.58</v>
+        <v>76.930000000000007</v>
       </c>
       <c r="AG18" s="4">
-        <v>118.04</v>
+        <v>106.11</v>
       </c>
       <c r="AH18" s="4">
-        <v>139.1</v>
+        <v>125.03</v>
       </c>
       <c r="AI18" s="4">
-        <v>16.09</v>
+        <v>14.47</v>
       </c>
       <c r="AJ18" s="4">
-        <v>33.99</v>
+        <v>30.56</v>
       </c>
       <c r="AK18" s="4">
-        <v>53.57</v>
+        <v>48.16</v>
       </c>
       <c r="AL18" s="4">
-        <v>74.7</v>
+        <v>67.150000000000006</v>
       </c>
       <c r="AM18" s="4">
-        <v>96.39</v>
+        <v>86.65</v>
       </c>
       <c r="AN18" s="4">
-        <v>128.35</v>
+        <v>115.37</v>
       </c>
       <c r="AO18" s="4"/>
       <c r="AP18" s="4"/>
@@ -3500,7 +3599,7 @@
     </row>
     <row r="19" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="C19" s="4">
         <v>52.08</v>
@@ -3622,43 +3721,43 @@
     </row>
     <row r="20" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="C20" s="4">
-        <v>57.39</v>
+        <v>52.08</v>
       </c>
       <c r="D20" s="4">
-        <v>45.92</v>
+        <v>41.66</v>
       </c>
       <c r="E20" s="4">
-        <v>34.43</v>
+        <v>31.24</v>
       </c>
       <c r="F20" s="4">
-        <v>27.53</v>
+        <v>24.98</v>
       </c>
       <c r="G20" s="4">
-        <v>22.95</v>
+        <v>20.83</v>
       </c>
       <c r="H20" s="4">
-        <v>18.37</v>
+        <v>13.25</v>
       </c>
       <c r="I20" s="4">
-        <v>16.04</v>
+        <v>14.56</v>
       </c>
       <c r="J20" s="4">
-        <v>13.76</v>
+        <v>12.49</v>
       </c>
       <c r="K20" s="4">
-        <v>11.47</v>
+        <v>10.41</v>
       </c>
       <c r="L20" s="4">
         <v>0</v>
       </c>
       <c r="M20" s="4">
-        <v>9.14</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="N20" s="4">
-        <v>6.88</v>
+        <v>6.24</v>
       </c>
       <c r="O20" s="4">
         <v>0</v>
@@ -3667,10 +3766,10 @@
         <v>0</v>
       </c>
       <c r="Q20" s="4">
-        <v>4.5999999999999996</v>
+        <v>4.16</v>
       </c>
       <c r="R20" s="4">
-        <v>2.2799999999999998</v>
+        <v>2.06</v>
       </c>
       <c r="S20" s="4">
         <v>0</v>
@@ -3685,58 +3784,58 @@
         <v>0</v>
       </c>
       <c r="W20" s="4">
-        <v>17.739999999999998</v>
+        <v>16.09</v>
       </c>
       <c r="X20" s="4">
-        <v>37.47</v>
+        <v>33.99</v>
       </c>
       <c r="Y20" s="4">
-        <v>59.04</v>
+        <v>53.57</v>
       </c>
       <c r="Z20" s="4">
-        <v>82.33</v>
+        <v>74.7</v>
       </c>
       <c r="AA20" s="4">
-        <v>106.24</v>
+        <v>96.39</v>
       </c>
       <c r="AB20" s="4">
-        <v>141.44999999999999</v>
+        <v>128.35</v>
       </c>
       <c r="AC20" s="4">
-        <v>23.28</v>
+        <v>21.12</v>
       </c>
       <c r="AD20" s="4">
-        <v>35.200000000000003</v>
+        <v>31.93</v>
       </c>
       <c r="AE20" s="4">
-        <v>70.900000000000006</v>
+        <v>63.89</v>
       </c>
       <c r="AF20" s="4">
-        <v>94.32</v>
+        <v>85.58</v>
       </c>
       <c r="AG20" s="4">
-        <v>130.1</v>
+        <v>118.04</v>
       </c>
       <c r="AH20" s="4">
-        <v>153.28</v>
+        <v>139.1</v>
       </c>
       <c r="AI20" s="4">
-        <v>17.739999999999998</v>
+        <v>16.09</v>
       </c>
       <c r="AJ20" s="4">
-        <v>37.47</v>
+        <v>33.99</v>
       </c>
       <c r="AK20" s="4">
-        <v>59.04</v>
+        <v>53.57</v>
       </c>
       <c r="AL20" s="4">
-        <v>82.33</v>
+        <v>74.7</v>
       </c>
       <c r="AM20" s="4">
-        <v>106.24</v>
+        <v>96.39</v>
       </c>
       <c r="AN20" s="4">
-        <v>141.44999999999999</v>
+        <v>128.35</v>
       </c>
       <c r="AO20" s="4"/>
       <c r="AP20" s="4"/>
@@ -3744,46 +3843,43 @@
     </row>
     <row r="21" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
-        <v>2000</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>57</v>
+        <v>1999</v>
       </c>
       <c r="C21" s="4">
-        <v>65.150000000000006</v>
+        <v>57.39</v>
       </c>
       <c r="D21" s="4">
-        <v>52.13</v>
+        <v>45.92</v>
       </c>
       <c r="E21" s="4">
-        <v>39.08</v>
+        <v>34.43</v>
       </c>
       <c r="F21" s="4">
-        <v>31.25</v>
+        <v>27.53</v>
       </c>
       <c r="G21" s="4">
-        <v>26.05</v>
+        <v>22.95</v>
       </c>
       <c r="H21" s="4">
-        <v>20.85</v>
+        <v>18.37</v>
       </c>
       <c r="I21" s="4">
-        <v>18.21</v>
+        <v>16.04</v>
       </c>
       <c r="J21" s="4">
-        <v>15.62</v>
+        <v>13.76</v>
       </c>
       <c r="K21" s="4">
-        <v>13.02</v>
+        <v>11.47</v>
       </c>
       <c r="L21" s="4">
         <v>0</v>
       </c>
       <c r="M21" s="4">
-        <v>10.38</v>
+        <v>9.14</v>
       </c>
       <c r="N21" s="4">
-        <v>7.81</v>
+        <v>6.88</v>
       </c>
       <c r="O21" s="4">
         <v>0</v>
@@ -3792,10 +3888,10 @@
         <v>0</v>
       </c>
       <c r="Q21" s="4">
-        <v>5.22</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="R21" s="4">
-        <v>2.59</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="S21" s="4">
         <v>0</v>
@@ -3810,58 +3906,58 @@
         <v>0</v>
       </c>
       <c r="W21" s="4">
-        <v>20.14</v>
+        <v>17.739999999999998</v>
       </c>
       <c r="X21" s="4">
-        <v>42.54</v>
+        <v>37.47</v>
       </c>
       <c r="Y21" s="4">
-        <v>67.02</v>
+        <v>59.04</v>
       </c>
       <c r="Z21" s="4">
-        <v>93.46</v>
+        <v>82.33</v>
       </c>
       <c r="AA21" s="4">
-        <v>120.6</v>
+        <v>106.24</v>
       </c>
       <c r="AB21" s="4">
-        <v>160.57</v>
+        <v>141.44999999999999</v>
       </c>
       <c r="AC21" s="4">
-        <v>26.43</v>
+        <v>23.28</v>
       </c>
       <c r="AD21" s="4">
-        <v>39.96</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="AE21" s="4">
-        <v>79.92</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="AF21" s="4">
-        <v>107.07</v>
+        <v>94.32</v>
       </c>
       <c r="AG21" s="4">
-        <v>147.69</v>
+        <v>130.1</v>
       </c>
       <c r="AH21" s="4">
-        <v>174</v>
+        <v>153.28</v>
       </c>
       <c r="AI21" s="4">
-        <v>20.14</v>
+        <v>17.739999999999998</v>
       </c>
       <c r="AJ21" s="4">
-        <v>42.54</v>
+        <v>37.47</v>
       </c>
       <c r="AK21" s="4">
-        <v>67.02</v>
+        <v>59.04</v>
       </c>
       <c r="AL21" s="4">
-        <v>93.46</v>
+        <v>82.33</v>
       </c>
       <c r="AM21" s="4">
-        <v>120.6</v>
+        <v>106.24</v>
       </c>
       <c r="AN21" s="4">
-        <v>160.57</v>
+        <v>141.44999999999999</v>
       </c>
       <c r="AO21" s="4"/>
       <c r="AP21" s="4"/>
@@ -3869,46 +3965,46 @@
     </row>
     <row r="22" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22" s="4">
-        <v>73.62</v>
+        <v>65.150000000000006</v>
       </c>
       <c r="D22" s="4">
-        <v>58.91</v>
+        <v>52.13</v>
       </c>
       <c r="E22" s="4">
-        <v>44.16</v>
+        <v>39.08</v>
       </c>
       <c r="F22" s="4">
-        <v>35.31</v>
+        <v>31.25</v>
       </c>
       <c r="G22" s="4">
-        <v>29.44</v>
+        <v>26.05</v>
       </c>
       <c r="H22" s="4">
-        <v>23.56</v>
+        <v>20.85</v>
       </c>
       <c r="I22" s="4">
-        <v>20.58</v>
+        <v>18.21</v>
       </c>
       <c r="J22" s="4">
-        <v>17.649999999999999</v>
+        <v>15.62</v>
       </c>
       <c r="K22" s="4">
-        <v>14.71</v>
+        <v>13.02</v>
       </c>
       <c r="L22" s="4">
         <v>0</v>
       </c>
       <c r="M22" s="4">
-        <v>11.73</v>
+        <v>10.38</v>
       </c>
       <c r="N22" s="4">
-        <v>8.83</v>
+        <v>7.81</v>
       </c>
       <c r="O22" s="4">
         <v>0</v>
@@ -3917,10 +4013,10 @@
         <v>0</v>
       </c>
       <c r="Q22" s="4">
-        <v>5.9</v>
+        <v>5.22</v>
       </c>
       <c r="R22" s="4">
-        <v>2.93</v>
+        <v>2.59</v>
       </c>
       <c r="S22" s="4">
         <v>0</v>
@@ -3935,58 +4031,58 @@
         <v>0</v>
       </c>
       <c r="W22" s="4">
-        <v>22.76</v>
+        <v>20.14</v>
       </c>
       <c r="X22" s="4">
-        <v>48.07</v>
+        <v>42.54</v>
       </c>
       <c r="Y22" s="4">
-        <v>75.73</v>
+        <v>67.02</v>
       </c>
       <c r="Z22" s="4">
-        <v>105.61</v>
+        <v>93.46</v>
       </c>
       <c r="AA22" s="4">
-        <v>136.28</v>
+        <v>120.6</v>
       </c>
       <c r="AB22" s="4">
-        <v>181.44</v>
+        <v>160.57</v>
       </c>
       <c r="AC22" s="4">
-        <v>29.87</v>
+        <v>26.43</v>
       </c>
       <c r="AD22" s="4">
-        <v>45.15</v>
+        <v>39.96</v>
       </c>
       <c r="AE22" s="4">
-        <v>90.31</v>
+        <v>79.92</v>
       </c>
       <c r="AF22" s="4">
-        <v>120.99</v>
+        <v>107.07</v>
       </c>
       <c r="AG22" s="4">
-        <v>166.89</v>
+        <v>147.69</v>
       </c>
       <c r="AH22" s="4">
-        <v>196.62</v>
+        <v>174</v>
       </c>
       <c r="AI22" s="4">
-        <v>22.76</v>
+        <v>20.14</v>
       </c>
       <c r="AJ22" s="4">
-        <v>48.07</v>
+        <v>42.54</v>
       </c>
       <c r="AK22" s="4">
-        <v>75.73</v>
+        <v>67.02</v>
       </c>
       <c r="AL22" s="4">
-        <v>105.61</v>
+        <v>93.46</v>
       </c>
       <c r="AM22" s="4">
-        <v>136.28</v>
+        <v>120.6</v>
       </c>
       <c r="AN22" s="4">
-        <v>181.44</v>
+        <v>160.57</v>
       </c>
       <c r="AO22" s="4"/>
       <c r="AP22" s="4"/>
@@ -3994,46 +4090,46 @@
     </row>
     <row r="23" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C23" s="4">
-        <v>80.989999999999995</v>
+        <v>73.62</v>
       </c>
       <c r="D23" s="4">
-        <v>64.81</v>
+        <v>58.91</v>
       </c>
       <c r="E23" s="4">
-        <v>48.58</v>
+        <v>44.16</v>
       </c>
       <c r="F23" s="4">
-        <v>38.840000000000003</v>
+        <v>35.31</v>
       </c>
       <c r="G23" s="4">
-        <v>32.39</v>
+        <v>29.44</v>
       </c>
       <c r="H23" s="4">
-        <v>25.92</v>
+        <v>23.56</v>
       </c>
       <c r="I23" s="4">
-        <v>22.64</v>
+        <v>20.58</v>
       </c>
       <c r="J23" s="4">
-        <v>19.420000000000002</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="K23" s="4">
-        <v>16.18</v>
+        <v>14.71</v>
       </c>
       <c r="L23" s="4">
         <v>0</v>
       </c>
       <c r="M23" s="4">
-        <v>12.9</v>
+        <v>11.73</v>
       </c>
       <c r="N23" s="4">
-        <v>9.7100000000000009</v>
+        <v>8.83</v>
       </c>
       <c r="O23" s="4">
         <v>0</v>
@@ -4042,10 +4138,10 @@
         <v>0</v>
       </c>
       <c r="Q23" s="4">
-        <v>6.49</v>
+        <v>5.9</v>
       </c>
       <c r="R23" s="4">
-        <v>3.22</v>
+        <v>2.93</v>
       </c>
       <c r="S23" s="4">
         <v>0</v>
@@ -4060,58 +4156,58 @@
         <v>0</v>
       </c>
       <c r="W23" s="4">
-        <v>25.04</v>
+        <v>22.76</v>
       </c>
       <c r="X23" s="4">
-        <v>52.88</v>
+        <v>48.07</v>
       </c>
       <c r="Y23" s="4">
-        <v>83.31</v>
+        <v>75.73</v>
       </c>
       <c r="Z23" s="4">
-        <v>116.18</v>
+        <v>105.61</v>
       </c>
       <c r="AA23" s="4">
-        <v>149.91999999999999</v>
+        <v>136.28</v>
       </c>
       <c r="AB23" s="4">
-        <v>199.6</v>
+        <v>181.44</v>
       </c>
       <c r="AC23" s="4">
-        <v>32.86</v>
+        <v>29.87</v>
       </c>
       <c r="AD23" s="4">
-        <v>49.67</v>
+        <v>45.15</v>
       </c>
       <c r="AE23" s="4">
-        <v>99.35</v>
+        <v>90.31</v>
       </c>
       <c r="AF23" s="4">
-        <v>133.1</v>
+        <v>120.99</v>
       </c>
       <c r="AG23" s="4">
-        <v>183.6</v>
+        <v>166.89</v>
       </c>
       <c r="AH23" s="4">
-        <v>216.3</v>
+        <v>196.62</v>
       </c>
       <c r="AI23" s="4">
-        <v>25.04</v>
+        <v>22.76</v>
       </c>
       <c r="AJ23" s="4">
-        <v>52.88</v>
+        <v>48.07</v>
       </c>
       <c r="AK23" s="4">
-        <v>83.31</v>
+        <v>75.73</v>
       </c>
       <c r="AL23" s="4">
-        <v>116.18</v>
+        <v>105.61</v>
       </c>
       <c r="AM23" s="4">
-        <v>149.91999999999999</v>
+        <v>136.28</v>
       </c>
       <c r="AN23" s="4">
-        <v>199.6</v>
+        <v>181.44</v>
       </c>
       <c r="AO23" s="4"/>
       <c r="AP23" s="4"/>
@@ -4119,58 +4215,58 @@
     </row>
     <row r="24" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C24" s="4">
-        <v>98.04</v>
+        <v>80.989999999999995</v>
       </c>
       <c r="D24" s="4">
-        <v>78.45</v>
+        <v>64.81</v>
       </c>
       <c r="E24" s="4">
-        <v>58.81</v>
+        <v>48.58</v>
       </c>
       <c r="F24" s="4">
-        <v>47.02</v>
+        <v>38.840000000000003</v>
       </c>
       <c r="G24" s="4">
-        <v>39.21</v>
+        <v>32.39</v>
       </c>
       <c r="H24" s="4">
-        <v>31.38</v>
+        <v>25.92</v>
       </c>
       <c r="I24" s="4">
-        <v>27.41</v>
+        <v>22.64</v>
       </c>
       <c r="J24" s="4">
-        <v>23.51</v>
+        <v>19.420000000000002</v>
       </c>
       <c r="K24" s="4">
-        <v>19.59</v>
+        <v>16.18</v>
       </c>
       <c r="L24" s="4">
-        <v>15.773999999999999</v>
+        <v>0</v>
       </c>
       <c r="M24" s="4">
-        <v>15.62</v>
+        <v>12.9</v>
       </c>
       <c r="N24" s="4">
-        <v>11.75</v>
+        <v>9.7100000000000009</v>
       </c>
       <c r="O24" s="4">
-        <v>10.89</v>
+        <v>0</v>
       </c>
       <c r="P24" s="4">
-        <v>9.68</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="4">
-        <v>7.86</v>
+        <v>6.49</v>
       </c>
       <c r="R24" s="4">
-        <v>3.9</v>
+        <v>3.22</v>
       </c>
       <c r="S24" s="4">
         <v>0</v>
@@ -4185,58 +4281,58 @@
         <v>0</v>
       </c>
       <c r="W24" s="4">
-        <v>30.31</v>
+        <v>25.04</v>
       </c>
       <c r="X24" s="4">
-        <v>64.010000000000005</v>
+        <v>52.88</v>
       </c>
       <c r="Y24" s="4">
-        <v>100.85</v>
+        <v>83.31</v>
       </c>
       <c r="Z24" s="4">
-        <v>140.63999999999999</v>
+        <v>116.18</v>
       </c>
       <c r="AA24" s="4">
-        <v>181.48</v>
+        <v>149.91999999999999</v>
       </c>
       <c r="AB24" s="4">
-        <v>241.62</v>
+        <v>199.6</v>
       </c>
       <c r="AC24" s="4">
-        <v>39.78</v>
+        <v>32.86</v>
       </c>
       <c r="AD24" s="4">
-        <v>60.13</v>
+        <v>49.67</v>
       </c>
       <c r="AE24" s="4">
-        <v>120.26</v>
+        <v>99.35</v>
       </c>
       <c r="AF24" s="4">
-        <v>161.12</v>
+        <v>133.1</v>
       </c>
       <c r="AG24" s="4">
-        <v>222.25</v>
+        <v>183.6</v>
       </c>
       <c r="AH24" s="4">
-        <v>261.83</v>
+        <v>216.3</v>
       </c>
       <c r="AI24" s="4">
-        <v>30.31</v>
+        <v>25.04</v>
       </c>
       <c r="AJ24" s="4">
-        <v>64.010000000000005</v>
+        <v>52.88</v>
       </c>
       <c r="AK24" s="4">
-        <v>100.85</v>
+        <v>83.31</v>
       </c>
       <c r="AL24" s="4">
-        <v>140.63999999999999</v>
+        <v>116.18</v>
       </c>
       <c r="AM24" s="4">
-        <v>181.48</v>
+        <v>149.91999999999999</v>
       </c>
       <c r="AN24" s="4">
-        <v>241.62</v>
+        <v>199.6</v>
       </c>
       <c r="AO24" s="4"/>
       <c r="AP24" s="4"/>
@@ -4244,58 +4340,58 @@
     </row>
     <row r="25" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C25" s="4">
-        <v>109.89</v>
+        <v>98.04</v>
       </c>
       <c r="D25" s="4">
-        <v>87.93</v>
+        <v>78.45</v>
       </c>
       <c r="E25" s="4">
-        <v>65.92</v>
+        <v>58.81</v>
       </c>
       <c r="F25" s="4">
-        <v>52.7</v>
+        <v>47.02</v>
       </c>
       <c r="G25" s="4">
-        <v>43.95</v>
+        <v>39.21</v>
       </c>
       <c r="H25" s="4">
-        <v>35.17</v>
+        <v>31.38</v>
       </c>
       <c r="I25" s="4">
-        <v>30.72</v>
+        <v>27.41</v>
       </c>
       <c r="J25" s="4">
-        <v>26.35</v>
+        <v>23.51</v>
       </c>
       <c r="K25" s="4">
-        <v>21.95</v>
+        <v>19.59</v>
       </c>
       <c r="L25" s="4">
-        <v>17.64</v>
+        <v>15.773999999999999</v>
       </c>
       <c r="M25" s="4">
-        <v>17.5</v>
+        <v>15.62</v>
       </c>
       <c r="N25" s="4">
-        <v>13.17</v>
+        <v>11.75</v>
       </c>
       <c r="O25" s="4">
-        <v>12.2</v>
+        <v>10.89</v>
       </c>
       <c r="P25" s="4">
-        <v>10.85</v>
+        <v>9.68</v>
       </c>
       <c r="Q25" s="4">
-        <v>8.81</v>
+        <v>7.86</v>
       </c>
       <c r="R25" s="4">
-        <v>4.37</v>
+        <v>3.9</v>
       </c>
       <c r="S25" s="4">
         <v>0</v>
@@ -4310,58 +4406,58 @@
         <v>0</v>
       </c>
       <c r="W25" s="4">
-        <v>33.97</v>
+        <v>30.31</v>
       </c>
       <c r="X25" s="4">
-        <v>71.739999999999995</v>
+        <v>64.010000000000005</v>
       </c>
       <c r="Y25" s="4">
-        <v>113.04</v>
+        <v>100.85</v>
       </c>
       <c r="Z25" s="4">
-        <v>157.63999999999999</v>
+        <v>140.63999999999999</v>
       </c>
       <c r="AA25" s="4">
-        <v>203.42</v>
+        <v>181.48</v>
       </c>
       <c r="AB25" s="4">
-        <v>270.83</v>
+        <v>241.62</v>
       </c>
       <c r="AC25" s="4">
-        <v>44.58</v>
+        <v>39.78</v>
       </c>
       <c r="AD25" s="4">
-        <v>67.39</v>
+        <v>60.13</v>
       </c>
       <c r="AE25" s="4">
-        <v>134.79</v>
+        <v>120.26</v>
       </c>
       <c r="AF25" s="4">
-        <v>180.59</v>
+        <v>161.12</v>
       </c>
       <c r="AG25" s="4">
-        <v>249.12</v>
+        <v>222.25</v>
       </c>
       <c r="AH25" s="4">
-        <v>293.48</v>
+        <v>261.83</v>
       </c>
       <c r="AI25" s="4">
-        <v>33.97</v>
+        <v>30.31</v>
       </c>
       <c r="AJ25" s="4">
-        <v>71.739999999999995</v>
+        <v>64.010000000000005</v>
       </c>
       <c r="AK25" s="4">
-        <v>113.04</v>
+        <v>100.85</v>
       </c>
       <c r="AL25" s="4">
-        <v>157.63999999999999</v>
+        <v>140.63999999999999</v>
       </c>
       <c r="AM25" s="4">
-        <v>203.42</v>
+        <v>181.48</v>
       </c>
       <c r="AN25" s="4">
-        <v>270.83</v>
+        <v>241.62</v>
       </c>
       <c r="AO25" s="4"/>
       <c r="AP25" s="4"/>
@@ -4369,58 +4465,58 @@
     </row>
     <row r="26" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C26" s="4">
-        <v>122.98</v>
+        <v>109.89</v>
       </c>
       <c r="D26" s="4">
-        <v>98.41</v>
+        <v>87.93</v>
       </c>
       <c r="E26" s="4">
-        <v>73.78</v>
+        <v>65.92</v>
       </c>
       <c r="F26" s="4">
-        <v>58.98</v>
+        <v>52.7</v>
       </c>
       <c r="G26" s="4">
-        <v>49.19</v>
+        <v>43.95</v>
       </c>
       <c r="H26" s="4">
-        <v>39.36</v>
+        <v>35.17</v>
       </c>
       <c r="I26" s="4">
-        <v>34.380000000000003</v>
+        <v>30.72</v>
       </c>
       <c r="J26" s="4">
-        <v>29.49</v>
+        <v>26.35</v>
       </c>
       <c r="K26" s="4">
-        <v>24.57</v>
+        <v>21.95</v>
       </c>
       <c r="L26" s="4">
-        <v>19.739999999999998</v>
+        <v>17.64</v>
       </c>
       <c r="M26" s="4">
-        <v>19.59</v>
+        <v>17.5</v>
       </c>
       <c r="N26" s="4">
-        <v>14.74</v>
+        <v>13.17</v>
       </c>
       <c r="O26" s="4">
-        <v>13.66</v>
+        <v>12.2</v>
       </c>
       <c r="P26" s="4">
-        <v>12.15</v>
+        <v>10.85</v>
       </c>
       <c r="Q26" s="4">
-        <v>9.86</v>
+        <v>8.81</v>
       </c>
       <c r="R26" s="4">
-        <v>4.8899999999999997</v>
+        <v>4.37</v>
       </c>
       <c r="S26" s="4">
         <v>0</v>
@@ -4435,58 +4531,58 @@
         <v>0</v>
       </c>
       <c r="W26" s="4">
-        <v>38.020000000000003</v>
+        <v>33.97</v>
       </c>
       <c r="X26" s="4">
-        <v>80.290000000000006</v>
+        <v>71.739999999999995</v>
       </c>
       <c r="Y26" s="4">
-        <v>126.51</v>
+        <v>113.04</v>
       </c>
       <c r="Z26" s="4">
-        <v>176.42</v>
+        <v>157.63999999999999</v>
       </c>
       <c r="AA26" s="4">
-        <v>227.65</v>
+        <v>203.42</v>
       </c>
       <c r="AB26" s="4">
-        <v>303.08999999999997</v>
+        <v>270.83</v>
       </c>
       <c r="AC26" s="4">
-        <v>49.89</v>
+        <v>44.58</v>
       </c>
       <c r="AD26" s="4">
-        <v>75.42</v>
+        <v>67.39</v>
       </c>
       <c r="AE26" s="4">
-        <v>150.85</v>
+        <v>134.79</v>
       </c>
       <c r="AF26" s="4">
-        <v>202.1</v>
+        <v>180.59</v>
       </c>
       <c r="AG26" s="4">
-        <v>278.79000000000002</v>
+        <v>249.12</v>
       </c>
       <c r="AH26" s="4">
-        <v>328.44</v>
+        <v>293.48</v>
       </c>
       <c r="AI26" s="4">
-        <v>38.020000000000003</v>
+        <v>33.97</v>
       </c>
       <c r="AJ26" s="4">
-        <v>80.290000000000006</v>
+        <v>71.739999999999995</v>
       </c>
       <c r="AK26" s="4">
-        <v>126.51</v>
+        <v>113.04</v>
       </c>
       <c r="AL26" s="4">
-        <v>176.42</v>
+        <v>157.63999999999999</v>
       </c>
       <c r="AM26" s="4">
-        <v>227.65</v>
+        <v>203.42</v>
       </c>
       <c r="AN26" s="4">
-        <v>303.08999999999997</v>
+        <v>270.83</v>
       </c>
       <c r="AO26" s="4"/>
       <c r="AP26" s="4"/>
@@ -4494,58 +4590,58 @@
     </row>
     <row r="27" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C27" s="4">
-        <v>130.75</v>
+        <v>122.98</v>
       </c>
       <c r="D27" s="4">
-        <v>104.63</v>
+        <v>98.41</v>
       </c>
       <c r="E27" s="4">
-        <v>78.44</v>
+        <v>73.78</v>
       </c>
       <c r="F27" s="4">
-        <v>62.71</v>
+        <v>58.98</v>
       </c>
       <c r="G27" s="4">
-        <v>52.3</v>
+        <v>49.19</v>
       </c>
       <c r="H27" s="4">
-        <v>41.85</v>
+        <v>39.36</v>
       </c>
       <c r="I27" s="4">
-        <v>36.549999999999997</v>
+        <v>34.380000000000003</v>
       </c>
       <c r="J27" s="4">
-        <v>31.35</v>
+        <v>29.49</v>
       </c>
       <c r="K27" s="4">
-        <v>26.12</v>
+        <v>24.57</v>
       </c>
       <c r="L27" s="4">
-        <v>20.99</v>
+        <v>19.739999999999998</v>
       </c>
       <c r="M27" s="4">
-        <v>20.83</v>
+        <v>19.59</v>
       </c>
       <c r="N27" s="4">
-        <v>15.67</v>
+        <v>14.74</v>
       </c>
       <c r="O27" s="4">
-        <v>14.52</v>
+        <v>13.66</v>
       </c>
       <c r="P27" s="4">
-        <v>12.92</v>
+        <v>12.15</v>
       </c>
       <c r="Q27" s="4">
-        <v>10.48</v>
+        <v>9.86</v>
       </c>
       <c r="R27" s="4">
-        <v>5.2</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="S27" s="4">
         <v>0</v>
@@ -4560,58 +4656,58 @@
         <v>0</v>
       </c>
       <c r="W27" s="4">
-        <v>40.42</v>
+        <v>38.020000000000003</v>
       </c>
       <c r="X27" s="4">
-        <v>85.36</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="Y27" s="4">
-        <v>134.51</v>
+        <v>126.51</v>
       </c>
       <c r="Z27" s="4">
-        <v>187.57</v>
+        <v>176.42</v>
       </c>
       <c r="AA27" s="4">
-        <v>242.04</v>
+        <v>227.65</v>
       </c>
       <c r="AB27" s="4">
-        <v>322.25</v>
+        <v>303.08999999999997</v>
       </c>
       <c r="AC27" s="4">
-        <v>53.04</v>
+        <v>49.89</v>
       </c>
       <c r="AD27" s="4">
-        <v>80.19</v>
+        <v>75.42</v>
       </c>
       <c r="AE27" s="4">
-        <v>160.38</v>
+        <v>150.85</v>
       </c>
       <c r="AF27" s="4">
-        <v>214.87</v>
+        <v>202.1</v>
       </c>
       <c r="AG27" s="4">
-        <v>296.41000000000003</v>
+        <v>278.79000000000002</v>
       </c>
       <c r="AH27" s="4">
-        <v>349.2</v>
+        <v>328.44</v>
       </c>
       <c r="AI27" s="4">
-        <v>40.42</v>
+        <v>38.020000000000003</v>
       </c>
       <c r="AJ27" s="4">
-        <v>85.36</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="AK27" s="4">
-        <v>134.51</v>
+        <v>126.51</v>
       </c>
       <c r="AL27" s="4">
-        <v>187.57</v>
+        <v>176.42</v>
       </c>
       <c r="AM27" s="4">
-        <v>242.04</v>
+        <v>227.65</v>
       </c>
       <c r="AN27" s="4">
-        <v>322.25</v>
+        <v>303.08999999999997</v>
       </c>
       <c r="AO27" s="4"/>
       <c r="AP27" s="4"/>
@@ -4619,58 +4715,58 @@
     </row>
     <row r="28" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C28" s="4">
-        <v>135.01</v>
+        <v>130.75</v>
       </c>
       <c r="D28" s="4">
-        <v>108.03</v>
+        <v>104.63</v>
       </c>
       <c r="E28" s="4">
-        <v>81</v>
+        <v>78.44</v>
       </c>
       <c r="F28" s="4">
-        <v>64.75</v>
+        <v>62.71</v>
       </c>
       <c r="G28" s="4">
-        <v>53.99</v>
+        <v>52.3</v>
       </c>
       <c r="H28" s="4">
-        <v>43.21</v>
+        <v>41.85</v>
       </c>
       <c r="I28" s="4">
-        <v>37.74</v>
+        <v>36.549999999999997</v>
       </c>
       <c r="J28" s="4">
-        <v>32.369999999999997</v>
+        <v>31.35</v>
       </c>
       <c r="K28" s="4">
-        <v>26.97</v>
+        <v>26.12</v>
       </c>
       <c r="L28" s="4">
-        <v>21.67</v>
+        <v>20.99</v>
       </c>
       <c r="M28" s="4">
-        <v>21.5</v>
+        <v>20.83</v>
       </c>
       <c r="N28" s="4">
-        <v>16.170000000000002</v>
+        <v>15.67</v>
       </c>
       <c r="O28" s="4">
-        <v>14.99</v>
+        <v>14.52</v>
       </c>
       <c r="P28" s="4">
-        <v>13.34</v>
+        <v>12.92</v>
       </c>
       <c r="Q28" s="4">
-        <v>10.82</v>
+        <v>10.48</v>
       </c>
       <c r="R28" s="4">
-        <v>5.37</v>
+        <v>5.2</v>
       </c>
       <c r="S28" s="4">
         <v>0</v>
@@ -4685,58 +4781,58 @@
         <v>0</v>
       </c>
       <c r="W28" s="4">
-        <v>41.73</v>
+        <v>40.42</v>
       </c>
       <c r="X28" s="4">
-        <v>88.14</v>
+        <v>85.36</v>
       </c>
       <c r="Y28" s="4">
-        <v>138.88</v>
+        <v>134.51</v>
       </c>
       <c r="Z28" s="4">
-        <v>193.68</v>
+        <v>187.57</v>
       </c>
       <c r="AA28" s="4">
-        <v>249.92</v>
+        <v>242.04</v>
       </c>
       <c r="AB28" s="4">
-        <v>332.74</v>
+        <v>322.25</v>
       </c>
       <c r="AC28" s="4">
-        <v>54.77</v>
+        <v>53.04</v>
       </c>
       <c r="AD28" s="4">
-        <v>82.79</v>
+        <v>80.19</v>
       </c>
       <c r="AE28" s="4">
-        <v>165.61</v>
+        <v>160.38</v>
       </c>
       <c r="AF28" s="4">
-        <v>221.87</v>
+        <v>214.87</v>
       </c>
       <c r="AG28" s="4">
-        <v>306.07</v>
+        <v>296.41000000000003</v>
       </c>
       <c r="AH28" s="4">
-        <v>360.57</v>
+        <v>349.2</v>
       </c>
       <c r="AI28" s="4">
-        <v>41.73</v>
+        <v>40.42</v>
       </c>
       <c r="AJ28" s="4">
-        <v>88.14</v>
+        <v>85.36</v>
       </c>
       <c r="AK28" s="4">
-        <v>138.88</v>
+        <v>134.51</v>
       </c>
       <c r="AL28" s="4">
-        <v>193.68</v>
+        <v>187.57</v>
       </c>
       <c r="AM28" s="4">
-        <v>249.92</v>
+        <v>242.04</v>
       </c>
       <c r="AN28" s="4">
-        <v>332.74</v>
+        <v>322.25</v>
       </c>
       <c r="AO28" s="4"/>
       <c r="AP28" s="4"/>
@@ -4744,124 +4840,124 @@
     </row>
     <row r="29" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C29" s="4">
-        <v>140.47</v>
+        <v>135.01</v>
       </c>
       <c r="D29" s="4">
-        <v>112.4</v>
+        <v>108.03</v>
       </c>
       <c r="E29" s="4">
-        <v>84.28</v>
+        <v>81</v>
       </c>
       <c r="F29" s="4">
-        <v>67.37</v>
+        <v>64.75</v>
       </c>
       <c r="G29" s="4">
-        <v>56.18</v>
+        <v>53.99</v>
       </c>
       <c r="H29" s="4">
-        <v>44.96</v>
+        <v>43.21</v>
       </c>
       <c r="I29" s="4">
-        <v>39.270000000000003</v>
+        <v>37.74</v>
       </c>
       <c r="J29" s="4">
-        <v>33.68</v>
+        <v>32.369999999999997</v>
       </c>
       <c r="K29" s="4">
-        <v>28.06</v>
+        <v>26.97</v>
       </c>
       <c r="L29" s="4">
-        <v>0</v>
+        <v>21.67</v>
       </c>
       <c r="M29" s="4">
-        <v>22.37</v>
+        <v>21.5</v>
       </c>
       <c r="N29" s="4">
-        <v>16.829999999999998</v>
+        <v>16.170000000000002</v>
       </c>
       <c r="O29" s="4">
-        <v>0</v>
+        <v>14.99</v>
       </c>
       <c r="P29" s="4">
-        <v>0</v>
+        <v>13.34</v>
       </c>
       <c r="Q29" s="4">
-        <v>11.26</v>
+        <v>10.82</v>
       </c>
       <c r="R29" s="4">
-        <v>5.59</v>
+        <v>5.37</v>
       </c>
       <c r="S29" s="4">
-        <v>22.55</v>
+        <v>0</v>
       </c>
       <c r="T29" s="4">
-        <v>15.6</v>
+        <v>0</v>
       </c>
       <c r="U29" s="4">
-        <v>13.88</v>
+        <v>0</v>
       </c>
       <c r="V29" s="4">
-        <v>23.03</v>
+        <v>0</v>
       </c>
       <c r="W29" s="4">
-        <v>43.42</v>
+        <v>41.73</v>
       </c>
       <c r="X29" s="4">
-        <v>91.7</v>
+        <v>88.14</v>
       </c>
       <c r="Y29" s="4">
-        <v>144.49</v>
+        <v>138.88</v>
       </c>
       <c r="Z29" s="4">
-        <v>201.51</v>
+        <v>193.68</v>
       </c>
       <c r="AA29" s="4">
-        <v>260.02</v>
+        <v>249.92</v>
       </c>
       <c r="AB29" s="4">
-        <v>346.19</v>
+        <v>332.74</v>
       </c>
       <c r="AC29" s="4">
-        <v>56.99</v>
+        <v>54.77</v>
       </c>
       <c r="AD29" s="4">
-        <v>86.14</v>
+        <v>82.79</v>
       </c>
       <c r="AE29" s="4">
-        <v>172.3</v>
+        <v>165.61</v>
       </c>
       <c r="AF29" s="4">
-        <v>230.84</v>
+        <v>221.87</v>
       </c>
       <c r="AG29" s="4">
-        <v>318.44</v>
+        <v>306.07</v>
       </c>
       <c r="AH29" s="4">
-        <v>375.14</v>
+        <v>360.57</v>
       </c>
       <c r="AI29" s="4">
-        <v>43.42</v>
+        <v>41.73</v>
       </c>
       <c r="AJ29" s="4">
-        <v>91.7</v>
+        <v>88.14</v>
       </c>
       <c r="AK29" s="4">
-        <v>144.49</v>
+        <v>138.88</v>
       </c>
       <c r="AL29" s="4">
-        <v>201.51</v>
+        <v>193.68</v>
       </c>
       <c r="AM29" s="4">
-        <v>260.02</v>
+        <v>249.92</v>
       </c>
       <c r="AN29" s="4">
-        <v>346.19</v>
+        <v>332.74</v>
       </c>
       <c r="AO29" s="4"/>
       <c r="AP29" s="4"/>
@@ -4869,46 +4965,46 @@
     </row>
     <row r="30" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C30" s="4">
-        <v>149.22</v>
+        <v>140.47</v>
       </c>
       <c r="D30" s="4">
-        <v>119.4</v>
+        <v>112.4</v>
       </c>
       <c r="E30" s="4">
-        <v>89.53</v>
+        <v>84.28</v>
       </c>
       <c r="F30" s="4">
-        <v>71.569999999999993</v>
+        <v>67.37</v>
       </c>
       <c r="G30" s="4">
-        <v>59.68</v>
+        <v>56.18</v>
       </c>
       <c r="H30" s="4">
-        <v>47.76</v>
+        <v>44.96</v>
       </c>
       <c r="I30" s="4">
-        <v>41.72</v>
+        <v>39.270000000000003</v>
       </c>
       <c r="J30" s="4">
-        <v>35.78</v>
+        <v>33.68</v>
       </c>
       <c r="K30" s="4">
-        <v>29.81</v>
+        <v>28.06</v>
       </c>
       <c r="L30" s="4">
         <v>0</v>
       </c>
       <c r="M30" s="4">
-        <v>23.76</v>
+        <v>22.37</v>
       </c>
       <c r="N30" s="4">
-        <v>17.88</v>
+        <v>16.829999999999998</v>
       </c>
       <c r="O30" s="4">
         <v>0</v>
@@ -4917,76 +5013,76 @@
         <v>0</v>
       </c>
       <c r="Q30" s="4">
-        <v>11.96</v>
+        <v>11.26</v>
       </c>
       <c r="R30" s="4">
-        <v>5.94</v>
+        <v>5.59</v>
       </c>
       <c r="S30" s="4">
-        <v>23.95</v>
+        <v>22.55</v>
       </c>
       <c r="T30" s="4">
-        <v>16.57</v>
+        <v>15.6</v>
       </c>
       <c r="U30" s="4">
-        <v>14.74</v>
+        <v>13.88</v>
       </c>
       <c r="V30" s="4">
-        <v>24.46</v>
+        <v>23.03</v>
       </c>
       <c r="W30" s="4">
-        <v>46.13</v>
+        <v>43.42</v>
       </c>
       <c r="X30" s="4">
-        <v>97.41</v>
+        <v>91.7</v>
       </c>
       <c r="Y30" s="4">
-        <v>153.49</v>
+        <v>144.49</v>
       </c>
       <c r="Z30" s="4">
-        <v>214.06</v>
+        <v>201.51</v>
       </c>
       <c r="AA30" s="4">
-        <v>276.22000000000003</v>
+        <v>260.02</v>
       </c>
       <c r="AB30" s="4">
-        <v>367.76</v>
+        <v>346.19</v>
       </c>
       <c r="AC30" s="4">
-        <v>60.54</v>
+        <v>56.99</v>
       </c>
       <c r="AD30" s="4">
-        <v>91.51</v>
+        <v>86.14</v>
       </c>
       <c r="AE30" s="4">
-        <v>183.03</v>
+        <v>172.3</v>
       </c>
       <c r="AF30" s="4">
-        <v>245.22</v>
+        <v>230.84</v>
       </c>
       <c r="AG30" s="4">
-        <v>338.28</v>
+        <v>318.44</v>
       </c>
       <c r="AH30" s="4">
-        <v>398.51</v>
+        <v>375.14</v>
       </c>
       <c r="AI30" s="4">
-        <v>46.13</v>
+        <v>43.42</v>
       </c>
       <c r="AJ30" s="4">
-        <v>97.41</v>
+        <v>91.7</v>
       </c>
       <c r="AK30" s="4">
-        <v>153.49</v>
+        <v>144.49</v>
       </c>
       <c r="AL30" s="4">
-        <v>214.06</v>
+        <v>201.51</v>
       </c>
       <c r="AM30" s="4">
-        <v>276.22000000000003</v>
+        <v>260.02</v>
       </c>
       <c r="AN30" s="4">
-        <v>367.76</v>
+        <v>346.19</v>
       </c>
       <c r="AO30" s="4"/>
       <c r="AP30" s="4"/>
@@ -4994,46 +5090,46 @@
     </row>
     <row r="31" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C31" s="4">
-        <v>155.32</v>
+        <v>149.22</v>
       </c>
       <c r="D31" s="4">
-        <v>124.28</v>
+        <v>119.4</v>
       </c>
       <c r="E31" s="4">
-        <v>93.19</v>
+        <v>89.53</v>
       </c>
       <c r="F31" s="4">
-        <v>74.489999999999995</v>
+        <v>71.569999999999993</v>
       </c>
       <c r="G31" s="4">
-        <v>62.12</v>
+        <v>59.68</v>
       </c>
       <c r="H31" s="4">
-        <v>49.71</v>
+        <v>47.76</v>
       </c>
       <c r="I31" s="4">
-        <v>43.42</v>
+        <v>41.72</v>
       </c>
       <c r="J31" s="4">
-        <v>37.24</v>
+        <v>35.78</v>
       </c>
       <c r="K31" s="4">
-        <v>31.02</v>
+        <v>29.81</v>
       </c>
       <c r="L31" s="4">
         <v>0</v>
       </c>
       <c r="M31" s="4">
-        <v>24.73</v>
+        <v>23.76</v>
       </c>
       <c r="N31" s="4">
-        <v>18.61</v>
+        <v>17.88</v>
       </c>
       <c r="O31" s="4">
         <v>0</v>
@@ -5042,76 +5138,76 @@
         <v>0</v>
       </c>
       <c r="Q31" s="4">
-        <v>12.44</v>
+        <v>11.96</v>
       </c>
       <c r="R31" s="4">
-        <v>6.18</v>
+        <v>5.94</v>
       </c>
       <c r="S31" s="4">
-        <v>24.92</v>
+        <v>23.95</v>
       </c>
       <c r="T31" s="4">
-        <v>17.239999999999998</v>
+        <v>16.57</v>
       </c>
       <c r="U31" s="4">
-        <v>15.34</v>
+        <v>14.74</v>
       </c>
       <c r="V31" s="4">
-        <v>25.46</v>
+        <v>24.46</v>
       </c>
       <c r="W31" s="4">
-        <v>48.01</v>
+        <v>46.13</v>
       </c>
       <c r="X31" s="4">
-        <v>101.39</v>
+        <v>97.41</v>
       </c>
       <c r="Y31" s="4">
-        <v>159.76</v>
+        <v>153.49</v>
       </c>
       <c r="Z31" s="4">
-        <v>222.81</v>
+        <v>214.06</v>
       </c>
       <c r="AA31" s="4">
-        <v>287.51</v>
+        <v>276.22000000000003</v>
       </c>
       <c r="AB31" s="4">
-        <v>382.8</v>
+        <v>367.76</v>
       </c>
       <c r="AC31" s="4">
-        <v>63.01</v>
+        <v>60.54</v>
       </c>
       <c r="AD31" s="4">
-        <v>95.25</v>
+        <v>91.51</v>
       </c>
       <c r="AE31" s="4">
-        <v>190.51</v>
+        <v>183.03</v>
       </c>
       <c r="AF31" s="4">
-        <v>255.24</v>
+        <v>245.22</v>
       </c>
       <c r="AG31" s="4">
-        <v>352.11</v>
+        <v>338.28</v>
       </c>
       <c r="AH31" s="4">
-        <v>414.8</v>
+        <v>398.51</v>
       </c>
       <c r="AI31" s="4">
-        <v>48.01</v>
+        <v>46.13</v>
       </c>
       <c r="AJ31" s="4">
-        <v>101.39</v>
+        <v>97.41</v>
       </c>
       <c r="AK31" s="4">
-        <v>159.76</v>
+        <v>153.49</v>
       </c>
       <c r="AL31" s="4">
-        <v>222.81</v>
+        <v>214.06</v>
       </c>
       <c r="AM31" s="4">
-        <v>287.51</v>
+        <v>276.22000000000003</v>
       </c>
       <c r="AN31" s="4">
-        <v>382.8</v>
+        <v>367.76</v>
       </c>
       <c r="AO31" s="4"/>
       <c r="AP31" s="4"/>
@@ -5119,46 +5215,46 @@
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C32" s="4">
-        <v>168.49</v>
+        <v>155.32</v>
       </c>
       <c r="D32" s="4">
-        <v>134.81</v>
+        <v>124.28</v>
       </c>
       <c r="E32" s="4">
-        <v>101.09</v>
+        <v>93.19</v>
       </c>
       <c r="F32" s="4">
-        <v>80.8</v>
+        <v>74.489999999999995</v>
       </c>
       <c r="G32" s="4">
-        <v>67.38</v>
+        <v>62.12</v>
       </c>
       <c r="H32" s="4">
-        <v>53.92</v>
+        <v>49.71</v>
       </c>
       <c r="I32" s="4">
-        <v>47.1</v>
+        <v>43.42</v>
       </c>
       <c r="J32" s="4">
-        <v>40.39</v>
+        <v>37.24</v>
       </c>
       <c r="K32" s="4">
-        <v>33.65</v>
+        <v>31.02</v>
       </c>
       <c r="L32" s="4">
         <v>0</v>
       </c>
       <c r="M32" s="4">
-        <v>26.82</v>
+        <v>24.73</v>
       </c>
       <c r="N32" s="4">
-        <v>20.18</v>
+        <v>18.61</v>
       </c>
       <c r="O32" s="4">
         <v>0</v>
@@ -5167,375 +5263,371 @@
         <v>0</v>
       </c>
       <c r="Q32" s="4">
-        <v>13.49</v>
+        <v>12.44</v>
       </c>
       <c r="R32" s="4">
-        <v>6.7</v>
+        <v>6.18</v>
       </c>
       <c r="S32" s="4">
-        <v>27.03</v>
+        <v>24.92</v>
       </c>
       <c r="T32" s="4">
-        <v>18.7</v>
+        <v>17.239999999999998</v>
       </c>
       <c r="U32" s="4">
-        <v>16.64</v>
+        <v>15.34</v>
       </c>
       <c r="V32" s="4">
-        <v>27.61</v>
+        <v>25.46</v>
       </c>
       <c r="W32" s="4">
-        <v>52.08</v>
+        <v>48.01</v>
       </c>
       <c r="X32" s="4">
-        <v>109.98</v>
+        <v>101.39</v>
       </c>
       <c r="Y32" s="4">
-        <v>173.3</v>
+        <v>159.76</v>
       </c>
       <c r="Z32" s="4">
-        <v>241.7</v>
+        <v>222.81</v>
       </c>
       <c r="AA32" s="4">
-        <v>311.89</v>
+        <v>287.51</v>
       </c>
       <c r="AB32" s="4">
-        <v>415.26</v>
+        <v>382.8</v>
       </c>
       <c r="AC32" s="4">
-        <v>68.349999999999994</v>
+        <v>63.01</v>
       </c>
       <c r="AD32" s="4">
-        <v>103.32</v>
+        <v>95.25</v>
       </c>
       <c r="AE32" s="4">
-        <v>206.66</v>
+        <v>190.51</v>
       </c>
       <c r="AF32" s="4">
-        <v>276.88</v>
+        <v>255.24</v>
       </c>
       <c r="AG32" s="4">
-        <v>381.96</v>
+        <v>352.11</v>
       </c>
       <c r="AH32" s="4">
-        <v>449.97</v>
+        <v>414.8</v>
       </c>
       <c r="AI32" s="4">
-        <v>52.08</v>
+        <v>48.01</v>
       </c>
       <c r="AJ32" s="4">
-        <v>109.98</v>
+        <v>101.39</v>
       </c>
       <c r="AK32" s="4">
-        <v>173.3</v>
+        <v>159.76</v>
       </c>
       <c r="AL32" s="4">
-        <v>241.7</v>
+        <v>222.81</v>
       </c>
       <c r="AM32" s="4">
-        <v>311.89</v>
+        <v>287.51</v>
       </c>
       <c r="AN32" s="4">
-        <v>415.26</v>
+        <v>382.8</v>
       </c>
       <c r="AO32" s="4"/>
       <c r="AP32" s="4"/>
-      <c r="AQ32" s="19"/>
+      <c r="AQ32" s="18"/>
     </row>
     <row r="33" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
-        <v>2012</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="5">
-        <v>180.11</v>
-      </c>
-      <c r="D33" s="5">
-        <v>144.11000000000001</v>
-      </c>
-      <c r="E33" s="5">
-        <v>108.06</v>
-      </c>
-      <c r="F33" s="5">
-        <v>86.37</v>
-      </c>
-      <c r="G33" s="5">
-        <v>72.02</v>
-      </c>
-      <c r="H33" s="5">
-        <v>57.64</v>
-      </c>
-      <c r="I33" s="5">
-        <v>50.34</v>
-      </c>
-      <c r="J33" s="5">
-        <v>43.17</v>
-      </c>
-      <c r="K33" s="5">
-        <v>35.97</v>
-      </c>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5">
-        <v>28.67</v>
-      </c>
-      <c r="N33" s="5">
-        <v>21.57</v>
-      </c>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5">
-        <v>14.42</v>
-      </c>
-      <c r="R33" s="5">
-        <v>7.16</v>
-      </c>
-      <c r="S33" s="5">
-        <v>28.89</v>
-      </c>
-      <c r="T33" s="5">
-        <v>19.989999999999998</v>
-      </c>
-      <c r="U33" s="5">
-        <v>17.78</v>
-      </c>
-      <c r="V33" s="5">
-        <v>29.51</v>
-      </c>
-      <c r="W33" s="5">
-        <v>55.67</v>
-      </c>
-      <c r="X33" s="5">
-        <v>117.56</v>
-      </c>
-      <c r="Y33" s="5">
-        <v>185.25</v>
-      </c>
-      <c r="Z33" s="5">
-        <v>258.37</v>
-      </c>
-      <c r="AA33" s="5">
-        <v>333.41</v>
-      </c>
-      <c r="AB33" s="5">
-        <v>443.91</v>
-      </c>
-      <c r="AC33" s="5">
-        <v>73.06</v>
-      </c>
-      <c r="AD33" s="5">
-        <v>110.44</v>
-      </c>
-      <c r="AE33" s="5">
-        <v>220.91</v>
-      </c>
-      <c r="AF33" s="5">
-        <v>295.98</v>
-      </c>
-      <c r="AG33" s="5">
-        <v>408.31</v>
-      </c>
-      <c r="AH33" s="5">
-        <v>481.01</v>
-      </c>
-      <c r="AI33" s="5">
-        <v>55.67</v>
-      </c>
-      <c r="AJ33" s="5">
-        <v>117.56</v>
-      </c>
-      <c r="AK33" s="5">
-        <v>185.25</v>
-      </c>
-      <c r="AL33" s="5">
-        <v>258.37</v>
-      </c>
-      <c r="AM33" s="5">
-        <v>333.41</v>
-      </c>
-      <c r="AN33" s="5">
-        <v>443.91</v>
-      </c>
-      <c r="AO33" s="5">
-        <v>1.58</v>
-      </c>
-      <c r="AP33" s="5">
-        <v>71.53</v>
-      </c>
+        <v>2011</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="4">
+        <v>168.49</v>
+      </c>
+      <c r="D33" s="4">
+        <v>134.81</v>
+      </c>
+      <c r="E33" s="4">
+        <v>101.09</v>
+      </c>
+      <c r="F33" s="4">
+        <v>80.8</v>
+      </c>
+      <c r="G33" s="4">
+        <v>67.38</v>
+      </c>
+      <c r="H33" s="4">
+        <v>53.92</v>
+      </c>
+      <c r="I33" s="4">
+        <v>47.1</v>
+      </c>
+      <c r="J33" s="4">
+        <v>40.39</v>
+      </c>
+      <c r="K33" s="4">
+        <v>33.65</v>
+      </c>
+      <c r="L33" s="4">
+        <v>0</v>
+      </c>
+      <c r="M33" s="4">
+        <v>26.82</v>
+      </c>
+      <c r="N33" s="4">
+        <v>20.18</v>
+      </c>
+      <c r="O33" s="4">
+        <v>0</v>
+      </c>
+      <c r="P33" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>13.49</v>
+      </c>
+      <c r="R33" s="4">
+        <v>6.7</v>
+      </c>
+      <c r="S33" s="4">
+        <v>27.03</v>
+      </c>
+      <c r="T33" s="4">
+        <v>18.7</v>
+      </c>
+      <c r="U33" s="4">
+        <v>16.64</v>
+      </c>
+      <c r="V33" s="4">
+        <v>27.61</v>
+      </c>
+      <c r="W33" s="4">
+        <v>52.08</v>
+      </c>
+      <c r="X33" s="4">
+        <v>109.98</v>
+      </c>
+      <c r="Y33" s="4">
+        <v>173.3</v>
+      </c>
+      <c r="Z33" s="4">
+        <v>241.7</v>
+      </c>
+      <c r="AA33" s="4">
+        <v>311.89</v>
+      </c>
+      <c r="AB33" s="4">
+        <v>415.26</v>
+      </c>
+      <c r="AC33" s="4">
+        <v>68.349999999999994</v>
+      </c>
+      <c r="AD33" s="4">
+        <v>103.32</v>
+      </c>
+      <c r="AE33" s="4">
+        <v>206.66</v>
+      </c>
+      <c r="AF33" s="4">
+        <v>276.88</v>
+      </c>
+      <c r="AG33" s="4">
+        <v>381.96</v>
+      </c>
+      <c r="AH33" s="4">
+        <v>449.97</v>
+      </c>
+      <c r="AI33" s="4">
+        <v>52.08</v>
+      </c>
+      <c r="AJ33" s="4">
+        <v>109.98</v>
+      </c>
+      <c r="AK33" s="4">
+        <v>173.3</v>
+      </c>
+      <c r="AL33" s="4">
+        <v>241.7</v>
+      </c>
+      <c r="AM33" s="4">
+        <v>311.89</v>
+      </c>
+      <c r="AN33" s="4">
+        <v>415.26</v>
+      </c>
+      <c r="AO33" s="4"/>
+      <c r="AP33" s="4"/>
       <c r="AQ33" s="19"/>
     </row>
     <row r="34" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C34" s="5">
-        <v>189.88</v>
+        <v>180.11</v>
       </c>
       <c r="D34" s="5">
-        <v>151.91999999999999</v>
+        <v>144.11000000000001</v>
       </c>
       <c r="E34" s="5">
-        <v>113.92</v>
+        <v>108.06</v>
       </c>
       <c r="F34" s="5">
-        <v>91.06</v>
+        <v>86.37</v>
       </c>
       <c r="G34" s="5">
-        <v>75.930000000000007</v>
+        <v>72.02</v>
       </c>
       <c r="H34" s="5">
-        <v>60.77</v>
+        <v>57.64</v>
       </c>
       <c r="I34" s="5">
-        <v>53.07</v>
+        <v>50.34</v>
       </c>
       <c r="J34" s="5">
-        <v>45.51</v>
+        <v>43.17</v>
       </c>
       <c r="K34" s="5">
-        <v>37.92</v>
-      </c>
-      <c r="L34" s="5">
-        <v>0</v>
-      </c>
+        <v>35.97</v>
+      </c>
+      <c r="L34" s="5"/>
       <c r="M34" s="5">
-        <v>30.23</v>
+        <v>28.67</v>
       </c>
       <c r="N34" s="5">
-        <v>22.74</v>
-      </c>
-      <c r="O34" s="5">
-        <v>0</v>
-      </c>
-      <c r="P34" s="5">
-        <v>0</v>
-      </c>
+        <v>21.57</v>
+      </c>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
       <c r="Q34" s="5">
-        <v>15.21</v>
+        <v>14.42</v>
       </c>
       <c r="R34" s="5">
-        <v>7.55</v>
+        <v>7.16</v>
       </c>
       <c r="S34" s="5">
-        <v>30.46</v>
+        <v>28.89</v>
       </c>
       <c r="T34" s="5">
-        <v>21.08</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="U34" s="5">
-        <v>18.75</v>
+        <v>17.78</v>
       </c>
       <c r="V34" s="5">
-        <v>31.11</v>
+        <v>29.51</v>
       </c>
       <c r="W34" s="5">
-        <v>58.69</v>
+        <v>55.67</v>
       </c>
       <c r="X34" s="5">
-        <v>123.94</v>
+        <v>117.56</v>
       </c>
       <c r="Y34" s="5">
-        <v>195.29</v>
+        <v>185.25</v>
       </c>
       <c r="Z34" s="5">
-        <v>272.38</v>
+        <v>258.37</v>
       </c>
       <c r="AA34" s="5">
-        <v>351.48</v>
+        <v>333.41</v>
       </c>
       <c r="AB34" s="5">
-        <v>467.97</v>
+        <v>443.91</v>
       </c>
       <c r="AC34" s="5">
-        <v>77.02</v>
+        <v>73.06</v>
       </c>
       <c r="AD34" s="5">
-        <v>116.43</v>
+        <v>110.44</v>
       </c>
       <c r="AE34" s="5">
-        <v>232.89</v>
+        <v>220.91</v>
       </c>
       <c r="AF34" s="5">
-        <v>312.02999999999997</v>
+        <v>295.98</v>
       </c>
       <c r="AG34" s="5">
-        <v>430.44</v>
+        <v>408.31</v>
       </c>
       <c r="AH34" s="5">
-        <v>507.08</v>
+        <v>481.01</v>
       </c>
       <c r="AI34" s="5">
-        <v>58.69</v>
+        <v>55.67</v>
       </c>
       <c r="AJ34" s="5">
-        <v>123.94</v>
+        <v>117.56</v>
       </c>
       <c r="AK34" s="5">
-        <v>195.29</v>
+        <v>185.25</v>
       </c>
       <c r="AL34" s="5">
-        <v>272.38</v>
+        <v>258.37</v>
       </c>
       <c r="AM34" s="5">
-        <v>351.48</v>
+        <v>333.41</v>
       </c>
       <c r="AN34" s="5">
-        <v>467.97</v>
+        <v>443.91</v>
       </c>
       <c r="AO34" s="5">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AP34" s="5">
-        <v>75.41</v>
+        <v>71.53</v>
       </c>
       <c r="AQ34" s="19"/>
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C35" s="5">
-        <v>200.96</v>
+        <v>189.88</v>
       </c>
       <c r="D35" s="5">
-        <v>160.79</v>
+        <v>151.91999999999999</v>
       </c>
       <c r="E35" s="5">
-        <v>120.55</v>
+        <v>113.92</v>
       </c>
       <c r="F35" s="5">
-        <v>96.38</v>
+        <v>91.06</v>
       </c>
       <c r="G35" s="5">
-        <v>80.36</v>
+        <v>75.930000000000007</v>
       </c>
       <c r="H35" s="5">
-        <v>64.319999999999993</v>
+        <v>60.77</v>
       </c>
       <c r="I35" s="5">
-        <v>56.17</v>
+        <v>53.07</v>
       </c>
       <c r="J35" s="5">
-        <v>48.17</v>
+        <v>45.51</v>
       </c>
       <c r="K35" s="5">
-        <v>40.130000000000003</v>
+        <v>37.92</v>
       </c>
       <c r="L35" s="5">
         <v>0</v>
       </c>
       <c r="M35" s="5">
-        <v>31.99</v>
+        <v>30.23</v>
       </c>
       <c r="N35" s="5">
-        <v>24.07</v>
+        <v>22.74</v>
       </c>
       <c r="O35" s="5">
         <v>0</v>
@@ -5544,127 +5636,127 @@
         <v>0</v>
       </c>
       <c r="Q35" s="5">
-        <v>0</v>
+        <v>15.21</v>
       </c>
       <c r="R35" s="5">
-        <v>0</v>
+        <v>7.55</v>
       </c>
       <c r="S35" s="5">
-        <v>0</v>
+        <v>30.46</v>
       </c>
       <c r="T35" s="5">
-        <v>0</v>
+        <v>21.08</v>
       </c>
       <c r="U35" s="5">
-        <v>0</v>
+        <v>18.75</v>
       </c>
       <c r="V35" s="5">
-        <v>0</v>
+        <v>31.11</v>
       </c>
       <c r="W35" s="5">
-        <v>62.12</v>
+        <v>58.69</v>
       </c>
       <c r="X35" s="5">
-        <v>131.16999999999999</v>
+        <v>123.94</v>
       </c>
       <c r="Y35" s="5">
-        <v>206.69</v>
+        <v>195.29</v>
       </c>
       <c r="Z35" s="5">
-        <v>288.27999999999997</v>
+        <v>272.38</v>
       </c>
       <c r="AA35" s="5">
-        <v>372</v>
+        <v>351.48</v>
       </c>
       <c r="AB35" s="5">
-        <v>495.29</v>
+        <v>467.97</v>
       </c>
       <c r="AC35" s="5">
-        <v>81.52</v>
+        <v>77.02</v>
       </c>
       <c r="AD35" s="5">
-        <v>123.23</v>
+        <v>116.43</v>
       </c>
       <c r="AE35" s="5">
-        <v>246.48</v>
+        <v>232.89</v>
       </c>
       <c r="AF35" s="5">
-        <v>330.24</v>
+        <v>312.02999999999997</v>
       </c>
       <c r="AG35" s="5">
-        <v>455.57</v>
+        <v>430.44</v>
       </c>
       <c r="AH35" s="5">
-        <v>536.67999999999995</v>
+        <v>507.08</v>
       </c>
       <c r="AI35" s="5">
-        <v>62.12</v>
+        <v>58.69</v>
       </c>
       <c r="AJ35" s="5">
-        <v>131.16999999999999</v>
+        <v>123.94</v>
       </c>
       <c r="AK35" s="5">
-        <v>206.69</v>
+        <v>195.29</v>
       </c>
       <c r="AL35" s="5">
-        <v>288.27999999999997</v>
+        <v>272.38</v>
       </c>
       <c r="AM35" s="5">
-        <v>372</v>
+        <v>351.48</v>
       </c>
       <c r="AN35" s="5">
-        <v>495.29</v>
+        <v>467.97</v>
       </c>
       <c r="AO35" s="5">
-        <v>1.77</v>
+        <v>1.67</v>
       </c>
       <c r="AP35" s="5">
-        <v>79.81</v>
+        <v>75.41</v>
       </c>
       <c r="AQ35" s="19"/>
     </row>
     <row r="36" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C36" s="5">
-        <v>214.13</v>
+        <v>200.96</v>
       </c>
       <c r="D36" s="5">
-        <v>171.32</v>
+        <v>160.79</v>
       </c>
       <c r="E36" s="5">
-        <v>128.44999999999999</v>
+        <v>120.55</v>
       </c>
       <c r="F36" s="5">
-        <v>102.69</v>
+        <v>96.38</v>
       </c>
       <c r="G36" s="5">
-        <v>85.63</v>
+        <v>80.36</v>
       </c>
       <c r="H36" s="5">
-        <v>68.53</v>
+        <v>64.319999999999993</v>
       </c>
       <c r="I36" s="5">
-        <v>59.85</v>
+        <v>56.17</v>
       </c>
       <c r="J36" s="5">
-        <v>51.32</v>
+        <v>48.17</v>
       </c>
       <c r="K36" s="5">
-        <v>42.76</v>
+        <v>40.130000000000003</v>
       </c>
       <c r="L36" s="5">
         <v>0</v>
       </c>
       <c r="M36" s="5">
-        <v>34.090000000000003</v>
+        <v>31.99</v>
       </c>
       <c r="N36" s="5">
-        <v>28.24</v>
+        <v>24.07</v>
       </c>
       <c r="O36" s="5">
         <v>0</v>
@@ -5691,109 +5783,109 @@
         <v>0</v>
       </c>
       <c r="W36" s="5">
-        <v>95.9</v>
+        <v>62.12</v>
       </c>
       <c r="X36" s="5">
-        <v>213.11</v>
+        <v>131.16999999999999</v>
       </c>
       <c r="Y36" s="5">
-        <v>0</v>
+        <v>206.69</v>
       </c>
       <c r="Z36" s="5">
-        <v>383.6</v>
+        <v>288.27999999999997</v>
       </c>
       <c r="AA36" s="5">
-        <v>532.78</v>
+        <v>372</v>
       </c>
       <c r="AB36" s="5">
-        <v>745.89</v>
+        <v>495.29</v>
       </c>
       <c r="AC36" s="5">
-        <v>0</v>
+        <v>81.52</v>
       </c>
       <c r="AD36" s="5">
-        <v>159.83000000000001</v>
+        <v>123.23</v>
       </c>
       <c r="AE36" s="5">
-        <v>0</v>
+        <v>246.48</v>
       </c>
       <c r="AF36" s="5">
-        <v>351.63</v>
+        <v>330.24</v>
       </c>
       <c r="AG36" s="5">
-        <v>490.15</v>
+        <v>455.57</v>
       </c>
       <c r="AH36" s="5">
-        <v>0</v>
+        <v>536.67999999999995</v>
       </c>
       <c r="AI36" s="5">
-        <v>0</v>
+        <v>62.12</v>
       </c>
       <c r="AJ36" s="5">
-        <v>143.85</v>
+        <v>131.16999999999999</v>
       </c>
       <c r="AK36" s="5">
-        <v>0</v>
+        <v>206.69</v>
       </c>
       <c r="AL36" s="5">
-        <v>309.01</v>
+        <v>288.27999999999997</v>
       </c>
       <c r="AM36" s="5">
-        <v>404.91</v>
+        <v>372</v>
       </c>
       <c r="AN36" s="5">
-        <v>0</v>
+        <v>495.29</v>
       </c>
       <c r="AO36" s="5">
-        <v>1.88</v>
+        <v>1.77</v>
       </c>
       <c r="AP36" s="5">
-        <v>85.04</v>
+        <v>79.81</v>
       </c>
       <c r="AQ36" s="19"/>
     </row>
     <row r="37" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C37" s="5">
-        <v>237.01</v>
+        <v>214.13</v>
       </c>
       <c r="D37" s="5">
-        <v>189.63</v>
+        <v>171.32</v>
       </c>
       <c r="E37" s="5">
-        <v>142.18</v>
+        <v>128.44999999999999</v>
       </c>
       <c r="F37" s="5">
-        <v>113.66</v>
+        <v>102.69</v>
       </c>
       <c r="G37" s="5">
-        <v>94.78</v>
+        <v>85.63</v>
       </c>
       <c r="H37" s="5">
-        <v>75.849999999999994</v>
+        <v>68.53</v>
       </c>
       <c r="I37" s="5">
-        <v>66.25</v>
+        <v>59.85</v>
       </c>
       <c r="J37" s="5">
-        <v>56.8</v>
+        <v>51.32</v>
       </c>
       <c r="K37" s="5">
-        <v>47.33</v>
+        <v>42.76</v>
       </c>
       <c r="L37" s="5">
         <v>0</v>
       </c>
       <c r="M37" s="5">
-        <v>37.729999999999997</v>
+        <v>34.090000000000003</v>
       </c>
       <c r="N37" s="5">
-        <v>34.03</v>
+        <v>28.24</v>
       </c>
       <c r="O37" s="5">
         <v>0</v>
@@ -5820,37 +5912,37 @@
         <v>0</v>
       </c>
       <c r="W37" s="5">
-        <v>106.15</v>
+        <v>95.9</v>
       </c>
       <c r="X37" s="5">
-        <v>235.89</v>
+        <v>213.11</v>
       </c>
       <c r="Y37" s="5">
         <v>0</v>
       </c>
       <c r="Z37" s="5">
-        <v>424.6</v>
+        <v>383.6</v>
       </c>
       <c r="AA37" s="5">
-        <v>589.72</v>
+        <v>532.78</v>
       </c>
       <c r="AB37" s="5">
-        <v>825.61</v>
+        <v>745.89</v>
       </c>
       <c r="AC37" s="5">
         <v>0</v>
       </c>
       <c r="AD37" s="5">
-        <v>176.91</v>
+        <v>159.83000000000001</v>
       </c>
       <c r="AE37" s="5">
         <v>0</v>
       </c>
       <c r="AF37" s="5">
-        <v>389.21</v>
+        <v>351.63</v>
       </c>
       <c r="AG37" s="5">
-        <v>542.53</v>
+        <v>490.15</v>
       </c>
       <c r="AH37" s="5">
         <v>0</v>
@@ -5859,72 +5951,70 @@
         <v>0</v>
       </c>
       <c r="AJ37" s="5">
-        <v>159.22</v>
+        <v>143.85</v>
       </c>
       <c r="AK37" s="5">
         <v>0</v>
       </c>
       <c r="AL37" s="5">
-        <v>342.03</v>
+        <v>309.01</v>
       </c>
       <c r="AM37" s="5">
-        <v>448.18</v>
+        <v>404.91</v>
       </c>
       <c r="AN37" s="5">
         <v>0</v>
       </c>
       <c r="AO37" s="5">
-        <v>2.08</v>
+        <v>1.88</v>
       </c>
       <c r="AP37" s="5">
-        <v>94.13</v>
-      </c>
-      <c r="AQ37" s="19">
-        <v>2.1800000000000002</v>
-      </c>
+        <v>85.04</v>
+      </c>
+      <c r="AQ37" s="19"/>
     </row>
     <row r="38" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C38" s="5">
-        <v>253.93</v>
+        <v>237.01</v>
       </c>
       <c r="D38" s="5">
-        <v>203.16</v>
+        <v>189.63</v>
       </c>
       <c r="E38" s="5">
-        <v>152.33000000000001</v>
+        <v>142.18</v>
       </c>
       <c r="F38" s="5">
-        <v>121.77</v>
+        <v>113.66</v>
       </c>
       <c r="G38" s="5">
-        <v>101.54</v>
+        <v>94.78</v>
       </c>
       <c r="H38" s="5">
-        <v>81.260000000000005</v>
+        <v>75.849999999999994</v>
       </c>
       <c r="I38" s="5">
-        <v>70.98</v>
+        <v>66.25</v>
       </c>
       <c r="J38" s="5">
-        <v>60.85</v>
+        <v>56.8</v>
       </c>
       <c r="K38" s="5">
-        <v>50.71</v>
+        <v>47.33</v>
       </c>
       <c r="L38" s="5">
         <v>0</v>
       </c>
       <c r="M38" s="5">
-        <v>40.42</v>
+        <v>37.729999999999997</v>
       </c>
       <c r="N38" s="5">
-        <v>39.53</v>
+        <v>34.03</v>
       </c>
       <c r="O38" s="5">
         <v>0</v>
@@ -5951,37 +6041,37 @@
         <v>0</v>
       </c>
       <c r="W38" s="5">
-        <v>113.73</v>
+        <v>106.15</v>
       </c>
       <c r="X38" s="5">
-        <v>252.73</v>
+        <v>235.89</v>
       </c>
       <c r="Y38" s="5">
         <v>0</v>
       </c>
       <c r="Z38" s="5">
-        <v>454.91</v>
+        <v>424.6</v>
       </c>
       <c r="AA38" s="5">
-        <v>631.80999999999995</v>
+        <v>589.72</v>
       </c>
       <c r="AB38" s="5">
-        <v>884.54</v>
+        <v>825.61</v>
       </c>
       <c r="AC38" s="5">
         <v>0</v>
       </c>
       <c r="AD38" s="5">
-        <v>189.54</v>
+        <v>176.91</v>
       </c>
       <c r="AE38" s="5">
         <v>0</v>
       </c>
       <c r="AF38" s="5">
-        <v>416.99</v>
+        <v>389.21</v>
       </c>
       <c r="AG38" s="5">
-        <v>581.25</v>
+        <v>542.53</v>
       </c>
       <c r="AH38" s="5">
         <v>0</v>
@@ -5990,331 +6080,331 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="5">
-        <v>170.58</v>
+        <v>159.22</v>
       </c>
       <c r="AK38" s="5">
         <v>0</v>
       </c>
       <c r="AL38" s="5">
-        <v>366.44</v>
+        <v>342.03</v>
       </c>
       <c r="AM38" s="5">
-        <v>480.17</v>
+        <v>448.18</v>
       </c>
       <c r="AN38" s="5">
         <v>0</v>
       </c>
       <c r="AO38" s="5">
-        <v>2.23</v>
+        <v>2.08</v>
       </c>
       <c r="AP38" s="5">
-        <v>100.85</v>
+        <v>94.13</v>
       </c>
       <c r="AQ38" s="19">
-        <v>2.34</v>
+        <v>2.1800000000000002</v>
       </c>
     </row>
     <row r="39" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A39" s="10">
-        <v>2018</v>
+      <c r="A39" s="6">
+        <v>2017</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39" s="11">
-        <v>260.32</v>
-      </c>
-      <c r="D39" s="11">
-        <v>208.27</v>
-      </c>
-      <c r="E39" s="11">
-        <v>156.16</v>
-      </c>
-      <c r="F39" s="11">
-        <v>124.83</v>
-      </c>
-      <c r="G39" s="11">
-        <v>104.1</v>
-      </c>
-      <c r="H39" s="11">
-        <v>83.31</v>
-      </c>
-      <c r="I39" s="11">
-        <v>72.77</v>
-      </c>
-      <c r="J39" s="11">
-        <v>62.38</v>
-      </c>
-      <c r="K39" s="11">
-        <v>51.99</v>
-      </c>
-      <c r="L39" s="11">
-        <v>0</v>
-      </c>
-      <c r="M39" s="11">
-        <v>43.09</v>
-      </c>
-      <c r="N39" s="11">
-        <v>0</v>
-      </c>
-      <c r="O39" s="11">
-        <v>0</v>
-      </c>
-      <c r="P39" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="11">
-        <v>0</v>
-      </c>
-      <c r="R39" s="11">
-        <v>0</v>
-      </c>
-      <c r="S39" s="11">
-        <v>0</v>
-      </c>
-      <c r="T39" s="11">
-        <v>0</v>
-      </c>
-      <c r="U39" s="11">
-        <v>0</v>
-      </c>
-      <c r="V39" s="11">
-        <v>0</v>
-      </c>
-      <c r="W39" s="11">
-        <v>116.59</v>
-      </c>
-      <c r="X39" s="11">
-        <v>259.08999999999997</v>
-      </c>
-      <c r="Y39" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z39" s="11">
-        <v>466.36</v>
-      </c>
-      <c r="AA39" s="11">
-        <v>647.71</v>
-      </c>
-      <c r="AB39" s="11">
-        <v>906.8</v>
-      </c>
-      <c r="AC39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD39" s="11">
-        <v>194.31</v>
-      </c>
-      <c r="AE39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF39" s="11">
-        <v>427.48</v>
-      </c>
-      <c r="AG39" s="11">
-        <v>595.88</v>
-      </c>
-      <c r="AH39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ39" s="11">
-        <v>174.87</v>
-      </c>
-      <c r="AK39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL39" s="11">
-        <v>375.66</v>
-      </c>
-      <c r="AM39" s="11">
-        <v>492.25</v>
-      </c>
-      <c r="AN39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AO39" s="11">
-        <v>2.29</v>
-      </c>
-      <c r="AP39" s="11">
-        <v>103.39</v>
+        <v>0</v>
+      </c>
+      <c r="C39" s="5">
+        <v>253.93</v>
+      </c>
+      <c r="D39" s="5">
+        <v>203.16</v>
+      </c>
+      <c r="E39" s="5">
+        <v>152.33000000000001</v>
+      </c>
+      <c r="F39" s="5">
+        <v>121.77</v>
+      </c>
+      <c r="G39" s="5">
+        <v>101.54</v>
+      </c>
+      <c r="H39" s="5">
+        <v>81.260000000000005</v>
+      </c>
+      <c r="I39" s="5">
+        <v>70.98</v>
+      </c>
+      <c r="J39" s="5">
+        <v>60.85</v>
+      </c>
+      <c r="K39" s="5">
+        <v>50.71</v>
+      </c>
+      <c r="L39" s="5">
+        <v>0</v>
+      </c>
+      <c r="M39" s="5">
+        <v>40.42</v>
+      </c>
+      <c r="N39" s="5">
+        <v>39.53</v>
+      </c>
+      <c r="O39" s="5">
+        <v>0</v>
+      </c>
+      <c r="P39" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="5">
+        <v>0</v>
+      </c>
+      <c r="R39" s="5">
+        <v>0</v>
+      </c>
+      <c r="S39" s="5">
+        <v>0</v>
+      </c>
+      <c r="T39" s="5">
+        <v>0</v>
+      </c>
+      <c r="U39" s="5">
+        <v>0</v>
+      </c>
+      <c r="V39" s="5">
+        <v>0</v>
+      </c>
+      <c r="W39" s="5">
+        <v>113.73</v>
+      </c>
+      <c r="X39" s="5">
+        <v>252.73</v>
+      </c>
+      <c r="Y39" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="5">
+        <v>454.91</v>
+      </c>
+      <c r="AA39" s="5">
+        <v>631.80999999999995</v>
+      </c>
+      <c r="AB39" s="5">
+        <v>884.54</v>
+      </c>
+      <c r="AC39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="5">
+        <v>189.54</v>
+      </c>
+      <c r="AE39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="5">
+        <v>416.99</v>
+      </c>
+      <c r="AG39" s="5">
+        <v>581.25</v>
+      </c>
+      <c r="AH39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ39" s="5">
+        <v>170.58</v>
+      </c>
+      <c r="AK39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL39" s="5">
+        <v>366.44</v>
+      </c>
+      <c r="AM39" s="5">
+        <v>480.17</v>
+      </c>
+      <c r="AN39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO39" s="5">
+        <v>2.23</v>
+      </c>
+      <c r="AP39" s="5">
+        <v>100.85</v>
       </c>
       <c r="AQ39" s="19">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="40" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A40" s="12">
-        <v>2019</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C40" s="16">
-        <v>270.08</v>
-      </c>
-      <c r="D40" s="16">
-        <v>216.08</v>
-      </c>
-      <c r="E40" s="16">
-        <v>162.02000000000001</v>
-      </c>
-      <c r="F40" s="16">
-        <v>129.52000000000001</v>
-      </c>
-      <c r="G40" s="16">
-        <v>108</v>
-      </c>
-      <c r="H40" s="16">
-        <v>86.43</v>
-      </c>
-      <c r="I40" s="16">
-        <v>75.5</v>
-      </c>
-      <c r="J40" s="16">
-        <v>64.72</v>
-      </c>
-      <c r="K40" s="16">
-        <v>53.94</v>
-      </c>
-      <c r="L40" s="16">
-        <v>0</v>
-      </c>
-      <c r="M40" s="16">
-        <v>47.3</v>
-      </c>
-      <c r="N40" s="16">
-        <v>0</v>
-      </c>
-      <c r="O40" s="16">
-        <v>0</v>
-      </c>
-      <c r="P40" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="16">
-        <v>0</v>
-      </c>
-      <c r="R40" s="16">
-        <v>0</v>
-      </c>
-      <c r="S40" s="16">
-        <v>0</v>
-      </c>
-      <c r="T40" s="16">
-        <v>0</v>
-      </c>
-      <c r="U40" s="16">
-        <v>0</v>
-      </c>
-      <c r="V40" s="16">
-        <v>0</v>
-      </c>
-      <c r="W40" s="16">
-        <v>120.96</v>
-      </c>
-      <c r="X40" s="16">
-        <v>268.81</v>
-      </c>
-      <c r="Y40" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="16">
-        <v>483.85</v>
-      </c>
-      <c r="AA40" s="16">
-        <v>672</v>
-      </c>
-      <c r="AB40" s="16">
-        <v>940.81</v>
-      </c>
-      <c r="AC40" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD40" s="16">
-        <v>201.6</v>
-      </c>
-      <c r="AE40" s="16">
-        <v>0</v>
-      </c>
-      <c r="AF40" s="16">
-        <v>443.52</v>
-      </c>
-      <c r="AG40" s="16">
-        <v>618.22</v>
-      </c>
-      <c r="AH40" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI40" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ40" s="16">
-        <v>181.43</v>
-      </c>
-      <c r="AK40" s="16">
-        <v>0</v>
-      </c>
-      <c r="AL40" s="16">
-        <v>389.75</v>
-      </c>
-      <c r="AM40" s="16">
-        <v>510.71</v>
-      </c>
-      <c r="AN40" s="16">
-        <v>0</v>
-      </c>
-      <c r="AO40" s="16">
-        <v>2.38</v>
-      </c>
-      <c r="AP40" s="16">
-        <v>107.27</v>
+      <c r="A40" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="11">
+        <v>260.32</v>
+      </c>
+      <c r="D40" s="11">
+        <v>208.27</v>
+      </c>
+      <c r="E40" s="11">
+        <v>156.16</v>
+      </c>
+      <c r="F40" s="11">
+        <v>124.83</v>
+      </c>
+      <c r="G40" s="11">
+        <v>104.1</v>
+      </c>
+      <c r="H40" s="11">
+        <v>83.31</v>
+      </c>
+      <c r="I40" s="11">
+        <v>72.77</v>
+      </c>
+      <c r="J40" s="11">
+        <v>62.38</v>
+      </c>
+      <c r="K40" s="11">
+        <v>51.99</v>
+      </c>
+      <c r="L40" s="11">
+        <v>0</v>
+      </c>
+      <c r="M40" s="11">
+        <v>43.09</v>
+      </c>
+      <c r="N40" s="11">
+        <v>0</v>
+      </c>
+      <c r="O40" s="11">
+        <v>0</v>
+      </c>
+      <c r="P40" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="11">
+        <v>0</v>
+      </c>
+      <c r="R40" s="11">
+        <v>0</v>
+      </c>
+      <c r="S40" s="11">
+        <v>0</v>
+      </c>
+      <c r="T40" s="11">
+        <v>0</v>
+      </c>
+      <c r="U40" s="11">
+        <v>0</v>
+      </c>
+      <c r="V40" s="11">
+        <v>0</v>
+      </c>
+      <c r="W40" s="11">
+        <v>116.59</v>
+      </c>
+      <c r="X40" s="11">
+        <v>259.08999999999997</v>
+      </c>
+      <c r="Y40" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="11">
+        <v>466.36</v>
+      </c>
+      <c r="AA40" s="11">
+        <v>647.71</v>
+      </c>
+      <c r="AB40" s="11">
+        <v>906.8</v>
+      </c>
+      <c r="AC40" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="11">
+        <v>194.31</v>
+      </c>
+      <c r="AE40" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="11">
+        <v>427.48</v>
+      </c>
+      <c r="AG40" s="11">
+        <v>595.88</v>
+      </c>
+      <c r="AH40" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI40" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ40" s="11">
+        <v>174.87</v>
+      </c>
+      <c r="AK40" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL40" s="11">
+        <v>375.66</v>
+      </c>
+      <c r="AM40" s="11">
+        <v>492.25</v>
+      </c>
+      <c r="AN40" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO40" s="11">
+        <v>2.29</v>
+      </c>
+      <c r="AP40" s="11">
+        <v>103.39</v>
       </c>
       <c r="AQ40" s="19">
-        <v>2.4900000000000002</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="41" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A41" s="12">
-        <v>2020</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>74</v>
+        <v>2019</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="C41" s="16">
-        <v>281.72000000000003</v>
+        <v>270.08</v>
       </c>
       <c r="D41" s="16">
-        <v>225.4</v>
+        <v>216.08</v>
       </c>
       <c r="E41" s="16">
-        <v>169</v>
+        <v>162.02000000000001</v>
       </c>
       <c r="F41" s="16">
-        <v>135.1</v>
+        <v>129.52000000000001</v>
       </c>
       <c r="G41" s="16">
-        <v>112.65</v>
+        <v>108</v>
       </c>
       <c r="H41" s="16">
-        <v>90.15</v>
+        <v>86.43</v>
       </c>
       <c r="I41" s="16">
-        <v>78.75</v>
+        <v>75.5</v>
       </c>
       <c r="J41" s="16">
-        <v>67.510000000000005</v>
+        <v>64.72</v>
       </c>
       <c r="K41" s="16">
-        <v>56.26</v>
+        <v>53.94</v>
       </c>
       <c r="L41" s="16">
         <v>0</v>
       </c>
       <c r="M41" s="16">
-        <v>51.95</v>
+        <v>47.3</v>
       </c>
       <c r="N41" s="16">
         <v>0</v>
@@ -6344,37 +6434,37 @@
         <v>0</v>
       </c>
       <c r="W41" s="16">
-        <v>126.18</v>
+        <v>120.96</v>
       </c>
       <c r="X41" s="16">
-        <v>280.39</v>
+        <v>268.81</v>
       </c>
       <c r="Y41" s="16">
         <v>0</v>
       </c>
       <c r="Z41" s="16">
-        <v>504.7</v>
+        <v>483.85</v>
       </c>
       <c r="AA41" s="16">
-        <v>700.96</v>
+        <v>672</v>
       </c>
       <c r="AB41" s="16">
-        <v>981.36</v>
+        <v>940.81</v>
       </c>
       <c r="AC41" s="16">
         <v>0</v>
       </c>
       <c r="AD41" s="16">
-        <v>210.29</v>
+        <v>201.6</v>
       </c>
       <c r="AE41" s="16">
         <v>0</v>
       </c>
       <c r="AF41" s="16">
-        <v>462.63</v>
+        <v>443.52</v>
       </c>
       <c r="AG41" s="16">
-        <v>644.87</v>
+        <v>618.22</v>
       </c>
       <c r="AH41" s="16">
         <v>0</v>
@@ -6383,167 +6473,167 @@
         <v>0</v>
       </c>
       <c r="AJ41" s="16">
-        <v>189.25</v>
+        <v>181.43</v>
       </c>
       <c r="AK41" s="16">
         <v>0</v>
       </c>
       <c r="AL41" s="16">
-        <v>406.55</v>
+        <v>389.75</v>
       </c>
       <c r="AM41" s="16">
-        <v>532.73</v>
+        <v>510.71</v>
       </c>
       <c r="AN41" s="16">
         <v>0</v>
       </c>
       <c r="AO41" s="16">
-        <v>2.48</v>
+        <v>2.38</v>
       </c>
       <c r="AP41" s="16">
-        <v>111.89</v>
+        <v>107.27</v>
       </c>
       <c r="AQ41" s="19">
-        <v>2.6</v>
+        <v>2.4900000000000002</v>
       </c>
     </row>
     <row r="42" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A42" s="21">
-        <v>2021</v>
+      <c r="A42" s="12">
+        <v>2020</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C42" s="19">
-        <v>294.45</v>
-      </c>
-      <c r="D42" s="19">
-        <v>235.59</v>
-      </c>
-      <c r="E42" s="19">
-        <v>176.64</v>
-      </c>
-      <c r="F42" s="19">
-        <v>141.21</v>
-      </c>
-      <c r="G42" s="19">
-        <v>117.74</v>
-      </c>
-      <c r="H42" s="19">
-        <v>94.22</v>
-      </c>
-      <c r="I42" s="19">
-        <v>82.31</v>
-      </c>
-      <c r="J42" s="19">
-        <v>70.56</v>
-      </c>
-      <c r="K42" s="19">
-        <v>58.8</v>
-      </c>
-      <c r="L42" s="19">
-        <v>0</v>
-      </c>
-      <c r="M42" s="19">
-        <v>56.91</v>
-      </c>
-      <c r="N42" s="19">
-        <v>0</v>
-      </c>
-      <c r="O42" s="19">
-        <v>0</v>
-      </c>
-      <c r="P42" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="19">
-        <v>0</v>
-      </c>
-      <c r="R42" s="19">
-        <v>0</v>
-      </c>
-      <c r="S42" s="19">
-        <v>0</v>
-      </c>
-      <c r="T42" s="19">
-        <v>0</v>
-      </c>
-      <c r="U42" s="19">
-        <v>0</v>
-      </c>
-      <c r="V42" s="19">
-        <v>0</v>
-      </c>
-      <c r="W42" s="19">
-        <v>131.88</v>
-      </c>
-      <c r="X42" s="19">
-        <v>293.07</v>
-      </c>
-      <c r="Y42" s="19">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="19">
-        <v>527.51</v>
-      </c>
-      <c r="AA42" s="19">
-        <v>732.64</v>
-      </c>
-      <c r="AB42" s="19">
-        <v>1025.74</v>
-      </c>
-      <c r="AC42" s="19">
-        <v>0</v>
-      </c>
-      <c r="AD42" s="19">
-        <v>219.8</v>
-      </c>
-      <c r="AE42" s="19">
-        <v>0</v>
-      </c>
-      <c r="AF42" s="19">
-        <v>483.55</v>
-      </c>
-      <c r="AG42" s="19">
-        <v>674.02</v>
-      </c>
-      <c r="AH42" s="19">
-        <v>0</v>
-      </c>
-      <c r="AI42" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ42" s="19">
-        <v>197.8</v>
-      </c>
-      <c r="AK42" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL42" s="19">
-        <v>424.93</v>
-      </c>
-      <c r="AM42" s="19">
-        <v>556.79999999999995</v>
-      </c>
-      <c r="AN42" s="19">
-        <v>0</v>
-      </c>
-      <c r="AO42" s="19">
-        <v>2.59</v>
-      </c>
-      <c r="AP42" s="19">
-        <v>116.95</v>
+        <v>74</v>
+      </c>
+      <c r="C42" s="16">
+        <v>281.72000000000003</v>
+      </c>
+      <c r="D42" s="16">
+        <v>225.4</v>
+      </c>
+      <c r="E42" s="16">
+        <v>169</v>
+      </c>
+      <c r="F42" s="16">
+        <v>135.1</v>
+      </c>
+      <c r="G42" s="16">
+        <v>112.65</v>
+      </c>
+      <c r="H42" s="16">
+        <v>90.15</v>
+      </c>
+      <c r="I42" s="16">
+        <v>78.75</v>
+      </c>
+      <c r="J42" s="16">
+        <v>67.510000000000005</v>
+      </c>
+      <c r="K42" s="16">
+        <v>56.26</v>
+      </c>
+      <c r="L42" s="16">
+        <v>0</v>
+      </c>
+      <c r="M42" s="16">
+        <v>51.95</v>
+      </c>
+      <c r="N42" s="16">
+        <v>0</v>
+      </c>
+      <c r="O42" s="16">
+        <v>0</v>
+      </c>
+      <c r="P42" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="16">
+        <v>0</v>
+      </c>
+      <c r="R42" s="16">
+        <v>0</v>
+      </c>
+      <c r="S42" s="16">
+        <v>0</v>
+      </c>
+      <c r="T42" s="16">
+        <v>0</v>
+      </c>
+      <c r="U42" s="16">
+        <v>0</v>
+      </c>
+      <c r="V42" s="16">
+        <v>0</v>
+      </c>
+      <c r="W42" s="16">
+        <v>126.18</v>
+      </c>
+      <c r="X42" s="16">
+        <v>280.39</v>
+      </c>
+      <c r="Y42" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="16">
+        <v>504.7</v>
+      </c>
+      <c r="AA42" s="16">
+        <v>700.96</v>
+      </c>
+      <c r="AB42" s="16">
+        <v>981.36</v>
+      </c>
+      <c r="AC42" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="16">
+        <v>210.29</v>
+      </c>
+      <c r="AE42" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="16">
+        <v>462.63</v>
+      </c>
+      <c r="AG42" s="16">
+        <v>644.87</v>
+      </c>
+      <c r="AH42" s="16">
+        <v>0</v>
+      </c>
+      <c r="AI42" s="16">
+        <v>0</v>
+      </c>
+      <c r="AJ42" s="16">
+        <v>189.25</v>
+      </c>
+      <c r="AK42" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL42" s="16">
+        <v>406.55</v>
+      </c>
+      <c r="AM42" s="16">
+        <v>532.73</v>
+      </c>
+      <c r="AN42" s="16">
+        <v>0</v>
+      </c>
+      <c r="AO42" s="16">
+        <v>2.48</v>
+      </c>
+      <c r="AP42" s="16">
+        <v>111.89</v>
       </c>
       <c r="AQ42" s="19">
-        <v>2.72</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="43" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A43" s="21">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C43" s="19">
         <v>294.45</v>
@@ -6660,274 +6750,405 @@
         <v>0</v>
       </c>
       <c r="AO43" s="19">
-        <v>2.85</v>
+        <v>2.59</v>
       </c>
       <c r="AP43" s="19">
-        <v>128.72</v>
+        <v>116.95</v>
       </c>
       <c r="AQ43" s="19">
-        <v>2.99</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="44" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A44" s="6">
-        <v>2023</v>
+      <c r="A44" s="21">
+        <v>2022</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C44" s="5">
-        <v>311.5</v>
-      </c>
-      <c r="D44" s="5">
-        <v>249.22</v>
-      </c>
-      <c r="E44" s="5">
-        <v>186.87</v>
-      </c>
-      <c r="F44" s="5">
-        <v>149.38999999999999</v>
-      </c>
-      <c r="G44" s="5">
-        <v>124.56</v>
-      </c>
-      <c r="H44" s="5">
-        <v>99.7</v>
-      </c>
-      <c r="I44" s="5">
-        <v>87.08</v>
-      </c>
-      <c r="J44" s="5">
-        <v>74.650000000000006</v>
-      </c>
-      <c r="K44" s="5">
-        <v>62.85</v>
-      </c>
-      <c r="L44" s="5">
-        <v>0</v>
-      </c>
-      <c r="M44" s="5">
-        <v>0</v>
-      </c>
-      <c r="N44" s="5">
-        <v>0</v>
-      </c>
-      <c r="O44" s="5">
-        <v>0</v>
-      </c>
-      <c r="P44" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="5">
-        <v>0</v>
-      </c>
-      <c r="R44" s="5">
-        <v>0</v>
-      </c>
-      <c r="S44" s="5">
-        <v>0</v>
-      </c>
-      <c r="T44" s="5">
-        <v>0</v>
-      </c>
-      <c r="U44" s="5">
-        <v>0</v>
-      </c>
-      <c r="V44" s="5">
-        <v>0</v>
-      </c>
-      <c r="W44" s="5">
-        <v>139.51</v>
-      </c>
-      <c r="X44" s="5">
-        <v>310.04000000000002</v>
-      </c>
-      <c r="Y44" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z44" s="5">
-        <v>558.04999999999995</v>
-      </c>
-      <c r="AA44" s="5">
-        <v>775.06</v>
-      </c>
-      <c r="AB44" s="5">
-        <v>1085.1300000000001</v>
-      </c>
-      <c r="AC44" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD44" s="5">
-        <v>232.53</v>
-      </c>
-      <c r="AE44" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF44" s="5">
-        <v>511.55</v>
-      </c>
-      <c r="AG44" s="5">
-        <v>713.05</v>
-      </c>
-      <c r="AH44" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI44" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ44" s="5">
-        <v>209.25</v>
-      </c>
-      <c r="AK44" s="5">
-        <v>0</v>
-      </c>
-      <c r="AL44" s="5">
-        <v>449.53</v>
-      </c>
-      <c r="AM44" s="5">
-        <v>589.04</v>
-      </c>
-      <c r="AN44" s="5">
-        <v>0</v>
-      </c>
-      <c r="AO44" s="5">
-        <v>0</v>
-      </c>
-      <c r="AP44" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ44" s="5">
-        <v>2.88</v>
+        <v>77</v>
+      </c>
+      <c r="C44" s="19">
+        <v>294.45</v>
+      </c>
+      <c r="D44" s="19">
+        <v>235.59</v>
+      </c>
+      <c r="E44" s="19">
+        <v>176.64</v>
+      </c>
+      <c r="F44" s="19">
+        <v>141.21</v>
+      </c>
+      <c r="G44" s="19">
+        <v>117.74</v>
+      </c>
+      <c r="H44" s="19">
+        <v>94.22</v>
+      </c>
+      <c r="I44" s="19">
+        <v>82.31</v>
+      </c>
+      <c r="J44" s="19">
+        <v>70.56</v>
+      </c>
+      <c r="K44" s="19">
+        <v>58.8</v>
+      </c>
+      <c r="L44" s="19">
+        <v>0</v>
+      </c>
+      <c r="M44" s="19">
+        <v>56.91</v>
+      </c>
+      <c r="N44" s="19">
+        <v>0</v>
+      </c>
+      <c r="O44" s="19">
+        <v>0</v>
+      </c>
+      <c r="P44" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="19">
+        <v>0</v>
+      </c>
+      <c r="R44" s="19">
+        <v>0</v>
+      </c>
+      <c r="S44" s="19">
+        <v>0</v>
+      </c>
+      <c r="T44" s="19">
+        <v>0</v>
+      </c>
+      <c r="U44" s="19">
+        <v>0</v>
+      </c>
+      <c r="V44" s="19">
+        <v>0</v>
+      </c>
+      <c r="W44" s="19">
+        <v>131.88</v>
+      </c>
+      <c r="X44" s="19">
+        <v>293.07</v>
+      </c>
+      <c r="Y44" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="19">
+        <v>527.51</v>
+      </c>
+      <c r="AA44" s="19">
+        <v>732.64</v>
+      </c>
+      <c r="AB44" s="19">
+        <v>1025.74</v>
+      </c>
+      <c r="AC44" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="19">
+        <v>219.8</v>
+      </c>
+      <c r="AE44" s="19">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="19">
+        <v>483.55</v>
+      </c>
+      <c r="AG44" s="19">
+        <v>674.02</v>
+      </c>
+      <c r="AH44" s="19">
+        <v>0</v>
+      </c>
+      <c r="AI44" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ44" s="19">
+        <v>197.8</v>
+      </c>
+      <c r="AK44" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL44" s="19">
+        <v>424.93</v>
+      </c>
+      <c r="AM44" s="19">
+        <v>556.79999999999995</v>
+      </c>
+      <c r="AN44" s="19">
+        <v>0</v>
+      </c>
+      <c r="AO44" s="19">
+        <v>2.85</v>
+      </c>
+      <c r="AP44" s="19">
+        <v>128.72</v>
+      </c>
+      <c r="AQ44" s="19">
+        <v>2.99</v>
       </c>
     </row>
     <row r="45" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A45" s="26">
+      <c r="A45" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" s="5">
+        <v>311.5</v>
+      </c>
+      <c r="D45" s="5">
+        <v>249.22</v>
+      </c>
+      <c r="E45" s="5">
+        <v>186.87</v>
+      </c>
+      <c r="F45" s="5">
+        <v>149.38999999999999</v>
+      </c>
+      <c r="G45" s="5">
+        <v>124.56</v>
+      </c>
+      <c r="H45" s="5">
+        <v>99.7</v>
+      </c>
+      <c r="I45" s="5">
+        <v>87.08</v>
+      </c>
+      <c r="J45" s="5">
+        <v>74.650000000000006</v>
+      </c>
+      <c r="K45" s="5">
+        <v>62.85</v>
+      </c>
+      <c r="L45" s="5">
+        <v>0</v>
+      </c>
+      <c r="M45" s="5">
+        <v>0</v>
+      </c>
+      <c r="N45" s="5">
+        <v>0</v>
+      </c>
+      <c r="O45" s="5">
+        <v>0</v>
+      </c>
+      <c r="P45" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="5">
+        <v>0</v>
+      </c>
+      <c r="R45" s="5">
+        <v>0</v>
+      </c>
+      <c r="S45" s="5">
+        <v>0</v>
+      </c>
+      <c r="T45" s="5">
+        <v>0</v>
+      </c>
+      <c r="U45" s="5">
+        <v>0</v>
+      </c>
+      <c r="V45" s="5">
+        <v>0</v>
+      </c>
+      <c r="W45" s="5">
+        <v>139.51</v>
+      </c>
+      <c r="X45" s="5">
+        <v>310.04000000000002</v>
+      </c>
+      <c r="Y45" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="5">
+        <v>558.04999999999995</v>
+      </c>
+      <c r="AA45" s="5">
+        <v>775.06</v>
+      </c>
+      <c r="AB45" s="5">
+        <v>1085.1300000000001</v>
+      </c>
+      <c r="AC45" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="5">
+        <v>232.53</v>
+      </c>
+      <c r="AE45" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="5">
+        <v>511.55</v>
+      </c>
+      <c r="AG45" s="5">
+        <v>713.05</v>
+      </c>
+      <c r="AH45" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI45" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ45" s="5">
+        <v>209.25</v>
+      </c>
+      <c r="AK45" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL45" s="5">
+        <v>449.53</v>
+      </c>
+      <c r="AM45" s="5">
+        <v>589.04</v>
+      </c>
+      <c r="AN45" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO45" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP45" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ45" s="5">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A46" s="26">
         <v>2024</v>
       </c>
-      <c r="B45" s="27" t="s">
+      <c r="B46" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="28">
+      <c r="C46" s="28">
         <v>326.51</v>
       </c>
-      <c r="D45" s="28">
+      <c r="D46" s="28">
         <v>261.23</v>
       </c>
-      <c r="E45" s="28">
+      <c r="E46" s="28">
         <v>195.88</v>
       </c>
-      <c r="F45" s="28">
+      <c r="F46" s="28">
         <v>156.59</v>
       </c>
-      <c r="G45" s="28">
+      <c r="G46" s="28">
         <v>130.56</v>
       </c>
-      <c r="H45" s="28">
+      <c r="H46" s="28">
         <v>104.51</v>
       </c>
-      <c r="I45" s="28">
+      <c r="I46" s="28">
         <v>91.28</v>
       </c>
-      <c r="J45" s="28">
+      <c r="J46" s="28">
         <v>78.25</v>
       </c>
-      <c r="K45" s="28">
+      <c r="K46" s="28">
         <v>68.5</v>
       </c>
-      <c r="L45" s="28">
-        <v>0</v>
-      </c>
-      <c r="M45" s="28">
-        <v>0</v>
-      </c>
-      <c r="N45" s="28">
-        <v>0</v>
-      </c>
-      <c r="O45" s="28">
-        <v>0</v>
-      </c>
-      <c r="P45" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="28">
-        <v>0</v>
-      </c>
-      <c r="R45" s="28">
-        <v>0</v>
-      </c>
-      <c r="S45" s="28">
-        <v>0</v>
-      </c>
-      <c r="T45" s="28">
-        <v>0</v>
-      </c>
-      <c r="U45" s="28">
-        <v>0</v>
-      </c>
-      <c r="V45" s="28">
-        <v>0</v>
-      </c>
-      <c r="W45" s="28">
+      <c r="L46" s="28">
+        <v>0</v>
+      </c>
+      <c r="M46" s="28">
+        <v>0</v>
+      </c>
+      <c r="N46" s="28">
+        <v>0</v>
+      </c>
+      <c r="O46" s="28">
+        <v>0</v>
+      </c>
+      <c r="P46" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="28">
+        <v>0</v>
+      </c>
+      <c r="R46" s="28">
+        <v>0</v>
+      </c>
+      <c r="S46" s="28">
+        <v>0</v>
+      </c>
+      <c r="T46" s="28">
+        <v>0</v>
+      </c>
+      <c r="U46" s="28">
+        <v>0</v>
+      </c>
+      <c r="V46" s="28">
+        <v>0</v>
+      </c>
+      <c r="W46" s="28">
         <v>146.22999999999999</v>
       </c>
-      <c r="X45" s="28">
+      <c r="X46" s="28">
         <v>324.98</v>
       </c>
-      <c r="Y45" s="28">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="28">
+      <c r="Y46" s="28">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="28">
         <v>584.95000000000005</v>
       </c>
-      <c r="AA45" s="28">
+      <c r="AA46" s="28">
         <v>812.42</v>
       </c>
-      <c r="AB45" s="28">
+      <c r="AB46" s="28">
         <v>1137.43</v>
       </c>
-      <c r="AC45" s="28">
-        <v>0</v>
-      </c>
-      <c r="AD45" s="28">
+      <c r="AC46" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="28">
         <v>243.74</v>
       </c>
-      <c r="AE45" s="28">
-        <v>0</v>
-      </c>
-      <c r="AF45" s="28">
+      <c r="AE46" s="28">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="28">
         <v>536.21</v>
       </c>
-      <c r="AG45" s="28">
+      <c r="AG46" s="28">
         <v>747.42</v>
       </c>
-      <c r="AH45" s="28">
-        <v>0</v>
-      </c>
-      <c r="AI45" s="28">
-        <v>0</v>
-      </c>
-      <c r="AJ45" s="28">
+      <c r="AH46" s="28">
+        <v>0</v>
+      </c>
+      <c r="AI46" s="28">
+        <v>0</v>
+      </c>
+      <c r="AJ46" s="28">
         <v>219.34</v>
       </c>
-      <c r="AK45" s="28">
-        <v>0</v>
-      </c>
-      <c r="AL45" s="28">
+      <c r="AK46" s="28">
+        <v>0</v>
+      </c>
+      <c r="AL46" s="28">
         <v>471.2</v>
       </c>
-      <c r="AM45" s="28">
+      <c r="AM46" s="28">
         <v>617.42999999999995</v>
       </c>
-      <c r="AN45" s="28">
-        <v>0</v>
-      </c>
-      <c r="AO45" s="28">
-        <v>0</v>
-      </c>
-      <c r="AP45" s="28">
-        <v>0</v>
-      </c>
-      <c r="AQ45" s="28">
+      <c r="AN46" s="28">
+        <v>0</v>
+      </c>
+      <c r="AO46" s="28">
+        <v>0</v>
+      </c>
+      <c r="AP46" s="28">
+        <v>0</v>
+      </c>
+      <c r="AQ46" s="28">
         <v>3.02</v>
       </c>
     </row>
@@ -6952,20 +7173,20 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="31"/>
       <c r="C1" s="8"/>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="29"/>
+      <c r="E1" s="31"/>
       <c r="F1" s="8"/>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="29"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -7159,17 +7380,17 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
@@ -7183,17 +7404,17 @@
       <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="DQUGja0DnPXWQ+h+EKUW5ebZur65T0vwyWmaGyxWbM73GXV+aEIqHEdhNSYtU3fkdJtsoumDnuDZri4V/gXyTQ==" saltValue="s7PCd7LbdlozeCrYi6r4wQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
@@ -7206,4 +7427,376 @@
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AP4"/>
+  <sheetViews>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:AP2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="10" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="21" width="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="7" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="7" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="7" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="7" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="5" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="7" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>2020</v>
+      </c>
+      <c r="B1">
+        <v>281.72000000000003</v>
+      </c>
+      <c r="C1">
+        <v>225.4</v>
+      </c>
+      <c r="D1">
+        <v>169</v>
+      </c>
+      <c r="E1">
+        <v>135.1</v>
+      </c>
+      <c r="F1">
+        <v>112.65</v>
+      </c>
+      <c r="G1">
+        <v>90.15</v>
+      </c>
+      <c r="H1">
+        <v>78.75</v>
+      </c>
+      <c r="I1">
+        <v>67.510000000000005</v>
+      </c>
+      <c r="J1">
+        <v>56.26</v>
+      </c>
+      <c r="K1">
+        <v>0</v>
+      </c>
+      <c r="L1">
+        <v>51.95</v>
+      </c>
+      <c r="M1">
+        <v>0</v>
+      </c>
+      <c r="N1">
+        <v>0</v>
+      </c>
+      <c r="O1">
+        <v>0</v>
+      </c>
+      <c r="P1">
+        <v>0</v>
+      </c>
+      <c r="Q1">
+        <v>0</v>
+      </c>
+      <c r="R1">
+        <v>0</v>
+      </c>
+      <c r="S1">
+        <v>0</v>
+      </c>
+      <c r="T1">
+        <v>0</v>
+      </c>
+      <c r="U1">
+        <v>0</v>
+      </c>
+      <c r="V1">
+        <v>126.18</v>
+      </c>
+      <c r="W1">
+        <v>280.39</v>
+      </c>
+      <c r="X1">
+        <v>0</v>
+      </c>
+      <c r="Y1">
+        <v>504.7</v>
+      </c>
+      <c r="Z1">
+        <v>700.96</v>
+      </c>
+      <c r="AA1">
+        <v>981.36</v>
+      </c>
+      <c r="AB1">
+        <v>0</v>
+      </c>
+      <c r="AC1">
+        <v>210.29</v>
+      </c>
+      <c r="AD1">
+        <v>0</v>
+      </c>
+      <c r="AE1">
+        <v>462.63</v>
+      </c>
+      <c r="AF1">
+        <v>644.87</v>
+      </c>
+      <c r="AG1">
+        <v>0</v>
+      </c>
+      <c r="AH1">
+        <v>0</v>
+      </c>
+      <c r="AI1">
+        <v>189.25</v>
+      </c>
+      <c r="AJ1">
+        <v>0</v>
+      </c>
+      <c r="AK1">
+        <v>406.55</v>
+      </c>
+      <c r="AL1">
+        <v>532.73</v>
+      </c>
+      <c r="AM1">
+        <v>0</v>
+      </c>
+      <c r="AN1">
+        <v>2.48</v>
+      </c>
+      <c r="AO1">
+        <v>111.89</v>
+      </c>
+      <c r="AP1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1987</v>
+      </c>
+      <c r="B2" s="34">
+        <v>453.19</v>
+      </c>
+      <c r="C2" s="34">
+        <v>362.59</v>
+      </c>
+      <c r="D2" s="34">
+        <v>271.86</v>
+      </c>
+      <c r="E2" s="34">
+        <v>217.33</v>
+      </c>
+      <c r="F2" s="34">
+        <v>181.22</v>
+      </c>
+      <c r="G2" s="34">
+        <v>145.02000000000001</v>
+      </c>
+      <c r="H2" s="34">
+        <v>126.68</v>
+      </c>
+      <c r="I2" s="34">
+        <v>108.6</v>
+      </c>
+      <c r="J2" s="34">
+        <v>90.5</v>
+      </c>
+      <c r="K2">
+        <f>K1+K1*$A$4</f>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f t="shared" ref="L2:AP2" si="0">L1+L1*$A$4</f>
+        <v>135.51933712758125</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <f t="shared" si="0"/>
+        <v>329.15938322922432</v>
+      </c>
+      <c r="W2">
+        <f t="shared" si="0"/>
+        <v>731.43920957078933</v>
+      </c>
+      <c r="X2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" si="0"/>
+        <v>1316.5853599285902</v>
+      </c>
+      <c r="Z2">
+        <f t="shared" si="0"/>
+        <v>1828.5588941857432</v>
+      </c>
+      <c r="AA2">
+        <f t="shared" si="0"/>
+        <v>2560.0241902506859</v>
+      </c>
+      <c r="AB2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <f t="shared" si="0"/>
+        <v>548.57288555455364</v>
+      </c>
+      <c r="AD2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <f t="shared" si="0"/>
+        <v>1206.8394790246953</v>
+      </c>
+      <c r="AF2">
+        <f t="shared" si="0"/>
+        <v>1682.2397484786011</v>
+      </c>
+      <c r="AG2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <f t="shared" si="0"/>
+        <v>493.68690185552941</v>
+      </c>
+      <c r="AJ2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <f t="shared" si="0"/>
+        <v>1060.5464198117068</v>
+      </c>
+      <c r="AL2">
+        <f t="shared" si="0"/>
+        <v>1389.705803040931</v>
+      </c>
+      <c r="AM2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <f t="shared" si="0"/>
+        <v>6.4694505500751012</v>
+      </c>
+      <c r="AO2">
+        <f t="shared" si="0"/>
+        <v>291.88178308383186</v>
+      </c>
+      <c r="AP2">
+        <f t="shared" si="0"/>
+        <v>6.7824884799174452</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="35">
+        <f>B2/B1</f>
+        <v>1.6086539826778359</v>
+      </c>
+      <c r="C3" s="35">
+        <f t="shared" ref="C3:J3" si="1">C2/C1</f>
+        <v>1.608651286601597</v>
+      </c>
+      <c r="D3" s="35">
+        <f t="shared" si="1"/>
+        <v>1.6086390532544379</v>
+      </c>
+      <c r="E3" s="35">
+        <f t="shared" si="1"/>
+        <v>1.6086602516654331</v>
+      </c>
+      <c r="F3" s="35">
+        <f t="shared" si="1"/>
+        <v>1.6086995117620948</v>
+      </c>
+      <c r="G3" s="35">
+        <f t="shared" si="1"/>
+        <v>1.6086522462562396</v>
+      </c>
+      <c r="H3" s="35">
+        <f t="shared" si="1"/>
+        <v>1.6086349206349206</v>
+      </c>
+      <c r="I3" s="35">
+        <f t="shared" si="1"/>
+        <v>1.6086505702858833</v>
+      </c>
+      <c r="J3" s="35">
+        <f t="shared" si="1"/>
+        <v>1.6086029150373267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A4" s="36">
+        <f>AVERAGE(B3:J3)</f>
+        <v>1.6086494153528634</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/TVV.xlsx
+++ b/TVV.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="91">
   <si>
     <t>3607/2016</t>
   </si>
@@ -303,6 +303,9 @@
   </si>
   <si>
     <t>%</t>
+  </si>
+  <si>
+    <t>4829/2024</t>
   </si>
 </sst>
 </file>
@@ -311,9 +314,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="0.0000%"/>
+    <numFmt numFmtId="164" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -382,6 +385,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -421,7 +430,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -477,6 +486,9 @@
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -486,9 +498,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hiperlink" xfId="2" builtinId="8"/>
@@ -1110,8 +1122,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A1:AQ46" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
-  <autoFilter ref="A1:AQ46"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A1:AQ47" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+  <autoFilter ref="A1:AQ47"/>
   <tableColumns count="43">
     <tableColumn id="1" name="Ano" dataDxfId="42"/>
     <tableColumn id="2" name="Decreto" dataDxfId="41"/>
@@ -1438,10 +1450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ46"/>
+  <dimension ref="A1:AQ47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="AQ47" sqref="AQ47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -7152,6 +7164,137 @@
         <v>3.02</v>
       </c>
     </row>
+    <row r="47" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A47" s="37">
+        <v>2025</v>
+      </c>
+      <c r="B47" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" s="39">
+        <v>342.41</v>
+      </c>
+      <c r="D47" s="39">
+        <v>273.95</v>
+      </c>
+      <c r="E47" s="39">
+        <v>205.42</v>
+      </c>
+      <c r="F47" s="39">
+        <v>164.22</v>
+      </c>
+      <c r="G47" s="39">
+        <v>136.91999999999999</v>
+      </c>
+      <c r="H47" s="39">
+        <v>109.6</v>
+      </c>
+      <c r="I47" s="39">
+        <v>95.73</v>
+      </c>
+      <c r="J47" s="39">
+        <v>82.06</v>
+      </c>
+      <c r="K47" s="39">
+        <v>74.459999999999994</v>
+      </c>
+      <c r="L47" s="39">
+        <v>0</v>
+      </c>
+      <c r="M47" s="39">
+        <v>0</v>
+      </c>
+      <c r="N47" s="39">
+        <v>0</v>
+      </c>
+      <c r="O47" s="39">
+        <v>0</v>
+      </c>
+      <c r="P47" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="39">
+        <v>0</v>
+      </c>
+      <c r="R47" s="39">
+        <v>0</v>
+      </c>
+      <c r="S47" s="39">
+        <v>0</v>
+      </c>
+      <c r="T47" s="39">
+        <v>0</v>
+      </c>
+      <c r="U47" s="39">
+        <v>0</v>
+      </c>
+      <c r="V47" s="39">
+        <v>0</v>
+      </c>
+      <c r="W47" s="39">
+        <v>153.35</v>
+      </c>
+      <c r="X47" s="39">
+        <v>340.81</v>
+      </c>
+      <c r="Y47" s="39">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="39">
+        <v>613.44000000000005</v>
+      </c>
+      <c r="AA47" s="39">
+        <v>851.98</v>
+      </c>
+      <c r="AB47" s="39">
+        <v>1192.82</v>
+      </c>
+      <c r="AC47" s="39">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="39">
+        <v>255.61</v>
+      </c>
+      <c r="AE47" s="39">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="39">
+        <v>562.32000000000005</v>
+      </c>
+      <c r="AG47" s="39">
+        <v>783.82</v>
+      </c>
+      <c r="AH47" s="39">
+        <v>0</v>
+      </c>
+      <c r="AI47" s="39">
+        <v>0</v>
+      </c>
+      <c r="AJ47" s="39">
+        <v>230.02</v>
+      </c>
+      <c r="AK47" s="39">
+        <v>0</v>
+      </c>
+      <c r="AL47" s="39">
+        <v>494.15</v>
+      </c>
+      <c r="AM47" s="39">
+        <v>647.5</v>
+      </c>
+      <c r="AN47" s="39">
+        <v>0</v>
+      </c>
+      <c r="AO47" s="39">
+        <v>0</v>
+      </c>
+      <c r="AP47" s="39">
+        <v>0</v>
+      </c>
+      <c r="AQ47" s="39">
+        <v>3.17</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -7173,20 +7316,20 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="8"/>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="31"/>
+      <c r="E1" s="34"/>
       <c r="F1" s="8"/>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="31"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -7380,17 +7523,17 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
@@ -7404,17 +7547,17 @@
       <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="DQUGja0DnPXWQ+h+EKUW5ebZur65T0vwyWmaGyxWbM73GXV+aEIqHEdhNSYtU3fkdJtsoumDnuDZri4V/gXyTQ==" saltValue="s7PCd7LbdlozeCrYi6r4wQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
@@ -7593,31 +7736,31 @@
       <c r="A2">
         <v>1987</v>
       </c>
-      <c r="B2" s="34">
+      <c r="B2" s="31">
         <v>453.19</v>
       </c>
-      <c r="C2" s="34">
+      <c r="C2" s="31">
         <v>362.59</v>
       </c>
-      <c r="D2" s="34">
+      <c r="D2" s="31">
         <v>271.86</v>
       </c>
-      <c r="E2" s="34">
+      <c r="E2" s="31">
         <v>217.33</v>
       </c>
-      <c r="F2" s="34">
+      <c r="F2" s="31">
         <v>181.22</v>
       </c>
-      <c r="G2" s="34">
+      <c r="G2" s="31">
         <v>145.02000000000001</v>
       </c>
-      <c r="H2" s="34">
+      <c r="H2" s="31">
         <v>126.68</v>
       </c>
-      <c r="I2" s="34">
+      <c r="I2" s="31">
         <v>108.6</v>
       </c>
-      <c r="J2" s="34">
+      <c r="J2" s="31">
         <v>90.5</v>
       </c>
       <c r="K2">
@@ -7753,45 +7896,45 @@
       <c r="A3" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="35">
+      <c r="B3" s="32">
         <f>B2/B1</f>
         <v>1.6086539826778359</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C3" s="32">
         <f t="shared" ref="C3:J3" si="1">C2/C1</f>
         <v>1.608651286601597</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="32">
         <f t="shared" si="1"/>
         <v>1.6086390532544379</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="32">
         <f t="shared" si="1"/>
         <v>1.6086602516654331</v>
       </c>
-      <c r="F3" s="35">
+      <c r="F3" s="32">
         <f t="shared" si="1"/>
         <v>1.6086995117620948</v>
       </c>
-      <c r="G3" s="35">
+      <c r="G3" s="32">
         <f t="shared" si="1"/>
         <v>1.6086522462562396</v>
       </c>
-      <c r="H3" s="35">
+      <c r="H3" s="32">
         <f t="shared" si="1"/>
         <v>1.6086349206349206</v>
       </c>
-      <c r="I3" s="35">
+      <c r="I3" s="32">
         <f t="shared" si="1"/>
         <v>1.6086505702858833</v>
       </c>
-      <c r="J3" s="35">
+      <c r="J3" s="32">
         <f t="shared" si="1"/>
         <v>1.6086029150373267</v>
       </c>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A4" s="36">
+      <c r="A4" s="33">
         <f>AVERAGE(B3:J3)</f>
         <v>1.6086494153528634</v>
       </c>

--- a/TVV.xlsx
+++ b/TVV.xlsx
@@ -489,6 +489,9 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -498,9 +501,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hiperlink" xfId="2" builtinId="8"/>
@@ -1122,8 +1122,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A1:AQ47" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
-  <autoFilter ref="A1:AQ47"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A1:AQ48" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+  <autoFilter ref="A1:AQ48"/>
   <tableColumns count="43">
     <tableColumn id="1" name="Ano" dataDxfId="42"/>
     <tableColumn id="2" name="Decreto" dataDxfId="41"/>
@@ -1450,10 +1450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ47"/>
+  <dimension ref="A1:AQ48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="AQ47" sqref="AQ47"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -7165,134 +7165,263 @@
       </c>
     </row>
     <row r="47" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A47" s="37">
+      <c r="A47" s="34">
         <v>2025</v>
       </c>
-      <c r="B47" s="38" t="s">
+      <c r="B47" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="C47" s="39">
+      <c r="C47" s="36">
         <v>342.41</v>
       </c>
-      <c r="D47" s="39">
+      <c r="D47" s="36">
         <v>273.95</v>
       </c>
-      <c r="E47" s="39">
+      <c r="E47" s="36">
         <v>205.42</v>
       </c>
-      <c r="F47" s="39">
+      <c r="F47" s="36">
         <v>164.22</v>
       </c>
-      <c r="G47" s="39">
+      <c r="G47" s="36">
         <v>136.91999999999999</v>
       </c>
-      <c r="H47" s="39">
+      <c r="H47" s="36">
         <v>109.6</v>
       </c>
-      <c r="I47" s="39">
+      <c r="I47" s="36">
         <v>95.73</v>
       </c>
-      <c r="J47" s="39">
+      <c r="J47" s="36">
         <v>82.06</v>
       </c>
-      <c r="K47" s="39">
+      <c r="K47" s="36">
         <v>74.459999999999994</v>
       </c>
-      <c r="L47" s="39">
-        <v>0</v>
-      </c>
-      <c r="M47" s="39">
-        <v>0</v>
-      </c>
-      <c r="N47" s="39">
-        <v>0</v>
-      </c>
-      <c r="O47" s="39">
-        <v>0</v>
-      </c>
-      <c r="P47" s="39">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="39">
-        <v>0</v>
-      </c>
-      <c r="R47" s="39">
-        <v>0</v>
-      </c>
-      <c r="S47" s="39">
-        <v>0</v>
-      </c>
-      <c r="T47" s="39">
-        <v>0</v>
-      </c>
-      <c r="U47" s="39">
-        <v>0</v>
-      </c>
-      <c r="V47" s="39">
-        <v>0</v>
-      </c>
-      <c r="W47" s="39">
+      <c r="L47" s="36">
+        <v>0</v>
+      </c>
+      <c r="M47" s="36">
+        <v>0</v>
+      </c>
+      <c r="N47" s="36">
+        <v>0</v>
+      </c>
+      <c r="O47" s="36">
+        <v>0</v>
+      </c>
+      <c r="P47" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="36">
+        <v>0</v>
+      </c>
+      <c r="R47" s="36">
+        <v>0</v>
+      </c>
+      <c r="S47" s="36">
+        <v>0</v>
+      </c>
+      <c r="T47" s="36">
+        <v>0</v>
+      </c>
+      <c r="U47" s="36">
+        <v>0</v>
+      </c>
+      <c r="V47" s="36">
+        <v>0</v>
+      </c>
+      <c r="W47" s="36">
         <v>153.35</v>
       </c>
-      <c r="X47" s="39">
+      <c r="X47" s="36">
         <v>340.81</v>
       </c>
-      <c r="Y47" s="39">
-        <v>0</v>
-      </c>
-      <c r="Z47" s="39">
+      <c r="Y47" s="36">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="36">
         <v>613.44000000000005</v>
       </c>
-      <c r="AA47" s="39">
+      <c r="AA47" s="36">
         <v>851.98</v>
       </c>
-      <c r="AB47" s="39">
+      <c r="AB47" s="36">
         <v>1192.82</v>
       </c>
-      <c r="AC47" s="39">
-        <v>0</v>
-      </c>
-      <c r="AD47" s="39">
+      <c r="AC47" s="36">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="36">
         <v>255.61</v>
       </c>
-      <c r="AE47" s="39">
-        <v>0</v>
-      </c>
-      <c r="AF47" s="39">
+      <c r="AE47" s="36">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="36">
         <v>562.32000000000005</v>
       </c>
-      <c r="AG47" s="39">
+      <c r="AG47" s="36">
         <v>783.82</v>
       </c>
-      <c r="AH47" s="39">
-        <v>0</v>
-      </c>
-      <c r="AI47" s="39">
-        <v>0</v>
-      </c>
-      <c r="AJ47" s="39">
+      <c r="AH47" s="36">
+        <v>0</v>
+      </c>
+      <c r="AI47" s="36">
+        <v>0</v>
+      </c>
+      <c r="AJ47" s="36">
         <v>230.02</v>
       </c>
-      <c r="AK47" s="39">
-        <v>0</v>
-      </c>
-      <c r="AL47" s="39">
+      <c r="AK47" s="36">
+        <v>0</v>
+      </c>
+      <c r="AL47" s="36">
         <v>494.15</v>
       </c>
-      <c r="AM47" s="39">
+      <c r="AM47" s="36">
         <v>647.5</v>
       </c>
-      <c r="AN47" s="39">
-        <v>0</v>
-      </c>
-      <c r="AO47" s="39">
-        <v>0</v>
-      </c>
-      <c r="AP47" s="39">
-        <v>0</v>
-      </c>
-      <c r="AQ47" s="39">
+      <c r="AN47" s="36">
+        <v>0</v>
+      </c>
+      <c r="AO47" s="36">
+        <v>0</v>
+      </c>
+      <c r="AP47" s="36">
+        <v>0</v>
+      </c>
+      <c r="AQ47" s="36">
         <v>3.17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A48" s="34">
+        <v>2026</v>
+      </c>
+      <c r="B48" s="35"/>
+      <c r="C48" s="5">
+        <v>357.68</v>
+      </c>
+      <c r="D48" s="5">
+        <v>286.17</v>
+      </c>
+      <c r="E48" s="5">
+        <v>214.58</v>
+      </c>
+      <c r="F48" s="5">
+        <v>171.54</v>
+      </c>
+      <c r="G48" s="5">
+        <v>143.03</v>
+      </c>
+      <c r="H48" s="5">
+        <v>114.49</v>
+      </c>
+      <c r="I48" s="5">
+        <v>100</v>
+      </c>
+      <c r="J48" s="5">
+        <v>85.72</v>
+      </c>
+      <c r="K48" s="5">
+        <v>80.39</v>
+      </c>
+      <c r="L48" s="36">
+        <v>0</v>
+      </c>
+      <c r="M48" s="36">
+        <v>0</v>
+      </c>
+      <c r="N48" s="36">
+        <v>0</v>
+      </c>
+      <c r="O48" s="36">
+        <v>0</v>
+      </c>
+      <c r="P48" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="36">
+        <v>0</v>
+      </c>
+      <c r="R48" s="36">
+        <v>0</v>
+      </c>
+      <c r="S48" s="36">
+        <v>0</v>
+      </c>
+      <c r="T48" s="36">
+        <v>0</v>
+      </c>
+      <c r="U48" s="36">
+        <v>0</v>
+      </c>
+      <c r="V48" s="36">
+        <v>0</v>
+      </c>
+      <c r="W48" s="36">
+        <v>160.19</v>
+      </c>
+      <c r="X48" s="36">
+        <v>356.01</v>
+      </c>
+      <c r="Y48" s="36">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="36">
+        <v>640.79999999999995</v>
+      </c>
+      <c r="AA48" s="36">
+        <v>889.98</v>
+      </c>
+      <c r="AB48" s="36">
+        <v>1246.02</v>
+      </c>
+      <c r="AC48" s="36">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="36">
+        <v>267.01</v>
+      </c>
+      <c r="AE48" s="36">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="36">
+        <v>587.4</v>
+      </c>
+      <c r="AG48" s="36">
+        <v>818.78</v>
+      </c>
+      <c r="AH48" s="36">
+        <v>0</v>
+      </c>
+      <c r="AI48" s="36">
+        <v>0</v>
+      </c>
+      <c r="AJ48" s="36">
+        <v>240.28</v>
+      </c>
+      <c r="AK48" s="36">
+        <v>0</v>
+      </c>
+      <c r="AL48" s="36">
+        <v>516.19000000000005</v>
+      </c>
+      <c r="AM48" s="36">
+        <v>676.38</v>
+      </c>
+      <c r="AN48" s="36">
+        <v>0</v>
+      </c>
+      <c r="AO48" s="36">
+        <v>0</v>
+      </c>
+      <c r="AP48" s="36">
+        <v>0</v>
+      </c>
+      <c r="AQ48" s="36">
+        <v>3.31</v>
       </c>
     </row>
   </sheetData>
@@ -7316,20 +7445,20 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="37"/>
       <c r="C1" s="8"/>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="34"/>
+      <c r="E1" s="37"/>
       <c r="F1" s="8"/>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="34"/>
+      <c r="H1" s="37"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -7523,17 +7652,17 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
@@ -7547,17 +7676,17 @@
       <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="DQUGja0DnPXWQ+h+EKUW5ebZur65T0vwyWmaGyxWbM73GXV+aEIqHEdhNSYtU3fkdJtsoumDnuDZri4V/gXyTQ==" saltValue="s7PCd7LbdlozeCrYi6r4wQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>

--- a/TVV.xlsx
+++ b/TVV.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
   <si>
     <t>3607/2016</t>
   </si>
@@ -306,6 +306,9 @@
   </si>
   <si>
     <t>4829/2024</t>
+  </si>
+  <si>
+    <t>4907/2026</t>
   </si>
 </sst>
 </file>
@@ -389,6 +392,7 @@
       <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1452,8 +1456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AO16" sqref="AO16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -5509,15 +5513,21 @@
       <c r="K34" s="5">
         <v>35.97</v>
       </c>
-      <c r="L34" s="5"/>
+      <c r="L34" s="5">
+        <v>0</v>
+      </c>
       <c r="M34" s="5">
         <v>28.67</v>
       </c>
       <c r="N34" s="5">
         <v>21.57</v>
       </c>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
+      <c r="O34" s="5">
+        <v>0</v>
+      </c>
+      <c r="P34" s="5">
+        <v>0</v>
+      </c>
       <c r="Q34" s="5">
         <v>14.42</v>
       </c>
@@ -7299,7 +7309,9 @@
       <c r="A48" s="34">
         <v>2026</v>
       </c>
-      <c r="B48" s="35"/>
+      <c r="B48" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="C48" s="5">
         <v>357.68</v>
       </c>
@@ -7705,7 +7717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP4"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:AP2"/>
     </sheetView>
   </sheetViews>
